--- a/pacehrh/tests/simple_config/super_simple_inputs.xlsx
+++ b/pacehrh/tests/simple_config/super_simple_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesel\Source\Ethiopia-HEP-Capacity-Analysis\pacehrh\tests\simple_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66FD35B-2776-42DF-B317-3B42739E7F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4BE423-A4B9-44E8-88E6-F91305A4DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="1005" windowWidth="21600" windowHeight="9465" tabRatio="830" firstSheet="1" activeTab="3" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="5340" yWindow="0" windowWidth="21600" windowHeight="10200" tabRatio="830" activeTab="6" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="80" r:id="rId1"/>
@@ -18,37 +18,51 @@
     <sheet name="Flat_Rates" sheetId="90" r:id="rId3"/>
     <sheet name="Rise_Rates" sheetId="93" r:id="rId4"/>
     <sheet name="Flat_StochasticParms" sheetId="91" r:id="rId5"/>
-    <sheet name="TEST_StochasticParms" sheetId="76" r:id="rId6"/>
-    <sheet name="TEST_TotalPop" sheetId="74" r:id="rId7"/>
-    <sheet name="TEST_PopValues" sheetId="75" r:id="rId8"/>
-    <sheet name="TEST_PopValues_Const" sheetId="77" r:id="rId9"/>
-    <sheet name="TEST_TaskValues" sheetId="78" r:id="rId10"/>
-    <sheet name="TEST_TaskValues_1" sheetId="81" r:id="rId11"/>
-    <sheet name="EXP_PopValues" sheetId="84" r:id="rId12"/>
-    <sheet name="newPopValues" sheetId="88" r:id="rId13"/>
-    <sheet name="TEST_SeasonalityCurves_1" sheetId="82" r:id="rId14"/>
-    <sheet name="PopValues" sheetId="56" r:id="rId15"/>
-    <sheet name="TaskValues" sheetId="57" r:id="rId16"/>
-    <sheet name="StochasticParameters" sheetId="72" r:id="rId17"/>
-    <sheet name="SeasonalityCurves" sheetId="58" r:id="rId18"/>
-    <sheet name="SeasonalityOffsets" sheetId="66" r:id="rId19"/>
+    <sheet name="Lookup" sheetId="94" r:id="rId6"/>
+    <sheet name="Bad_Lookup" sheetId="95" r:id="rId7"/>
+    <sheet name="TEST_StochasticParms" sheetId="76" r:id="rId8"/>
+    <sheet name="TEST_TotalPop" sheetId="74" r:id="rId9"/>
+    <sheet name="TEST_PopValues_Const" sheetId="77" r:id="rId10"/>
+    <sheet name="TEST_TaskValues" sheetId="78" r:id="rId11"/>
+    <sheet name="TEST_TaskValues_1" sheetId="81" r:id="rId12"/>
+    <sheet name="EXP_PopValues" sheetId="84" r:id="rId13"/>
+    <sheet name="newPopValues" sheetId="88" r:id="rId14"/>
+    <sheet name="TEST_SeasonalityCurves_1" sheetId="82" r:id="rId15"/>
+    <sheet name="PopValues" sheetId="56" r:id="rId16"/>
+    <sheet name="TaskValues" sheetId="57" r:id="rId17"/>
+    <sheet name="StochasticParameters" sheetId="72" r:id="rId18"/>
+    <sheet name="SeasonalityCurves" sheetId="58" r:id="rId19"/>
+    <sheet name="SeasonalityOffsets" sheetId="66" r:id="rId20"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">TaskValues!$A$1:$S$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">TaskValues!$A$1:$S$103</definedName>
+    <definedName name="hours" localSheetId="6">#REF!</definedName>
+    <definedName name="hours" localSheetId="5">#REF!</definedName>
     <definedName name="hours" localSheetId="0">#REF!</definedName>
     <definedName name="hours">#REF!</definedName>
+    <definedName name="select_pop" localSheetId="6">#REF!</definedName>
+    <definedName name="select_pop" localSheetId="5">#REF!</definedName>
     <definedName name="select_pop" localSheetId="0">#REF!</definedName>
     <definedName name="select_pop">#REF!</definedName>
-    <definedName name="total_pop" localSheetId="0">[1]Demographics_Total!$CZ$3</definedName>
+    <definedName name="select_pop_2">'[1]Inputs Assump'!$C$4</definedName>
+    <definedName name="total_pop" localSheetId="6">[2]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop" localSheetId="5">[2]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop" localSheetId="0">[2]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop">#REF!</definedName>
-    <definedName name="total_pop_2">[1]Demographics_Total!$CZ$3</definedName>
-    <definedName name="total_pop2" localSheetId="0">[2]Demographics_Total!$CZ$3</definedName>
-    <definedName name="total_pop2">[3]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop_2">[2]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2" localSheetId="6">[3]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2" localSheetId="5">[3]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2" localSheetId="0">[4]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2">[5]Demographics_Total!$CZ$3</definedName>
+    <definedName name="weeks" localSheetId="6">#REF!</definedName>
+    <definedName name="weeks" localSheetId="5">#REF!</definedName>
     <definedName name="weeks" localSheetId="0">#REF!</definedName>
     <definedName name="weeks">#REF!</definedName>
   </definedNames>
@@ -71,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="427">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -1307,6 +1321,51 @@
   </si>
   <si>
     <t>MortalityM</t>
+  </si>
+  <si>
+    <t>Clinical Category</t>
+  </si>
+  <si>
+    <t>Service Category</t>
+  </si>
+  <si>
+    <t>Relevant Population Labels</t>
+  </si>
+  <si>
+    <t>Starting Age</t>
+  </si>
+  <si>
+    <t>Ending Age</t>
+  </si>
+  <si>
+    <t>Preventive</t>
+  </si>
+  <si>
+    <t>Chronic</t>
+  </si>
+  <si>
+    <t>Sexual health</t>
+  </si>
+  <si>
+    <t>Acute</t>
+  </si>
+  <si>
+    <t>NTDs</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>0-100</t>
+  </si>
+  <si>
+    <t>35-55</t>
+  </si>
+  <si>
+    <t>xxx_Female</t>
+  </si>
+  <si>
+    <t>yyy_Male</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1384,7 @@
     <numFmt numFmtId="171" formatCode="0.00000000"/>
     <numFmt numFmtId="172" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1404,6 +1463,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1495,7 +1569,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1550,6 +1624,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1582,6 +1658,141 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TEST_TotalPop"/>
+      <sheetName val="TEST_PopValues_Const"/>
+      <sheetName val="TEST_StochasticParms"/>
+      <sheetName val="TEST_TaskValues"/>
+      <sheetName val="TEST_TaskValues_1"/>
+      <sheetName val="TEST_PopValues"/>
+      <sheetName val="To Do or Upgrade"/>
+      <sheetName val="TEST_SeasonalityCurves_1"/>
+      <sheetName val="Scenarios"/>
+      <sheetName val="Data dictionary Scenarios"/>
+      <sheetName val="TotalPop"/>
+      <sheetName val="Lookup"/>
+      <sheetName val="PopValues"/>
+      <sheetName val="TaskValues"/>
+      <sheetName val="StochasticParamaters"/>
+      <sheetName val="AgeSpecific Fertility"/>
+      <sheetName val="RuralUrban Mortality"/>
+      <sheetName val="Fertility mod check"/>
+      <sheetName val="Ratios"/>
+      <sheetName val="SeasonalityCurves"/>
+      <sheetName val="SeasonalityOffsets"/>
+      <sheetName val="Services summary"/>
+      <sheetName val="AggregateDALYs"/>
+      <sheetName val="Prevalences"/>
+      <sheetName val="DALYs "/>
+      <sheetName val="CEA"/>
+      <sheetName val="Work time"/>
+      <sheetName val="Ssn TB"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Ssn Malaria"/>
+      <sheetName val="Ssn Nutr"/>
+      <sheetName val="Ssn Measles"/>
+      <sheetName val="Sheet21"/>
+      <sheetName val="Services ref"/>
+      <sheetName val="Coverage impacts"/>
+      <sheetName val="Inputs Assump"/>
+      <sheetName val="Demographics_Total"/>
+      <sheetName val="Pop M"/>
+      <sheetName val="Pop F"/>
+      <sheetName val="TB Incidence"/>
+      <sheetName val="Malaria Incid"/>
+      <sheetName val="FP mod"/>
+      <sheetName val="unmet need"/>
+      <sheetName val="HIV Prev"/>
+      <sheetName val="HIV Incid"/>
+      <sheetName val="fertility"/>
+      <sheetName val="fertility 15-19"/>
+      <sheetName val="mort infant"/>
+      <sheetName val="mort 1-5"/>
+      <sheetName val="mort 5-9"/>
+      <sheetName val="mort 10-14"/>
+      <sheetName val="mort 15-19"/>
+      <sheetName val="mort 20-24"/>
+      <sheetName val="mort adult f"/>
+      <sheetName val="mort adult m"/>
+      <sheetName val="Staffing Ratios"/>
+      <sheetName val="Demographics_InCalc"/>
+      <sheetName val="Births"/>
+      <sheetName val="Mortality"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35">
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Total national</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1646,81 +1857,95 @@
       <sheetName val="mort adult f"/>
       <sheetName val="mort adult m"/>
       <sheetName val="AggregateDALYs"/>
+      <sheetName val="PopValues_retain"/>
+      <sheetName val="NCD age group"/>
+      <sheetName val="Fertility Mortality Rates"/>
+      <sheetName val="Lookup"/>
+      <sheetName val="PopRegional2020"/>
+      <sheetName val="Pop_female_2020"/>
+      <sheetName val="Pop_male_2020"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
       <sheetData sheetId="43">
         <row r="3">
           <cell r="CZ3">
-            <v>115103531.71799999</v>
+            <v>24715222.24724872</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
-      <sheetData sheetId="57" refreshError="1"/>
-      <sheetData sheetId="58" refreshError="1"/>
-      <sheetData sheetId="59" refreshError="1"/>
-      <sheetData sheetId="60" refreshError="1"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1863,7 +2088,150 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="To Do or Upgrade"/>
+      <sheetName val="Inputs Assump"/>
+      <sheetName val="C FTE Equiv"/>
+      <sheetName val="C Tot Hrs by Cat"/>
+      <sheetName val="C Variance"/>
+      <sheetName val="Time Summary"/>
+      <sheetName val="C Hrs by Category (3)"/>
+      <sheetName val="C Hrs by Category (2)"/>
+      <sheetName val="C Ratio to Baseline"/>
+      <sheetName val="Pie 2020"/>
+      <sheetName val="Calculations"/>
+      <sheetName val="Demographics_InCalc"/>
+      <sheetName val="Births"/>
+      <sheetName val="Mortality"/>
+      <sheetName val="FH.MC"/>
+      <sheetName val="FH.FP"/>
+      <sheetName val="FH.Im"/>
+      <sheetName val="FH.N"/>
+      <sheetName val="DPC"/>
+      <sheetName val="Other"/>
+      <sheetName val="DATA"/>
+      <sheetName val="Ssn Malaria"/>
+      <sheetName val="Ssn Nutr"/>
+      <sheetName val="Ssn Measles"/>
+      <sheetName val="Demographics_Total"/>
+      <sheetName val="Prevalences"/>
+      <sheetName val="Work time"/>
+      <sheetName val="Sheet21"/>
+      <sheetName val="Services summary"/>
+      <sheetName val="Services ref"/>
+      <sheetName val="Coverage impacts"/>
+      <sheetName val="Pop M"/>
+      <sheetName val="Pop F"/>
+      <sheetName val="TB Incidence"/>
+      <sheetName val="Malaria Incid"/>
+      <sheetName val="C Fertility"/>
+      <sheetName val="fertility"/>
+      <sheetName val="FP mod"/>
+      <sheetName val="unmet need"/>
+      <sheetName val="HIV Prev"/>
+      <sheetName val="HIV Incid"/>
+      <sheetName val="mort infant"/>
+      <sheetName val="mort 1-5"/>
+      <sheetName val="mort 5-9"/>
+      <sheetName val="mort 10-14"/>
+      <sheetName val="mort 15-19"/>
+      <sheetName val="mort 20-24"/>
+      <sheetName val="mort adult f"/>
+      <sheetName val="mort adult m"/>
+      <sheetName val="Staffing Ratios"/>
+      <sheetName val="fertility 15-19"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Ratio max rural</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11">
+        <row r="4">
+          <cell r="V4">
+            <v>105.34416988791497</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24">
+        <row r="3">
+          <cell r="CZ3">
+            <v>115103531.71799999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39">
+        <row r="77">
+          <cell r="BC77">
+            <v>1.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="40">
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>Ethiopia</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2585,6 +2953,359 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995A7145-A7A2-400E-A46D-7F405050A633}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>4.0484955677198515</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0.12294985225732839</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8">
+        <v>3.15E-2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>44.870649522800001</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>3.5500000000000007</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>1.1800000000000002</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>0.96</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>1.6</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14">
+        <v>1.72</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>3.9443060860274208</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>5.1027857526880149</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B23">
+        <v>4.6410387643786963</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24">
+        <v>7.8897658994437831</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>290</v>
+      </c>
+      <c r="B25">
+        <v>22.091344518442593</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>291</v>
+      </c>
+      <c r="B26">
+        <v>243.00478970286852</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>292</v>
+      </c>
+      <c r="B27">
+        <v>6.3527026636382198</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28">
+        <v>12.070135060912618</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29">
+        <v>31.382351158372806</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30">
+        <v>273.02645507784337</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2EFC64-DD10-4E27-BDEE-F8164111A157}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -6999,7 +7720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC92EF8-ED58-4F68-8888-9CEAC4C59B7E}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -7179,7 +7900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E7F677-BE8D-4B15-BFBB-F131739569D4}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -8073,7 +8794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4F2564-875C-4CBF-A10D-C89D0A9C38FE}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -8967,7 +9688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C257F5-E6CC-4BAC-9A98-0BD35FA17AEF}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -9388,7 +10109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B914963F-A73F-44CC-BA92-87184BB1A8C7}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -9834,7 +10555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D83D06-B7B0-4361-896A-BFF57EC1D426}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -14831,7 +15552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDCD1CB-9612-4FAF-ACD4-A7C81D8F794C}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -14957,7 +15678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1975A502-7E7F-4553-BC06-71CD8A16214F}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -15315,396 +16036,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FB9B18-434F-4677-A182-407CBC10EA8F}">
-  <sheetPr>
-    <tabColor theme="9" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:I22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" t="s">
-        <v>282</v>
-      </c>
-      <c r="I1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2">
-        <v>-7</v>
-      </c>
-      <c r="E2">
-        <v>-5</v>
-      </c>
-      <c r="F2">
-        <v>-3</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-7</v>
-      </c>
-      <c r="E10" s="1">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="1">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>251</v>
-      </c>
-      <c r="B16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>253</v>
-      </c>
-      <c r="B17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B18" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>252</v>
-      </c>
-      <c r="B19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -17251,6 +17582,396 @@
       <c r="D102">
         <f t="shared" si="1"/>
         <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FB9B18-434F-4677-A182-407CBC10EA8F}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>-7</v>
+      </c>
+      <c r="E2">
+        <v>-5</v>
+      </c>
+      <c r="F2">
+        <v>-3</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17489,7 +18210,7 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -17833,6 +18554,1032 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DA224C-9F4E-4904-8642-99CF70167D50}">
+  <dimension ref="B1:J142"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>35</v>
+      </c>
+      <c r="J4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F127"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F129"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F130"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F132"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F133"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F134"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F135"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F136"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F137"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F138"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F139"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F140"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F141"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F142"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA08B31E-403F-4D98-A2C5-BD7B3834450E}">
+  <dimension ref="B1:J142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>35</v>
+      </c>
+      <c r="J4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F127"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F129"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F130"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F132"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F133"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F134"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F135"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F136"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F137"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F138"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F139"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F140"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F141"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F142"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9D8C93-D1F0-4C18-9265-2678791347D8}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -17958,7 +19705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1C1D20-CB4E-4F81-BAF5-8FCEF2CFF00C}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -19506,710 +21253,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512EFF05-775C-43A2-9B3E-1FF481FEDDFB}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>4.0484955677198515</v>
-      </c>
-      <c r="C2">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>0.12294985225732839</v>
-      </c>
-      <c r="C4">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="C5">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B6">
-        <v>0.19850000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B7">
-        <v>0.14050000000000001</v>
-      </c>
-      <c r="C7">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B8">
-        <v>3.15E-2</v>
-      </c>
-      <c r="C8">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9">
-        <v>44.870649522800001</v>
-      </c>
-      <c r="C9">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>3.5500000000000007</v>
-      </c>
-      <c r="C10">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11">
-        <v>1.1800000000000002</v>
-      </c>
-      <c r="C11">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12">
-        <v>0.96</v>
-      </c>
-      <c r="C12">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13">
-        <v>1.6</v>
-      </c>
-      <c r="C13">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>287</v>
-      </c>
-      <c r="B14">
-        <v>1.72</v>
-      </c>
-      <c r="C14">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15">
-        <v>3.9443060860274208</v>
-      </c>
-      <c r="C15">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16">
-        <v>5.1027857526880149</v>
-      </c>
-      <c r="C16">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="C17">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>234</v>
-      </c>
-      <c r="B18">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="C18">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B19">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="C19">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>237</v>
-      </c>
-      <c r="B20">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="C20">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>238</v>
-      </c>
-      <c r="B21">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="C21">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>239</v>
-      </c>
-      <c r="B22">
-        <v>1.4E-2</v>
-      </c>
-      <c r="C22">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>288</v>
-      </c>
-      <c r="B23">
-        <v>4.6410387643786963</v>
-      </c>
-      <c r="C23">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>289</v>
-      </c>
-      <c r="B24">
-        <v>7.8897658994437831</v>
-      </c>
-      <c r="C24">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>290</v>
-      </c>
-      <c r="B25">
-        <v>22.091344518442593</v>
-      </c>
-      <c r="C25">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>291</v>
-      </c>
-      <c r="B26">
-        <v>243.00478970286852</v>
-      </c>
-      <c r="C26">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>292</v>
-      </c>
-      <c r="B27">
-        <v>6.3527026636382198</v>
-      </c>
-      <c r="C27">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>293</v>
-      </c>
-      <c r="B28">
-        <v>12.070135060912618</v>
-      </c>
-      <c r="C28">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>294</v>
-      </c>
-      <c r="B29">
-        <v>31.382351158372806</v>
-      </c>
-      <c r="C29">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>295</v>
-      </c>
-      <c r="B30">
-        <v>273.02645507784337</v>
-      </c>
-      <c r="C30">
-        <v>0.98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995A7145-A7A2-400E-A46D-7F405050A633}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>4.0484955677198515</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>0.12294985225732839</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B6">
-        <v>0.19850000000000001</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B7">
-        <v>0.14050000000000001</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B8">
-        <v>3.15E-2</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9">
-        <v>44.870649522800001</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>3.5500000000000007</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11">
-        <v>1.1800000000000002</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12">
-        <v>0.96</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13">
-        <v>1.6</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>287</v>
-      </c>
-      <c r="B14">
-        <v>1.72</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15">
-        <v>3.9443060860274208</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16">
-        <v>5.1027857526880149</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>234</v>
-      </c>
-      <c r="B18">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B19">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>237</v>
-      </c>
-      <c r="B20">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>238</v>
-      </c>
-      <c r="B21">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>239</v>
-      </c>
-      <c r="B22">
-        <v>1.4E-2</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>288</v>
-      </c>
-      <c r="B23">
-        <v>4.6410387643786963</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>289</v>
-      </c>
-      <c r="B24">
-        <v>7.8897658994437831</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>290</v>
-      </c>
-      <c r="B25">
-        <v>22.091344518442593</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>291</v>
-      </c>
-      <c r="B26">
-        <v>243.00478970286852</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>292</v>
-      </c>
-      <c r="B27">
-        <v>6.3527026636382198</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>293</v>
-      </c>
-      <c r="B28">
-        <v>12.070135060912618</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>294</v>
-      </c>
-      <c r="B29">
-        <v>31.382351158372806</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>295</v>
-      </c>
-      <c r="B30">
-        <v>273.02645507784337</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/pacehrh/tests/simple_config/super_simple_inputs.xlsx
+++ b/pacehrh/tests/simple_config/super_simple_inputs.xlsx
@@ -8,61 +8,62 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesel\Source\Ethiopia-HEP-Capacity-Analysis\pacehrh\tests\simple_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4BE423-A4B9-44E8-88E6-F91305A4DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C78093-525E-42C3-9DA4-A1C0B2EF9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="0" windowWidth="21600" windowHeight="10200" tabRatio="830" activeTab="6" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="6105" yWindow="825" windowWidth="21600" windowHeight="10200" tabRatio="830" activeTab="1" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="80" r:id="rId1"/>
-    <sheet name="Flat_Population" sheetId="89" r:id="rId2"/>
-    <sheet name="Flat_Rates" sheetId="90" r:id="rId3"/>
-    <sheet name="Rise_Rates" sheetId="93" r:id="rId4"/>
-    <sheet name="Flat_StochasticParms" sheetId="91" r:id="rId5"/>
-    <sheet name="Lookup" sheetId="94" r:id="rId6"/>
-    <sheet name="Bad_Lookup" sheetId="95" r:id="rId7"/>
-    <sheet name="TEST_StochasticParms" sheetId="76" r:id="rId8"/>
-    <sheet name="TEST_TotalPop" sheetId="74" r:id="rId9"/>
-    <sheet name="TEST_PopValues_Const" sheetId="77" r:id="rId10"/>
-    <sheet name="TEST_TaskValues" sheetId="78" r:id="rId11"/>
-    <sheet name="TEST_TaskValues_1" sheetId="81" r:id="rId12"/>
-    <sheet name="EXP_PopValues" sheetId="84" r:id="rId13"/>
-    <sheet name="newPopValues" sheetId="88" r:id="rId14"/>
-    <sheet name="TEST_SeasonalityCurves_1" sheetId="82" r:id="rId15"/>
-    <sheet name="PopValues" sheetId="56" r:id="rId16"/>
-    <sheet name="TaskValues" sheetId="57" r:id="rId17"/>
-    <sheet name="StochasticParameters" sheetId="72" r:id="rId18"/>
-    <sheet name="SeasonalityCurves" sheetId="58" r:id="rId19"/>
-    <sheet name="SeasonalityOffsets" sheetId="66" r:id="rId20"/>
+    <sheet name="Lookup" sheetId="94" r:id="rId2"/>
+    <sheet name="TotalPop" sheetId="96" r:id="rId3"/>
+    <sheet name="Flat_Population" sheetId="89" r:id="rId4"/>
+    <sheet name="Flat_Rates" sheetId="90" r:id="rId5"/>
+    <sheet name="Rise_Rates" sheetId="93" r:id="rId6"/>
+    <sheet name="Flat_StochasticParms" sheetId="91" r:id="rId7"/>
+    <sheet name="Bad_Lookup" sheetId="95" r:id="rId8"/>
+    <sheet name="TEST_StochasticParms" sheetId="76" r:id="rId9"/>
+    <sheet name="TEST_TotalPop" sheetId="74" r:id="rId10"/>
+    <sheet name="TEST_PopValues_Const" sheetId="77" r:id="rId11"/>
+    <sheet name="TEST_TaskValues" sheetId="78" r:id="rId12"/>
+    <sheet name="TEST_TaskValues_1" sheetId="81" r:id="rId13"/>
+    <sheet name="EXP_PopValues" sheetId="84" r:id="rId14"/>
+    <sheet name="newPopValues" sheetId="88" r:id="rId15"/>
+    <sheet name="TEST_SeasonalityCurves_1" sheetId="82" r:id="rId16"/>
+    <sheet name="PopValues" sheetId="56" r:id="rId17"/>
+    <sheet name="TaskValues" sheetId="57" r:id="rId18"/>
+    <sheet name="StochasticParameters" sheetId="72" r:id="rId19"/>
+    <sheet name="SeasonalityCurves" sheetId="58" r:id="rId20"/>
+    <sheet name="SeasonalityOffsets" sheetId="66" r:id="rId21"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">TaskValues!$A$1:$S$103</definedName>
-    <definedName name="hours" localSheetId="6">#REF!</definedName>
-    <definedName name="hours" localSheetId="5">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">TaskValues!$A$1:$S$103</definedName>
+    <definedName name="hours" localSheetId="7">#REF!</definedName>
+    <definedName name="hours" localSheetId="1">#REF!</definedName>
     <definedName name="hours" localSheetId="0">#REF!</definedName>
     <definedName name="hours">#REF!</definedName>
-    <definedName name="select_pop" localSheetId="6">#REF!</definedName>
-    <definedName name="select_pop" localSheetId="5">#REF!</definedName>
+    <definedName name="select_pop" localSheetId="7">#REF!</definedName>
+    <definedName name="select_pop" localSheetId="1">#REF!</definedName>
     <definedName name="select_pop" localSheetId="0">#REF!</definedName>
     <definedName name="select_pop">#REF!</definedName>
     <definedName name="select_pop_2">'[1]Inputs Assump'!$C$4</definedName>
-    <definedName name="total_pop" localSheetId="6">[2]Demographics_Total!$CZ$3</definedName>
-    <definedName name="total_pop" localSheetId="5">[2]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop" localSheetId="7">[2]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop" localSheetId="1">[2]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop" localSheetId="0">[2]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop">#REF!</definedName>
     <definedName name="total_pop_2">[2]Demographics_Total!$CZ$3</definedName>
-    <definedName name="total_pop2" localSheetId="6">[3]Demographics_Total!$CZ$3</definedName>
-    <definedName name="total_pop2" localSheetId="5">[3]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2" localSheetId="7">[3]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2" localSheetId="1">[3]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop2" localSheetId="0">[4]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop2">[5]Demographics_Total!$CZ$3</definedName>
-    <definedName name="weeks" localSheetId="6">#REF!</definedName>
-    <definedName name="weeks" localSheetId="5">#REF!</definedName>
+    <definedName name="weeks" localSheetId="7">#REF!</definedName>
+    <definedName name="weeks" localSheetId="1">#REF!</definedName>
     <definedName name="weeks" localSheetId="0">#REF!</definedName>
     <definedName name="weeks">#REF!</definedName>
   </definedNames>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="427">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -1866,73 +1867,73 @@
       <sheetName val="Pop_male_2020"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
       <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
       <sheetData sheetId="43">
         <row r="3">
           <cell r="CZ3">
-            <v>24715222.24724872</v>
+            <v>115103531.71799999</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
+      <sheetData sheetId="59" refreshError="1"/>
+      <sheetData sheetId="60" refreshError="1"/>
       <sheetData sheetId="61"/>
       <sheetData sheetId="62"/>
       <sheetData sheetId="63"/>
@@ -2953,6 +2954,1556 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1C1D20-CB4E-4F81-BAF5-8FCEF2CFF00C}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+      <c r="D2">
+        <f>B2+C2</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9900</v>
+      </c>
+      <c r="C3">
+        <v>9900</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">B3+C3</f>
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="43">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9800</v>
+      </c>
+      <c r="C4">
+        <v>9800</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9700</v>
+      </c>
+      <c r="C5">
+        <v>9700</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>9600</v>
+      </c>
+      <c r="C6">
+        <v>9600</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>9500</v>
+      </c>
+      <c r="C7">
+        <v>9500</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="43">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>9400</v>
+      </c>
+      <c r="C8">
+        <v>9400</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="43">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9300</v>
+      </c>
+      <c r="C9">
+        <v>9300</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="43">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9200</v>
+      </c>
+      <c r="C10">
+        <v>9200</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9100</v>
+      </c>
+      <c r="C11">
+        <v>9100</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="43">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>9000</v>
+      </c>
+      <c r="C12">
+        <v>9000</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="43">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>8900</v>
+      </c>
+      <c r="C13">
+        <v>8900</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="43">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>8800</v>
+      </c>
+      <c r="C14">
+        <v>8800</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="43">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>8700</v>
+      </c>
+      <c r="C15">
+        <v>8700</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="43">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>8600</v>
+      </c>
+      <c r="C16">
+        <v>8600</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="43">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>8500</v>
+      </c>
+      <c r="C17">
+        <v>8500</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="43">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>8400</v>
+      </c>
+      <c r="C18">
+        <v>8400</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="43">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>8300</v>
+      </c>
+      <c r="C19">
+        <v>8300</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="43">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>8200</v>
+      </c>
+      <c r="C20">
+        <v>8200</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="43">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>8100</v>
+      </c>
+      <c r="C21">
+        <v>8100</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="43">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>8000</v>
+      </c>
+      <c r="C22">
+        <v>8000</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="43">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>7900</v>
+      </c>
+      <c r="C23">
+        <v>7900</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="43">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>7800</v>
+      </c>
+      <c r="C24">
+        <v>7800</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="43">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>7700</v>
+      </c>
+      <c r="C25">
+        <v>7700</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="43">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>7600</v>
+      </c>
+      <c r="C26">
+        <v>7600</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="43">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>7500</v>
+      </c>
+      <c r="C27">
+        <v>7500</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="43">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>7400</v>
+      </c>
+      <c r="C28">
+        <v>7400</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="43">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>7300</v>
+      </c>
+      <c r="C29">
+        <v>7300</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="43">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>7200</v>
+      </c>
+      <c r="C30">
+        <v>7200</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="43">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>7100</v>
+      </c>
+      <c r="C31">
+        <v>7100</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="43">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>7000</v>
+      </c>
+      <c r="C32">
+        <v>7000</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="43">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>6900</v>
+      </c>
+      <c r="C33">
+        <v>6900</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="43">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>6800</v>
+      </c>
+      <c r="C34">
+        <v>6800</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="43">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>6700</v>
+      </c>
+      <c r="C35">
+        <v>6700</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="43">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>6600</v>
+      </c>
+      <c r="C36">
+        <v>6600</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="43">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>6500</v>
+      </c>
+      <c r="C37">
+        <v>6500</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="43">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>6400</v>
+      </c>
+      <c r="C38">
+        <v>6400</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="43">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>6300</v>
+      </c>
+      <c r="C39">
+        <v>6300</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="43">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>6200</v>
+      </c>
+      <c r="C40">
+        <v>6200</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="43">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>6100</v>
+      </c>
+      <c r="C41">
+        <v>6100</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="43">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>6000</v>
+      </c>
+      <c r="C42">
+        <v>6000</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>5900</v>
+      </c>
+      <c r="C43">
+        <v>5900</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="43">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>5800</v>
+      </c>
+      <c r="C44">
+        <v>5800</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="43">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>5700</v>
+      </c>
+      <c r="C45">
+        <v>5700</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="43">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>5600</v>
+      </c>
+      <c r="C46">
+        <v>5600</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="43">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>5500</v>
+      </c>
+      <c r="C47">
+        <v>5500</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="43">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>5400</v>
+      </c>
+      <c r="C48">
+        <v>5400</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="43">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>5300</v>
+      </c>
+      <c r="C49">
+        <v>5300</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="43">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>5200</v>
+      </c>
+      <c r="C50">
+        <v>5200</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="43">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>5100</v>
+      </c>
+      <c r="C51">
+        <v>5100</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="43">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>5000</v>
+      </c>
+      <c r="C52">
+        <v>5000</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="43">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>4900</v>
+      </c>
+      <c r="C53">
+        <v>4900</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="43">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>4800</v>
+      </c>
+      <c r="C54">
+        <v>4800</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="43">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>4700</v>
+      </c>
+      <c r="C55">
+        <v>4700</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="43">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>4600</v>
+      </c>
+      <c r="C56">
+        <v>4600</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="43">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>4500</v>
+      </c>
+      <c r="C57">
+        <v>4500</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="43">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>4400</v>
+      </c>
+      <c r="C58">
+        <v>4400</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="43">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>4300</v>
+      </c>
+      <c r="C59">
+        <v>4300</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="43">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>4200</v>
+      </c>
+      <c r="C60">
+        <v>4200</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="43">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>4100</v>
+      </c>
+      <c r="C61">
+        <v>4100</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="43">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>4000</v>
+      </c>
+      <c r="C62">
+        <v>4000</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="43">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>3900</v>
+      </c>
+      <c r="C63">
+        <v>3900</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="43">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>3800</v>
+      </c>
+      <c r="C64">
+        <v>3800</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="43">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>3700</v>
+      </c>
+      <c r="C65">
+        <v>3700</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="43">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>3600</v>
+      </c>
+      <c r="C66">
+        <v>3600</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="43">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>3500</v>
+      </c>
+      <c r="C67">
+        <v>3500</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D102" si="1">B67+C67</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="43">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>3400</v>
+      </c>
+      <c r="C68">
+        <v>3400</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="43">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>3300</v>
+      </c>
+      <c r="C69">
+        <v>3300</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="43">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>3200</v>
+      </c>
+      <c r="C70">
+        <v>3200</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="43">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>3100</v>
+      </c>
+      <c r="C71">
+        <v>3100</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="43">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>3000</v>
+      </c>
+      <c r="C72">
+        <v>3000</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="43">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>2900</v>
+      </c>
+      <c r="C73">
+        <v>2900</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="43">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>2800</v>
+      </c>
+      <c r="C74">
+        <v>2800</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="43">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>2700</v>
+      </c>
+      <c r="C75">
+        <v>2700</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="43">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>2600</v>
+      </c>
+      <c r="C76">
+        <v>2600</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="43">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>2500</v>
+      </c>
+      <c r="C77">
+        <v>2500</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="43">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>2400</v>
+      </c>
+      <c r="C78">
+        <v>2400</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="43">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>2300</v>
+      </c>
+      <c r="C79">
+        <v>2300</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="43">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>2200</v>
+      </c>
+      <c r="C80">
+        <v>2200</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="43">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>2100</v>
+      </c>
+      <c r="C81">
+        <v>2100</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="43">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>2000</v>
+      </c>
+      <c r="C82">
+        <v>2000</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="43">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>1900</v>
+      </c>
+      <c r="C83">
+        <v>1900</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="43">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1800</v>
+      </c>
+      <c r="C84">
+        <v>1800</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="43">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1700</v>
+      </c>
+      <c r="C85">
+        <v>1700</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="43">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1600</v>
+      </c>
+      <c r="C86">
+        <v>1600</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="43">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1500</v>
+      </c>
+      <c r="C87">
+        <v>1500</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="43">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1400</v>
+      </c>
+      <c r="C88">
+        <v>1400</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="43">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>1300</v>
+      </c>
+      <c r="C89">
+        <v>1300</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="43">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>1200</v>
+      </c>
+      <c r="C90">
+        <v>1200</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="43">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>1100</v>
+      </c>
+      <c r="C91">
+        <v>1100</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="43">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>1000</v>
+      </c>
+      <c r="C92">
+        <v>1000</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="43">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>900</v>
+      </c>
+      <c r="C93">
+        <v>900</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="43">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>800</v>
+      </c>
+      <c r="C94">
+        <v>800</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="43">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>700</v>
+      </c>
+      <c r="C95">
+        <v>700</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="43">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>600</v>
+      </c>
+      <c r="C96">
+        <v>600</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="43">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>500</v>
+      </c>
+      <c r="C97">
+        <v>500</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="43">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>400</v>
+      </c>
+      <c r="C98">
+        <v>400</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="43">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>300</v>
+      </c>
+      <c r="C99">
+        <v>300</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="43">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>200</v>
+      </c>
+      <c r="C100">
+        <v>200</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="43">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="43">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995A7145-A7A2-400E-A46D-7F405050A633}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3305,7 +4856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2EFC64-DD10-4E27-BDEE-F8164111A157}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -7720,7 +9271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC92EF8-ED58-4F68-8888-9CEAC4C59B7E}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -7900,7 +9451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E7F677-BE8D-4B15-BFBB-F131739569D4}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -8794,7 +10345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4F2564-875C-4CBF-A10D-C89D0A9C38FE}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -9688,7 +11239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C257F5-E6CC-4BAC-9A98-0BD35FA17AEF}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -10109,7 +11660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B914963F-A73F-44CC-BA92-87184BB1A8C7}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -10555,7 +12106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D83D06-B7B0-4361-896A-BFF57EC1D426}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -15552,7 +17103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDCD1CB-9612-4FAF-ACD4-A7C81D8F794C}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -15678,7 +17229,523 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DA224C-9F4E-4904-8642-99CF70167D50}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B1:J142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>35</v>
+      </c>
+      <c r="J4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F127"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F129"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F130"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F132"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F133"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F134"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F135"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F136"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F137"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F138"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F139"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F140"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F141"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F142"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1975A502-7E7F-4553-BC06-71CD8A16214F}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -16039,1557 +18106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B841DDD-E656-48EF-90B2-112495E8E9FF}">
-  <sheetPr>
-    <tabColor theme="7"/>
-  </sheetPr>
-  <dimension ref="A1:D102"/>
-  <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <f>B2+C2</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">B3+C3</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="43">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>100</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>100</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>100</v>
-      </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>100</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>100</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>100</v>
-      </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="43">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>100</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="43">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>100</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="43">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>100</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="43">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>100</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="43">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>100</v>
-      </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="43">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>100</v>
-      </c>
-      <c r="C26">
-        <v>100</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>100</v>
-      </c>
-      <c r="C27">
-        <v>100</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>100</v>
-      </c>
-      <c r="C28">
-        <v>100</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="43">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>100</v>
-      </c>
-      <c r="C29">
-        <v>100</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="43">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>100</v>
-      </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>100</v>
-      </c>
-      <c r="C31">
-        <v>100</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="43">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>100</v>
-      </c>
-      <c r="C32">
-        <v>100</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="43">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>100</v>
-      </c>
-      <c r="C33">
-        <v>100</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="43">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>100</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="43">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>100</v>
-      </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="43">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>100</v>
-      </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="43">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>100</v>
-      </c>
-      <c r="C37">
-        <v>100</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="43">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>100</v>
-      </c>
-      <c r="C38">
-        <v>100</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="43">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>100</v>
-      </c>
-      <c r="C39">
-        <v>100</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="43">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>100</v>
-      </c>
-      <c r="C40">
-        <v>100</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="43">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>100</v>
-      </c>
-      <c r="C41">
-        <v>100</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="43">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>100</v>
-      </c>
-      <c r="C42">
-        <v>100</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="43">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>100</v>
-      </c>
-      <c r="C43">
-        <v>100</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="43">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>100</v>
-      </c>
-      <c r="C44">
-        <v>100</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="43">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>100</v>
-      </c>
-      <c r="C45">
-        <v>100</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="43">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>100</v>
-      </c>
-      <c r="C46">
-        <v>100</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="43">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>100</v>
-      </c>
-      <c r="C47">
-        <v>100</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="43">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>100</v>
-      </c>
-      <c r="C48">
-        <v>100</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="43">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>100</v>
-      </c>
-      <c r="C49">
-        <v>100</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="43">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>100</v>
-      </c>
-      <c r="C50">
-        <v>100</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="43">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>100</v>
-      </c>
-      <c r="C51">
-        <v>100</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="43">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>100</v>
-      </c>
-      <c r="C52">
-        <v>100</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="43">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>100</v>
-      </c>
-      <c r="C53">
-        <v>100</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="43">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>100</v>
-      </c>
-      <c r="C54">
-        <v>100</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="43">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>100</v>
-      </c>
-      <c r="C55">
-        <v>100</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="43">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>100</v>
-      </c>
-      <c r="C56">
-        <v>100</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="43">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>100</v>
-      </c>
-      <c r="C57">
-        <v>100</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="43">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>100</v>
-      </c>
-      <c r="C58">
-        <v>100</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="43">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>100</v>
-      </c>
-      <c r="C59">
-        <v>100</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="43">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>100</v>
-      </c>
-      <c r="C60">
-        <v>100</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="43">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>100</v>
-      </c>
-      <c r="C61">
-        <v>100</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="43">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>100</v>
-      </c>
-      <c r="C62">
-        <v>100</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="43">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>100</v>
-      </c>
-      <c r="C63">
-        <v>100</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="43">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>100</v>
-      </c>
-      <c r="C64">
-        <v>100</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="43">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>100</v>
-      </c>
-      <c r="C65">
-        <v>100</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="43">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>100</v>
-      </c>
-      <c r="C66">
-        <v>100</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="43">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>100</v>
-      </c>
-      <c r="C67">
-        <v>100</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D102" si="1">B67+C67</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="43">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>100</v>
-      </c>
-      <c r="C68">
-        <v>100</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="43">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>100</v>
-      </c>
-      <c r="C69">
-        <v>100</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="43">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>100</v>
-      </c>
-      <c r="C70">
-        <v>100</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="43">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>100</v>
-      </c>
-      <c r="C71">
-        <v>100</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="43">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>100</v>
-      </c>
-      <c r="C72">
-        <v>100</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="43">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>100</v>
-      </c>
-      <c r="C73">
-        <v>100</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="43">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>100</v>
-      </c>
-      <c r="C74">
-        <v>100</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="43">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>100</v>
-      </c>
-      <c r="C75">
-        <v>100</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="43">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>100</v>
-      </c>
-      <c r="C76">
-        <v>100</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="43">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>100</v>
-      </c>
-      <c r="C77">
-        <v>100</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="43">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>100</v>
-      </c>
-      <c r="C78">
-        <v>100</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="43">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>100</v>
-      </c>
-      <c r="C79">
-        <v>100</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="43">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>100</v>
-      </c>
-      <c r="C80">
-        <v>100</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="43">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>100</v>
-      </c>
-      <c r="C81">
-        <v>100</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="43">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>100</v>
-      </c>
-      <c r="C82">
-        <v>100</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="43">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>100</v>
-      </c>
-      <c r="C83">
-        <v>100</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="43">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>100</v>
-      </c>
-      <c r="C84">
-        <v>100</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="43">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>100</v>
-      </c>
-      <c r="C85">
-        <v>100</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="43">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>100</v>
-      </c>
-      <c r="C86">
-        <v>100</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="43">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>100</v>
-      </c>
-      <c r="C87">
-        <v>100</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="43">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>100</v>
-      </c>
-      <c r="C88">
-        <v>100</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="43">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>100</v>
-      </c>
-      <c r="C89">
-        <v>100</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="43">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>100</v>
-      </c>
-      <c r="C90">
-        <v>100</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="43">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>100</v>
-      </c>
-      <c r="C91">
-        <v>100</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="43">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>100</v>
-      </c>
-      <c r="C92">
-        <v>100</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="43">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>100</v>
-      </c>
-      <c r="C93">
-        <v>100</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="43">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>100</v>
-      </c>
-      <c r="C94">
-        <v>100</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="43">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>100</v>
-      </c>
-      <c r="C95">
-        <v>100</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="43">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>100</v>
-      </c>
-      <c r="C96">
-        <v>100</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="43">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>100</v>
-      </c>
-      <c r="C97">
-        <v>100</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="43">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>100</v>
-      </c>
-      <c r="C98">
-        <v>100</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="43">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>100</v>
-      </c>
-      <c r="C99">
-        <v>100</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="43">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>100</v>
-      </c>
-      <c r="C100">
-        <v>100</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="43">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>100</v>
-      </c>
-      <c r="C101">
-        <v>100</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="43">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>100</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FB9B18-434F-4677-A182-407CBC10EA8F}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -17980,6 +18497,3106 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1E2C1D-FBC7-4361-A75B-D11C5A1BC759}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+      <c r="D2">
+        <f>B2+C2</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9900</v>
+      </c>
+      <c r="C3">
+        <v>9900</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">B3+C3</f>
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="43">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9800</v>
+      </c>
+      <c r="C4">
+        <v>9800</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9700</v>
+      </c>
+      <c r="C5">
+        <v>9700</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>9600</v>
+      </c>
+      <c r="C6">
+        <v>9600</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>9500</v>
+      </c>
+      <c r="C7">
+        <v>9500</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="43">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>9400</v>
+      </c>
+      <c r="C8">
+        <v>9400</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="43">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9300</v>
+      </c>
+      <c r="C9">
+        <v>9300</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="43">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9200</v>
+      </c>
+      <c r="C10">
+        <v>9200</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9100</v>
+      </c>
+      <c r="C11">
+        <v>9100</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="43">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>9000</v>
+      </c>
+      <c r="C12">
+        <v>9000</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="43">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>8900</v>
+      </c>
+      <c r="C13">
+        <v>8900</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="43">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>8800</v>
+      </c>
+      <c r="C14">
+        <v>8800</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="43">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>8700</v>
+      </c>
+      <c r="C15">
+        <v>8700</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="43">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>8600</v>
+      </c>
+      <c r="C16">
+        <v>8600</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="43">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>8500</v>
+      </c>
+      <c r="C17">
+        <v>8500</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="43">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>8400</v>
+      </c>
+      <c r="C18">
+        <v>8400</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="43">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>8300</v>
+      </c>
+      <c r="C19">
+        <v>8300</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="43">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>8200</v>
+      </c>
+      <c r="C20">
+        <v>8200</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="43">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>8100</v>
+      </c>
+      <c r="C21">
+        <v>8100</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="43">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>8000</v>
+      </c>
+      <c r="C22">
+        <v>8000</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="43">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>7900</v>
+      </c>
+      <c r="C23">
+        <v>7900</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="43">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>7800</v>
+      </c>
+      <c r="C24">
+        <v>7800</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="43">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>7700</v>
+      </c>
+      <c r="C25">
+        <v>7700</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="43">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>7600</v>
+      </c>
+      <c r="C26">
+        <v>7600</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="43">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>7500</v>
+      </c>
+      <c r="C27">
+        <v>7500</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="43">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>7400</v>
+      </c>
+      <c r="C28">
+        <v>7400</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="43">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>7300</v>
+      </c>
+      <c r="C29">
+        <v>7300</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="43">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>7200</v>
+      </c>
+      <c r="C30">
+        <v>7200</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="43">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>7100</v>
+      </c>
+      <c r="C31">
+        <v>7100</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="43">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>7000</v>
+      </c>
+      <c r="C32">
+        <v>7000</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="43">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>6900</v>
+      </c>
+      <c r="C33">
+        <v>6900</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="43">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>6800</v>
+      </c>
+      <c r="C34">
+        <v>6800</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="43">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>6700</v>
+      </c>
+      <c r="C35">
+        <v>6700</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="43">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>6600</v>
+      </c>
+      <c r="C36">
+        <v>6600</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="43">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>6500</v>
+      </c>
+      <c r="C37">
+        <v>6500</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="43">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>6400</v>
+      </c>
+      <c r="C38">
+        <v>6400</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="43">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>6300</v>
+      </c>
+      <c r="C39">
+        <v>6300</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="43">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>6200</v>
+      </c>
+      <c r="C40">
+        <v>6200</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="43">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>6100</v>
+      </c>
+      <c r="C41">
+        <v>6100</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="43">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>6000</v>
+      </c>
+      <c r="C42">
+        <v>6000</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>5900</v>
+      </c>
+      <c r="C43">
+        <v>5900</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="43">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>5800</v>
+      </c>
+      <c r="C44">
+        <v>5800</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="43">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>5700</v>
+      </c>
+      <c r="C45">
+        <v>5700</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="43">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>5600</v>
+      </c>
+      <c r="C46">
+        <v>5600</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="43">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>5500</v>
+      </c>
+      <c r="C47">
+        <v>5500</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="43">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>5400</v>
+      </c>
+      <c r="C48">
+        <v>5400</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="43">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>5300</v>
+      </c>
+      <c r="C49">
+        <v>5300</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="43">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>5200</v>
+      </c>
+      <c r="C50">
+        <v>5200</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="43">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>5100</v>
+      </c>
+      <c r="C51">
+        <v>5100</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="43">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>5000</v>
+      </c>
+      <c r="C52">
+        <v>5000</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="43">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>4900</v>
+      </c>
+      <c r="C53">
+        <v>4900</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="43">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>4800</v>
+      </c>
+      <c r="C54">
+        <v>4800</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="43">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>4700</v>
+      </c>
+      <c r="C55">
+        <v>4700</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="43">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>4600</v>
+      </c>
+      <c r="C56">
+        <v>4600</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="43">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>4500</v>
+      </c>
+      <c r="C57">
+        <v>4500</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="43">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>4400</v>
+      </c>
+      <c r="C58">
+        <v>4400</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="43">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>4300</v>
+      </c>
+      <c r="C59">
+        <v>4300</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="43">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>4200</v>
+      </c>
+      <c r="C60">
+        <v>4200</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="43">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>4100</v>
+      </c>
+      <c r="C61">
+        <v>4100</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="43">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>4000</v>
+      </c>
+      <c r="C62">
+        <v>4000</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="43">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>3900</v>
+      </c>
+      <c r="C63">
+        <v>3900</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="43">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>3800</v>
+      </c>
+      <c r="C64">
+        <v>3800</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="43">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>3700</v>
+      </c>
+      <c r="C65">
+        <v>3700</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="43">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>3600</v>
+      </c>
+      <c r="C66">
+        <v>3600</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="43">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>3500</v>
+      </c>
+      <c r="C67">
+        <v>3500</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D102" si="1">B67+C67</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="43">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>3400</v>
+      </c>
+      <c r="C68">
+        <v>3400</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="43">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>3300</v>
+      </c>
+      <c r="C69">
+        <v>3300</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="43">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>3200</v>
+      </c>
+      <c r="C70">
+        <v>3200</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="43">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>3100</v>
+      </c>
+      <c r="C71">
+        <v>3100</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="43">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>3000</v>
+      </c>
+      <c r="C72">
+        <v>3000</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="43">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>2900</v>
+      </c>
+      <c r="C73">
+        <v>2900</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="43">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>2800</v>
+      </c>
+      <c r="C74">
+        <v>2800</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="43">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>2700</v>
+      </c>
+      <c r="C75">
+        <v>2700</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="43">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>2600</v>
+      </c>
+      <c r="C76">
+        <v>2600</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="43">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>2500</v>
+      </c>
+      <c r="C77">
+        <v>2500</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="43">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>2400</v>
+      </c>
+      <c r="C78">
+        <v>2400</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="43">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>2300</v>
+      </c>
+      <c r="C79">
+        <v>2300</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="43">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>2200</v>
+      </c>
+      <c r="C80">
+        <v>2200</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="43">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>2100</v>
+      </c>
+      <c r="C81">
+        <v>2100</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="43">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>2000</v>
+      </c>
+      <c r="C82">
+        <v>2000</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="43">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>1900</v>
+      </c>
+      <c r="C83">
+        <v>1900</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="43">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1800</v>
+      </c>
+      <c r="C84">
+        <v>1800</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="43">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1700</v>
+      </c>
+      <c r="C85">
+        <v>1700</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="43">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1600</v>
+      </c>
+      <c r="C86">
+        <v>1600</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="43">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1500</v>
+      </c>
+      <c r="C87">
+        <v>1500</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="43">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1400</v>
+      </c>
+      <c r="C88">
+        <v>1400</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="43">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>1300</v>
+      </c>
+      <c r="C89">
+        <v>1300</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="43">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>1200</v>
+      </c>
+      <c r="C90">
+        <v>1200</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="43">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>1100</v>
+      </c>
+      <c r="C91">
+        <v>1100</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="43">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>1000</v>
+      </c>
+      <c r="C92">
+        <v>1000</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="43">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>900</v>
+      </c>
+      <c r="C93">
+        <v>900</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="43">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>800</v>
+      </c>
+      <c r="C94">
+        <v>800</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="43">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>700</v>
+      </c>
+      <c r="C95">
+        <v>700</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="43">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>600</v>
+      </c>
+      <c r="C96">
+        <v>600</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="43">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>500</v>
+      </c>
+      <c r="C97">
+        <v>500</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="43">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>400</v>
+      </c>
+      <c r="C98">
+        <v>400</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="43">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>300</v>
+      </c>
+      <c r="C99">
+        <v>300</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="43">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>200</v>
+      </c>
+      <c r="C100">
+        <v>200</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="43">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="43">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B841DDD-E656-48EF-90B2-112495E8E9FF}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <f>B2+C2</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">B3+C3</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="43">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="43">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="43">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="43">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="43">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="43">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="43">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="43">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="43">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="43">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="43">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="43">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="43">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="43">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="43">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="43">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="43">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="43">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="43">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="43">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="43">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="43">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="43">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="43">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="43">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="43">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="43">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="43">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="43">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="43">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="43">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="43">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="43">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="43">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="43">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>100</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>100</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="43">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="43">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>100</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="43">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="43">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="43">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="43">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>100</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="43">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>100</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="43">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>100</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="43">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>100</v>
+      </c>
+      <c r="C52">
+        <v>100</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="43">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>100</v>
+      </c>
+      <c r="C53">
+        <v>100</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="43">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>100</v>
+      </c>
+      <c r="C54">
+        <v>100</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="43">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>100</v>
+      </c>
+      <c r="C55">
+        <v>100</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="43">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>100</v>
+      </c>
+      <c r="C56">
+        <v>100</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="43">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>100</v>
+      </c>
+      <c r="C57">
+        <v>100</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="43">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>100</v>
+      </c>
+      <c r="C58">
+        <v>100</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="43">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>100</v>
+      </c>
+      <c r="C59">
+        <v>100</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="43">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>100</v>
+      </c>
+      <c r="C60">
+        <v>100</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="43">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>100</v>
+      </c>
+      <c r="C61">
+        <v>100</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="43">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>100</v>
+      </c>
+      <c r="C62">
+        <v>100</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="43">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>100</v>
+      </c>
+      <c r="C63">
+        <v>100</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="43">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>100</v>
+      </c>
+      <c r="C64">
+        <v>100</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="43">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>100</v>
+      </c>
+      <c r="C65">
+        <v>100</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="43">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>100</v>
+      </c>
+      <c r="C66">
+        <v>100</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="43">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>100</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D102" si="1">B67+C67</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="43">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>100</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="43">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>100</v>
+      </c>
+      <c r="C69">
+        <v>100</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="43">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>100</v>
+      </c>
+      <c r="C70">
+        <v>100</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="43">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>100</v>
+      </c>
+      <c r="C71">
+        <v>100</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="43">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>100</v>
+      </c>
+      <c r="C72">
+        <v>100</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="43">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>100</v>
+      </c>
+      <c r="C73">
+        <v>100</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="43">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>100</v>
+      </c>
+      <c r="C74">
+        <v>100</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="43">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>100</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="43">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>100</v>
+      </c>
+      <c r="C76">
+        <v>100</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="43">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>100</v>
+      </c>
+      <c r="C77">
+        <v>100</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="43">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>100</v>
+      </c>
+      <c r="C78">
+        <v>100</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="43">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>100</v>
+      </c>
+      <c r="C79">
+        <v>100</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="43">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>100</v>
+      </c>
+      <c r="C80">
+        <v>100</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="43">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>100</v>
+      </c>
+      <c r="C81">
+        <v>100</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="43">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>100</v>
+      </c>
+      <c r="C82">
+        <v>100</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="43">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>100</v>
+      </c>
+      <c r="C83">
+        <v>100</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="43">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>100</v>
+      </c>
+      <c r="C84">
+        <v>100</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="43">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>100</v>
+      </c>
+      <c r="C85">
+        <v>100</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="43">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>100</v>
+      </c>
+      <c r="C86">
+        <v>100</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="43">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>100</v>
+      </c>
+      <c r="C87">
+        <v>100</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="43">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>100</v>
+      </c>
+      <c r="C88">
+        <v>100</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="43">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>100</v>
+      </c>
+      <c r="C89">
+        <v>100</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="43">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>100</v>
+      </c>
+      <c r="C90">
+        <v>100</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="43">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>100</v>
+      </c>
+      <c r="C91">
+        <v>100</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="43">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>100</v>
+      </c>
+      <c r="C92">
+        <v>100</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="43">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>100</v>
+      </c>
+      <c r="C93">
+        <v>100</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="43">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>100</v>
+      </c>
+      <c r="C94">
+        <v>100</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="43">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>100</v>
+      </c>
+      <c r="C95">
+        <v>100</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="43">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>100</v>
+      </c>
+      <c r="C96">
+        <v>100</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="43">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>100</v>
+      </c>
+      <c r="C97">
+        <v>100</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="43">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>100</v>
+      </c>
+      <c r="C98">
+        <v>100</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="43">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>100</v>
+      </c>
+      <c r="C99">
+        <v>100</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="43">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>100</v>
+      </c>
+      <c r="C100">
+        <v>100</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="43">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="43">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="C102">
+        <v>100</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4BDA4A-DD13-4CE0-A00F-5A819FEC1D2B}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -18203,7 +21820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DA5DAA-CF6C-4D9D-B4B7-3F4EA4894591}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -18427,7 +22044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FC28FE-ABC8-44AD-92FB-5F8D3BC89DD4}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -18553,524 +22170,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DA224C-9F4E-4904-8642-99CF70167D50}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA08B31E-403F-4D98-A2C5-BD7B3834450E}">
   <dimension ref="B1:J142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="46" t="s">
-        <v>412</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>413</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>414</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>35</v>
-      </c>
-      <c r="J4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="3"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="3"/>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F50"/>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F51"/>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F54"/>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F58"/>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F59"/>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F60"/>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F61"/>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F62"/>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F63"/>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F64"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F65"/>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F66"/>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F73"/>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F74"/>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F75"/>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F76"/>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F77"/>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F79"/>
-    </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F80"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F81"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F82"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F83"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F84"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F85"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F86"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F87"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F88"/>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F89"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F90"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F91"/>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F92"/>
-    </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F93"/>
-    </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F94"/>
-    </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F95"/>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F96"/>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F97"/>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F98"/>
-    </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F99"/>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F100"/>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F101"/>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F102"/>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F103"/>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F104"/>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F105"/>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F106"/>
-    </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F107"/>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F108"/>
-    </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F109"/>
-    </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F110"/>
-    </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F111"/>
-    </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F112"/>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F113"/>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F114"/>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F115"/>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F116"/>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F117"/>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F118"/>
-    </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F119"/>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F120"/>
-    </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F121"/>
-    </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F122"/>
-    </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F123"/>
-    </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F124"/>
-    </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F125"/>
-    </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F126"/>
-    </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F127"/>
-    </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F128"/>
-    </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F129"/>
-    </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F130"/>
-    </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F131"/>
-    </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F132"/>
-    </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F133"/>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F134"/>
-    </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F135"/>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F136"/>
-    </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F137"/>
-    </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F138"/>
-    </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F139"/>
-    </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F140"/>
-    </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F141"/>
-    </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F142"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA08B31E-403F-4D98-A2C5-BD7B3834450E}">
-  <dimension ref="B1:J142"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -19579,7 +22683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9D8C93-D1F0-4C18-9265-2678791347D8}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -19703,1554 +22807,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1C1D20-CB4E-4F81-BAF5-8FCEF2CFF00C}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:D102"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>10000</v>
-      </c>
-      <c r="C2">
-        <v>10000</v>
-      </c>
-      <c r="D2">
-        <f>B2+C2</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>9900</v>
-      </c>
-      <c r="C3">
-        <v>9900</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">B3+C3</f>
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="43">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>9800</v>
-      </c>
-      <c r="C4">
-        <v>9800</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>19600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>9700</v>
-      </c>
-      <c r="C5">
-        <v>9700</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>19400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>9600</v>
-      </c>
-      <c r="C6">
-        <v>9600</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>9500</v>
-      </c>
-      <c r="C7">
-        <v>9500</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>9400</v>
-      </c>
-      <c r="C8">
-        <v>9400</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>18800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>9300</v>
-      </c>
-      <c r="C9">
-        <v>9300</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>18600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>9200</v>
-      </c>
-      <c r="C10">
-        <v>9200</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>18400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>9100</v>
-      </c>
-      <c r="C11">
-        <v>9100</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>18200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>9000</v>
-      </c>
-      <c r="C12">
-        <v>9000</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>8900</v>
-      </c>
-      <c r="C13">
-        <v>8900</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>17800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>8800</v>
-      </c>
-      <c r="C14">
-        <v>8800</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>17600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>8700</v>
-      </c>
-      <c r="C15">
-        <v>8700</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>17400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>8600</v>
-      </c>
-      <c r="C16">
-        <v>8600</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>17200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>8500</v>
-      </c>
-      <c r="C17">
-        <v>8500</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>8400</v>
-      </c>
-      <c r="C18">
-        <v>8400</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>16800</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>8300</v>
-      </c>
-      <c r="C19">
-        <v>8300</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>16600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="43">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>8200</v>
-      </c>
-      <c r="C20">
-        <v>8200</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>16400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>8100</v>
-      </c>
-      <c r="C21">
-        <v>8100</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>16200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="43">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>8000</v>
-      </c>
-      <c r="C22">
-        <v>8000</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="43">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>7900</v>
-      </c>
-      <c r="C23">
-        <v>7900</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>15800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="43">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>7800</v>
-      </c>
-      <c r="C24">
-        <v>7800</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>15600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="43">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>7700</v>
-      </c>
-      <c r="C25">
-        <v>7700</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>15400</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="43">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>7600</v>
-      </c>
-      <c r="C26">
-        <v>7600</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>15200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>7500</v>
-      </c>
-      <c r="C27">
-        <v>7500</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>7400</v>
-      </c>
-      <c r="C28">
-        <v>7400</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>14800</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="43">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>7300</v>
-      </c>
-      <c r="C29">
-        <v>7300</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>14600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="43">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>7200</v>
-      </c>
-      <c r="C30">
-        <v>7200</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>7100</v>
-      </c>
-      <c r="C31">
-        <v>7100</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>14200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="43">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>7000</v>
-      </c>
-      <c r="C32">
-        <v>7000</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="43">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>6900</v>
-      </c>
-      <c r="C33">
-        <v>6900</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>13800</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="43">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>6800</v>
-      </c>
-      <c r="C34">
-        <v>6800</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>13600</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="43">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>6700</v>
-      </c>
-      <c r="C35">
-        <v>6700</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>13400</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="43">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>6600</v>
-      </c>
-      <c r="C36">
-        <v>6600</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="43">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>6500</v>
-      </c>
-      <c r="C37">
-        <v>6500</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="43">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>6400</v>
-      </c>
-      <c r="C38">
-        <v>6400</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="43">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>6300</v>
-      </c>
-      <c r="C39">
-        <v>6300</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>12600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="43">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>6200</v>
-      </c>
-      <c r="C40">
-        <v>6200</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>12400</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="43">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>6100</v>
-      </c>
-      <c r="C41">
-        <v>6100</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>12200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="43">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>6000</v>
-      </c>
-      <c r="C42">
-        <v>6000</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="43">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>5900</v>
-      </c>
-      <c r="C43">
-        <v>5900</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>11800</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="43">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>5800</v>
-      </c>
-      <c r="C44">
-        <v>5800</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>11600</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="43">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>5700</v>
-      </c>
-      <c r="C45">
-        <v>5700</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>11400</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="43">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>5600</v>
-      </c>
-      <c r="C46">
-        <v>5600</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="43">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>5500</v>
-      </c>
-      <c r="C47">
-        <v>5500</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="43">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>5400</v>
-      </c>
-      <c r="C48">
-        <v>5400</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="43">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>5300</v>
-      </c>
-      <c r="C49">
-        <v>5300</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>10600</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="43">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>5200</v>
-      </c>
-      <c r="C50">
-        <v>5200</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>10400</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="43">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>5100</v>
-      </c>
-      <c r="C51">
-        <v>5100</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="43">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>5000</v>
-      </c>
-      <c r="C52">
-        <v>5000</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="43">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>4900</v>
-      </c>
-      <c r="C53">
-        <v>4900</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="43">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>4800</v>
-      </c>
-      <c r="C54">
-        <v>4800</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="43">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>4700</v>
-      </c>
-      <c r="C55">
-        <v>4700</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="0"/>
-        <v>9400</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="43">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>4600</v>
-      </c>
-      <c r="C56">
-        <v>4600</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>9200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="43">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>4500</v>
-      </c>
-      <c r="C57">
-        <v>4500</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="43">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>4400</v>
-      </c>
-      <c r="C58">
-        <v>4400</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>8800</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="43">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>4300</v>
-      </c>
-      <c r="C59">
-        <v>4300</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="0"/>
-        <v>8600</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="43">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>4200</v>
-      </c>
-      <c r="C60">
-        <v>4200</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="0"/>
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="43">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>4100</v>
-      </c>
-      <c r="C61">
-        <v>4100</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="0"/>
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="43">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>4000</v>
-      </c>
-      <c r="C62">
-        <v>4000</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="43">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>3900</v>
-      </c>
-      <c r="C63">
-        <v>3900</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="0"/>
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="43">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>3800</v>
-      </c>
-      <c r="C64">
-        <v>3800</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="0"/>
-        <v>7600</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="43">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>3700</v>
-      </c>
-      <c r="C65">
-        <v>3700</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="0"/>
-        <v>7400</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="43">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>3600</v>
-      </c>
-      <c r="C66">
-        <v>3600</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="0"/>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="43">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>3500</v>
-      </c>
-      <c r="C67">
-        <v>3500</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D102" si="1">B67+C67</f>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="43">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>3400</v>
-      </c>
-      <c r="C68">
-        <v>3400</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="1"/>
-        <v>6800</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="43">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>3300</v>
-      </c>
-      <c r="C69">
-        <v>3300</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="1"/>
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="43">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>3200</v>
-      </c>
-      <c r="C70">
-        <v>3200</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="1"/>
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="43">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>3100</v>
-      </c>
-      <c r="C71">
-        <v>3100</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="1"/>
-        <v>6200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="43">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>3000</v>
-      </c>
-      <c r="C72">
-        <v>3000</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="1"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="43">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>2900</v>
-      </c>
-      <c r="C73">
-        <v>2900</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="1"/>
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="43">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>2800</v>
-      </c>
-      <c r="C74">
-        <v>2800</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="43">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>2700</v>
-      </c>
-      <c r="C75">
-        <v>2700</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="1"/>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="43">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>2600</v>
-      </c>
-      <c r="C76">
-        <v>2600</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="1"/>
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="43">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>2500</v>
-      </c>
-      <c r="C77">
-        <v>2500</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="43">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>2400</v>
-      </c>
-      <c r="C78">
-        <v>2400</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="1"/>
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="43">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>2300</v>
-      </c>
-      <c r="C79">
-        <v>2300</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="1"/>
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="43">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>2200</v>
-      </c>
-      <c r="C80">
-        <v>2200</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="1"/>
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="43">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>2100</v>
-      </c>
-      <c r="C81">
-        <v>2100</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="1"/>
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="43">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>2000</v>
-      </c>
-      <c r="C82">
-        <v>2000</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="43">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>1900</v>
-      </c>
-      <c r="C83">
-        <v>1900</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="1"/>
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="43">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>1800</v>
-      </c>
-      <c r="C84">
-        <v>1800</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="1"/>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="43">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>1700</v>
-      </c>
-      <c r="C85">
-        <v>1700</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="1"/>
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="43">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>1600</v>
-      </c>
-      <c r="C86">
-        <v>1600</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="1"/>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="43">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>1500</v>
-      </c>
-      <c r="C87">
-        <v>1500</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="43">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>1400</v>
-      </c>
-      <c r="C88">
-        <v>1400</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="1"/>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="43">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>1300</v>
-      </c>
-      <c r="C89">
-        <v>1300</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="1"/>
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="43">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>1200</v>
-      </c>
-      <c r="C90">
-        <v>1200</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="1"/>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="43">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>1100</v>
-      </c>
-      <c r="C91">
-        <v>1100</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="1"/>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="43">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>1000</v>
-      </c>
-      <c r="C92">
-        <v>1000</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="43">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>900</v>
-      </c>
-      <c r="C93">
-        <v>900</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="1"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="43">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>800</v>
-      </c>
-      <c r="C94">
-        <v>800</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="1"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="43">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>700</v>
-      </c>
-      <c r="C95">
-        <v>700</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="1"/>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="43">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>600</v>
-      </c>
-      <c r="C96">
-        <v>600</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="43">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>500</v>
-      </c>
-      <c r="C97">
-        <v>500</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="43">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>400</v>
-      </c>
-      <c r="C98">
-        <v>400</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="43">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>300</v>
-      </c>
-      <c r="C99">
-        <v>300</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="43">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>200</v>
-      </c>
-      <c r="C100">
-        <v>200</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="43">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>100</v>
-      </c>
-      <c r="C101">
-        <v>100</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="43">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/pacehrh/tests/simple_config/super_simple_inputs.xlsx
+++ b/pacehrh/tests/simple_config/super_simple_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesel\Source\Ethiopia-HEP-Capacity-Analysis\pacehrh\tests\simple_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA07CE5-B0B3-4A69-AAE0-02126535EFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FF2645-B94A-49F9-B1B4-AD0B719AF528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="2790" windowWidth="21600" windowHeight="11475" tabRatio="830" activeTab="8" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="5880" yWindow="2355" windowWidth="21600" windowHeight="11490" tabRatio="830" firstSheet="1" activeTab="9" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="80" r:id="rId1"/>
@@ -21,39 +21,40 @@
     <sheet name="Flat_Rates" sheetId="90" r:id="rId6"/>
     <sheet name="Rise_Rates" sheetId="93" r:id="rId7"/>
     <sheet name="Flat_StochasticParms" sheetId="91" r:id="rId8"/>
-    <sheet name="TV_Simple" sheetId="97" r:id="rId9"/>
-    <sheet name="SeasonalityCurves" sheetId="58" r:id="rId10"/>
-    <sheet name="SeasonalityOffsets" sheetId="66" r:id="rId11"/>
-    <sheet name="Bad_Lookup" sheetId="95" r:id="rId12"/>
-    <sheet name="EXP_PopValues" sheetId="84" r:id="rId13"/>
+    <sheet name="TV_Simple_1" sheetId="97" r:id="rId9"/>
+    <sheet name="TV_Simple_Many" sheetId="98" r:id="rId10"/>
+    <sheet name="SeasonalityCurves" sheetId="58" r:id="rId11"/>
+    <sheet name="SeasonalityOffsets" sheetId="66" r:id="rId12"/>
+    <sheet name="Bad_Lookup" sheetId="95" r:id="rId13"/>
+    <sheet name="EXP_PopValues" sheetId="84" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
-    <definedName name="hours" localSheetId="11">#REF!</definedName>
+    <definedName name="hours" localSheetId="12">#REF!</definedName>
     <definedName name="hours" localSheetId="1">#REF!</definedName>
     <definedName name="hours" localSheetId="0">#REF!</definedName>
     <definedName name="hours">#REF!</definedName>
-    <definedName name="select_pop" localSheetId="11">#REF!</definedName>
+    <definedName name="select_pop" localSheetId="12">#REF!</definedName>
     <definedName name="select_pop" localSheetId="1">#REF!</definedName>
     <definedName name="select_pop" localSheetId="0">#REF!</definedName>
     <definedName name="select_pop">#REF!</definedName>
     <definedName name="select_pop_2">'[1]Inputs Assump'!$C$4</definedName>
-    <definedName name="total_pop" localSheetId="11">[2]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop" localSheetId="12">[2]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop" localSheetId="1">[2]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop" localSheetId="0">[2]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop">#REF!</definedName>
     <definedName name="total_pop_2">[2]Demographics_Total!$CZ$3</definedName>
-    <definedName name="total_pop2" localSheetId="11">[3]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2" localSheetId="12">[3]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop2" localSheetId="1">[3]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop2" localSheetId="0">[4]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop2">[5]Demographics_Total!$CZ$3</definedName>
-    <definedName name="weeks" localSheetId="11">#REF!</definedName>
+    <definedName name="weeks" localSheetId="12">#REF!</definedName>
     <definedName name="weeks" localSheetId="1">#REF!</definedName>
     <definedName name="weeks" localSheetId="0">#REF!</definedName>
     <definedName name="weeks">#REF!</definedName>
@@ -76,8 +77,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Charles Eliot (he/him/his)</author>
+  </authors>
+  <commentList>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{C7706239-CFF4-4EE4-A060-6121767F1E17}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Charles Eliot (he/him/his):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Newborns only</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="279">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -874,10 +909,46 @@
     <t>Category</t>
   </si>
   <si>
-    <t>TV_Simple</t>
-  </si>
-  <si>
     <t>Flat_Rates</t>
+  </si>
+  <si>
+    <t>Task.2</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>TV_Simple_1</t>
+  </si>
+  <si>
+    <t>TEST_Simple_2</t>
+  </si>
+  <si>
+    <t>TV_Simple_Many</t>
+  </si>
+  <si>
+    <t>Task.3</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Task.4</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>NonClinical</t>
+  </si>
+  <si>
+    <t>Task.5</t>
+  </si>
+  <si>
+    <t>Task.6</t>
+  </si>
+  <si>
+    <t>T6</t>
   </si>
 </sst>
 </file>
@@ -887,9 +958,9 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,6 +1034,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1057,8 +1141,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2118,26 +2202,26 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.86328125" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="14.265625" customWidth="1"/>
-    <col min="11" max="11" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -2190,7 +2274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -2201,7 +2285,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="3">
-        <v>5000</v>
+        <v>-1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
@@ -2222,10 +2306,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L2" t="s">
         <v>265</v>
-      </c>
-      <c r="L2" t="s">
-        <v>266</v>
       </c>
       <c r="M2" t="s">
         <v>176</v>
@@ -2237,6 +2321,56 @@
         <v>182</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="3">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" t="s">
+        <v>265</v>
+      </c>
+      <c r="M3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N3" t="s">
+        <v>181</v>
+      </c>
+      <c r="O3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2246,6 +2380,296 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E868FE-3D54-4AF5-86AB-9637B7FEC08F}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <v>0.99</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1975A502-7E7F-4553-BC06-71CD8A16214F}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -2256,13 +2680,13 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="7" width="12.73046875" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="8" customWidth="1"/>
+    <col min="2" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -2282,7 +2706,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -2304,7 +2728,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -2326,7 +2750,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -2348,7 +2772,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -2370,7 +2794,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -2392,7 +2816,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -2414,7 +2838,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -2436,7 +2860,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -2458,7 +2882,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -2480,7 +2904,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -2502,7 +2926,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -2524,7 +2948,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -2552,7 +2976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FB9B18-434F-4677-A182-407CBC10EA8F}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -2563,13 +2987,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -2598,7 +3022,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -2621,7 +3045,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -2635,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -2649,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2666,7 +3090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -2683,7 +3107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -2697,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -2720,7 +3144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2734,7 +3158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -2751,7 +3175,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2780,7 +3204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2794,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2808,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -2825,7 +3249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -2839,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -2853,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -2867,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>122</v>
       </c>
@@ -2881,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -2895,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2909,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2923,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -2942,7 +3366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA08B31E-403F-4D98-A2C5-BD7B3834450E}">
   <dimension ref="B1:J142"/>
   <sheetViews>
@@ -2950,16 +3374,16 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.86328125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" customWidth="1"/>
-    <col min="10" max="10" width="12.73046875" customWidth="1"/>
+    <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>247</v>
       </c>
@@ -2982,7 +3406,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>252</v>
       </c>
@@ -3005,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>253</v>
       </c>
@@ -3028,7 +3452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>255</v>
       </c>
@@ -3051,7 +3475,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>60</v>
       </c>
@@ -3068,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>56</v>
       </c>
@@ -3077,376 +3501,376 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="D8" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>62</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
         <v>256</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H24" s="3"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H29" s="3"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F79"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F80"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F109"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F110"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F111"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F113"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F114"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F115"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F116"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F118"/>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F119"/>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F120"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F121"/>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F122"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F123"/>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F124"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F125"/>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F126"/>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F127"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F128"/>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F129"/>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F130"/>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F131"/>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F132"/>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F133"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F134"/>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F135"/>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F136"/>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F137"/>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F138"/>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F139"/>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F140"/>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F141"/>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F142"/>
     </row>
   </sheetData>
@@ -3455,7 +3879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E7F677-BE8D-4B15-BFBB-F131739569D4}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -3466,19 +3890,19 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3507,7 +3931,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -3527,7 +3951,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -3550,7 +3974,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -3579,7 +4003,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -3608,7 +4032,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -3637,7 +4061,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -3666,7 +4090,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -3695,7 +4119,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -3724,7 +4148,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -3753,7 +4177,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -3776,7 +4200,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -3802,7 +4226,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -3831,7 +4255,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -3860,7 +4284,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>206</v>
       </c>
@@ -3889,7 +4313,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -3918,7 +4342,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>212</v>
       </c>
@@ -3947,7 +4371,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>143</v>
       </c>
@@ -3976,7 +4400,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>144</v>
       </c>
@@ -4005,7 +4429,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>145</v>
       </c>
@@ -4034,7 +4458,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>146</v>
       </c>
@@ -4060,7 +4484,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -4086,7 +4510,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>222</v>
       </c>
@@ -4115,7 +4539,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>225</v>
       </c>
@@ -4144,7 +4568,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>228</v>
       </c>
@@ -4173,7 +4597,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -4202,7 +4626,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>234</v>
       </c>
@@ -4231,7 +4655,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -4260,7 +4684,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -4289,7 +4713,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -4318,7 +4742,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -4360,16 +4784,16 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.86328125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" customWidth="1"/>
-    <col min="10" max="10" width="12.73046875" customWidth="1"/>
+    <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>247</v>
       </c>
@@ -4392,7 +4816,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>252</v>
       </c>
@@ -4415,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>253</v>
       </c>
@@ -4438,7 +4862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>255</v>
       </c>
@@ -4461,7 +4885,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>60</v>
       </c>
@@ -4478,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>56</v>
       </c>
@@ -4487,376 +4911,376 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="D8" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>62</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
         <v>256</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H24" s="3"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H29" s="3"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F79"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F80"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F109"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F110"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F111"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F113"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F114"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F115"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F116"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F118"/>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F119"/>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F120"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F121"/>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F122"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F123"/>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F124"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F125"/>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F126"/>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F127"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F128"/>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F129"/>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F130"/>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F131"/>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F132"/>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F133"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F134"/>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F135"/>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F136"/>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F137"/>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F138"/>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F139"/>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F140"/>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F141"/>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F142"/>
     </row>
   </sheetData>
@@ -4876,12 +5300,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="11"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -4895,7 +5319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -4910,7 +5334,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -4925,7 +5349,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -4940,7 +5364,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -4955,7 +5379,7 @@
         <v>19400</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -4970,7 +5394,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -4985,7 +5409,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -5000,7 +5424,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -5015,7 +5439,7 @@
         <v>18600</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -5030,7 +5454,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -5045,7 +5469,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -5060,7 +5484,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -5075,7 +5499,7 @@
         <v>17800</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -5090,7 +5514,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -5105,7 +5529,7 @@
         <v>17400</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -5120,7 +5544,7 @@
         <v>17200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -5135,7 +5559,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -5150,7 +5574,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -5165,7 +5589,7 @@
         <v>16600</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -5180,7 +5604,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -5195,7 +5619,7 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -5210,7 +5634,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -5225,7 +5649,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -5240,7 +5664,7 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -5255,7 +5679,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -5270,7 +5694,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -5285,7 +5709,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -5300,7 +5724,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -5315,7 +5739,7 @@
         <v>14600</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -5330,7 +5754,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -5345,7 +5769,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -5360,7 +5784,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -5375,7 +5799,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -5390,7 +5814,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -5405,7 +5829,7 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>34</v>
       </c>
@@ -5420,7 +5844,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -5435,7 +5859,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>36</v>
       </c>
@@ -5450,7 +5874,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -5465,7 +5889,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -5480,7 +5904,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -5495,7 +5919,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -5510,7 +5934,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -5525,7 +5949,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -5540,7 +5964,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -5555,7 +5979,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -5570,7 +5994,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -5585,7 +6009,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -5600,7 +6024,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -5615,7 +6039,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -5630,7 +6054,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -5645,7 +6069,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -5660,7 +6084,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -5675,7 +6099,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -5690,7 +6114,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -5705,7 +6129,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -5720,7 +6144,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -5735,7 +6159,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -5750,7 +6174,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -5765,7 +6189,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -5780,7 +6204,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -5795,7 +6219,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -5810,7 +6234,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -5825,7 +6249,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -5840,7 +6264,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -5855,7 +6279,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -5870,7 +6294,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -5885,7 +6309,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -5900,7 +6324,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -5915,7 +6339,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>68</v>
       </c>
@@ -5930,7 +6354,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>69</v>
       </c>
@@ -5945,7 +6369,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -5960,7 +6384,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -5975,7 +6399,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -5990,7 +6414,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>73</v>
       </c>
@@ -6005,7 +6429,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>74</v>
       </c>
@@ -6020,7 +6444,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -6035,7 +6459,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -6050,7 +6474,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -6065,7 +6489,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>78</v>
       </c>
@@ -6080,7 +6504,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -6095,7 +6519,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>80</v>
       </c>
@@ -6110,7 +6534,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>81</v>
       </c>
@@ -6125,7 +6549,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>82</v>
       </c>
@@ -6140,7 +6564,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -6155,7 +6579,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>84</v>
       </c>
@@ -6170,7 +6594,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>85</v>
       </c>
@@ -6185,7 +6609,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>86</v>
       </c>
@@ -6200,7 +6624,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>87</v>
       </c>
@@ -6215,7 +6639,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>88</v>
       </c>
@@ -6230,7 +6654,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <v>89</v>
       </c>
@@ -6245,7 +6669,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>90</v>
       </c>
@@ -6260,7 +6684,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <v>91</v>
       </c>
@@ -6275,7 +6699,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <v>92</v>
       </c>
@@ -6290,7 +6714,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <v>93</v>
       </c>
@@ -6305,7 +6729,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <v>94</v>
       </c>
@@ -6320,7 +6744,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>95</v>
       </c>
@@ -6335,7 +6759,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>96</v>
       </c>
@@ -6350,7 +6774,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <v>97</v>
       </c>
@@ -6365,7 +6789,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <v>98</v>
       </c>
@@ -6380,7 +6804,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <v>99</v>
       </c>
@@ -6395,7 +6819,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <v>100</v>
       </c>
@@ -6426,12 +6850,12 @@
       <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.59765625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -6445,7 +6869,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -6456,7 +6880,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -6464,7 +6888,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -6472,7 +6896,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -6486,7 +6910,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -6497,7 +6921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -6508,7 +6932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -6519,7 +6943,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -6527,7 +6951,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -6552,12 +6976,12 @@
       <selection activeCell="A17" sqref="A17:A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -6571,7 +6995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -6586,7 +7010,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -6601,7 +7025,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -6616,7 +7040,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -6631,7 +7055,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -6646,7 +7070,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -6661,7 +7085,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -6676,7 +7100,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -6691,7 +7115,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -6706,7 +7130,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -6721,7 +7145,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -6736,7 +7160,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -6751,7 +7175,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -6766,7 +7190,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -6781,7 +7205,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -6796,7 +7220,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -6811,7 +7235,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -6826,7 +7250,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -6841,7 +7265,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -6856,7 +7280,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -6871,7 +7295,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -6886,7 +7310,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -6901,7 +7325,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -6916,7 +7340,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -6931,7 +7355,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -6946,7 +7370,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -6961,7 +7385,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -6976,7 +7400,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -6991,7 +7415,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -7006,7 +7430,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -7021,7 +7445,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -7036,7 +7460,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -7051,7 +7475,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -7066,7 +7490,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -7081,7 +7505,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>34</v>
       </c>
@@ -7096,7 +7520,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -7111,7 +7535,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>36</v>
       </c>
@@ -7126,7 +7550,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -7141,7 +7565,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -7156,7 +7580,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -7171,7 +7595,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -7186,7 +7610,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -7201,7 +7625,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -7216,7 +7640,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -7231,7 +7655,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -7246,7 +7670,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -7261,7 +7685,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -7276,7 +7700,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -7291,7 +7715,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -7306,7 +7730,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -7321,7 +7745,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -7336,7 +7760,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -7351,7 +7775,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -7366,7 +7790,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -7381,7 +7805,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -7396,7 +7820,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -7411,7 +7835,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -7426,7 +7850,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -7441,7 +7865,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -7456,7 +7880,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -7471,7 +7895,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -7486,7 +7910,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -7501,7 +7925,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -7516,7 +7940,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -7531,7 +7955,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -7546,7 +7970,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -7561,7 +7985,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -7576,7 +8000,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -7591,7 +8015,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>68</v>
       </c>
@@ -7606,7 +8030,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>69</v>
       </c>
@@ -7621,7 +8045,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -7636,7 +8060,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -7651,7 +8075,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -7666,7 +8090,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>73</v>
       </c>
@@ -7681,7 +8105,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>74</v>
       </c>
@@ -7696,7 +8120,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -7711,7 +8135,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -7726,7 +8150,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -7741,7 +8165,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>78</v>
       </c>
@@ -7756,7 +8180,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -7771,7 +8195,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>80</v>
       </c>
@@ -7786,7 +8210,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>81</v>
       </c>
@@ -7801,7 +8225,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>82</v>
       </c>
@@ -7816,7 +8240,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -7831,7 +8255,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>84</v>
       </c>
@@ -7846,7 +8270,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>85</v>
       </c>
@@ -7861,7 +8285,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>86</v>
       </c>
@@ -7876,7 +8300,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>87</v>
       </c>
@@ -7891,7 +8315,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>88</v>
       </c>
@@ -7906,7 +8330,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <v>89</v>
       </c>
@@ -7921,7 +8345,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>90</v>
       </c>
@@ -7936,7 +8360,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <v>91</v>
       </c>
@@ -7951,7 +8375,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <v>92</v>
       </c>
@@ -7966,7 +8390,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <v>93</v>
       </c>
@@ -7981,7 +8405,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <v>94</v>
       </c>
@@ -7996,7 +8420,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>95</v>
       </c>
@@ -8011,7 +8435,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>96</v>
       </c>
@@ -8026,7 +8450,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <v>97</v>
       </c>
@@ -8041,7 +8465,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <v>98</v>
       </c>
@@ -8056,7 +8480,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <v>99</v>
       </c>
@@ -8071,7 +8495,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <v>100</v>
       </c>
@@ -8102,20 +8526,20 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -8144,7 +8568,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -8170,7 +8594,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -8196,7 +8620,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>241</v>
       </c>
@@ -8226,7 +8650,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -8252,7 +8676,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>243</v>
       </c>
@@ -8281,7 +8705,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>245</v>
       </c>
@@ -8326,20 +8750,20 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -8368,7 +8792,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -8394,7 +8818,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -8420,7 +8844,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>241</v>
       </c>
@@ -8450,7 +8874,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -8476,7 +8900,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>243</v>
       </c>
@@ -8505,7 +8929,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>245</v>
       </c>
@@ -8550,12 +8974,12 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.59765625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -8569,7 +8993,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -8580,7 +9004,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -8588,7 +9012,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -8596,7 +9020,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -8610,7 +9034,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -8621,7 +9045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -8632,7 +9056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -8643,7 +9067,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -8651,7 +9075,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -8672,33 +9096,33 @@
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -8757,7 +9181,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>177</v>
       </c>

--- a/pacehrh/tests/simple_config/super_simple_inputs.xlsx
+++ b/pacehrh/tests/simple_config/super_simple_inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesel\Source\Ethiopia-HEP-Capacity-Analysis\pacehrh\tests\simple_config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesel\Source\ethiopia-hep-capacity\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FF2645-B94A-49F9-B1B4-AD0B719AF528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A1B0EE-154E-4937-8249-CBCEC759B08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="2355" windowWidth="21600" windowHeight="11490" tabRatio="830" firstSheet="1" activeTab="9" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="2145" yWindow="338" windowWidth="21600" windowHeight="10200" tabRatio="830" firstSheet="3" activeTab="9" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="80" r:id="rId1"/>
@@ -111,8 +111,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1E4BC7B8-5D97-423A-8C18-55C4678A85D9}</author>
+  </authors>
+  <commentList>
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{1E4BC7B8-5D97-423A-8C18-55C4678A85D9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Actions are deferred by 1 and 2 months.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="281">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -949,6 +967,12 @@
   </si>
   <si>
     <t>T6</t>
+  </si>
+  <si>
+    <t>Curve_1</t>
+  </si>
+  <si>
+    <t>Test task</t>
   </si>
 </sst>
 </file>
@@ -1902,6 +1926,12 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Charles Eliot" id="{68BE16FB-12B9-4D24-BC98-4DBC7D8AC60B}" userId="S::Charles.Eliot@gatesfoundation.org::8fe007b8-e78f-4968-a343-23fe7df3269e" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2197,6 +2227,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B23" dT="2023-01-10T21:28:03.72" personId="{68BE16FB-12B9-4D24-BC98-4DBC7D8AC60B}" id="{1E4BC7B8-5D97-423A-8C18-55C4678A85D9}">
+    <text>Actions are deferred by 1 and 2 months.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17740520-4F76-4419-93E2-7D7580B57233}">
   <sheetPr>
@@ -2208,20 +2246,20 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.86328125" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="14.265625" customWidth="1"/>
+    <col min="11" max="11" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -2274,7 +2312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -2324,7 +2362,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>269</v>
       </c>
@@ -2387,32 +2425,32 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.73046875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2471,7 +2509,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -2506,7 +2544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>266</v>
       </c>
@@ -2535,13 +2573,13 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>271</v>
       </c>
@@ -2576,7 +2614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>273</v>
       </c>
@@ -2602,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>276</v>
       </c>
@@ -2628,7 +2666,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>277</v>
       </c>
@@ -2677,16 +2715,16 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="8" customWidth="1"/>
+    <col min="2" max="7" width="12.73046875" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -2705,8 +2743,11 @@
       <c r="F1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -2725,10 +2766,12 @@
       <c r="F2" s="9">
         <v>9.7892720259538907E-2</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="9">
+        <v>0.25</v>
+      </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -2747,10 +2790,12 @@
       <c r="F3" s="9">
         <v>0.11145199066061744</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -2769,10 +2814,12 @@
       <c r="F4" s="9">
         <v>0.12678985220161312</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -2791,10 +2838,12 @@
       <c r="F5" s="9">
         <v>0.11608174608550521</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9">
+        <v>0.25</v>
+      </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -2813,10 +2862,12 @@
       <c r="F6" s="9">
         <v>9.710943265680623E-2</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -2835,10 +2886,12 @@
       <c r="F7" s="9">
         <v>7.3740198772910687E-2</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -2857,10 +2910,12 @@
       <c r="F8" s="9">
         <v>5.6152135281385754E-2</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9">
+        <v>0.25</v>
+      </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -2879,10 +2934,12 @@
       <c r="F9" s="9">
         <v>5.7572990687490763E-2</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -2901,10 +2958,12 @@
       <c r="F10" s="9">
         <v>5.5517049192932967E-2</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -2923,10 +2982,12 @@
       <c r="F11" s="9">
         <v>5.6351548258912781E-2</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="9">
+        <v>0.25</v>
+      </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -2945,10 +3006,12 @@
       <c r="F12" s="9">
         <v>6.8327289554465973E-2</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -2967,7 +3030,9 @@
       <c r="F13" s="9">
         <v>8.3013046387820241E-2</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
       <c r="H13" s="10"/>
     </row>
   </sheetData>
@@ -2977,23 +3042,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FB9B18-434F-4677-A182-407CBC10EA8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FB9B18-434F-4677-A182-407CBC10EA8F}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -3022,7 +3087,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -3045,7 +3110,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -3059,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -3073,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -3090,7 +3155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3107,7 +3172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -3121,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -3144,7 +3209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -3158,7 +3223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -3175,7 +3240,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -3204,7 +3269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -3218,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -3232,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -3249,7 +3314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -3263,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -3277,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -3291,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>122</v>
       </c>
@@ -3305,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -3319,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -3333,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3347,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -3361,8 +3426,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>266</v>
+      </c>
+      <c r="B23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3374,16 +3457,16 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.86328125" customWidth="1"/>
     <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="7" max="8" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B1" s="14" t="s">
         <v>247</v>
       </c>
@@ -3406,7 +3489,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>252</v>
       </c>
@@ -3429,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>253</v>
       </c>
@@ -3452,7 +3535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>255</v>
       </c>
@@ -3475,7 +3558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>60</v>
       </c>
@@ -3492,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>56</v>
       </c>
@@ -3501,376 +3584,376 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="3"/>
       <c r="D8" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D10" s="3" t="s">
         <v>62</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D11" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D12" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D13" s="3" t="s">
         <v>256</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D14" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H24" s="3"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H29" s="3"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F50"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F51"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F52"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F53"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F54"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F55"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F56"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F57"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F58"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F59"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F60"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F61"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F62"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F63"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F64"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F65"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F66"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F67"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F68"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F69"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F70"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F71"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F72"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F73"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F74"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F75"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F76"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F77"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F78"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F79"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F80"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F81"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F82"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F83"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F84"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F85"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F86"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F87"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F88"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F89"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F90"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F91"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F92"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F93"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F94"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F95"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F96"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F97"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F98"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F99"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F100"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F101"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F102"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F103"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F104"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F105"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F106"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F107"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F108"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F109"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F110"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F111"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F112"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F113"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F114"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F115"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F116"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F117"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F118"/>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F119"/>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F120"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F121"/>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F122"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F123"/>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F124"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F125"/>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F126"/>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F127"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F128"/>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F129"/>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F130"/>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F131"/>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F132"/>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F133"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F134"/>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F135"/>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F136"/>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F137"/>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F138"/>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F139"/>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F140"/>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F141"/>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F142"/>
     </row>
   </sheetData>
@@ -3890,19 +3973,19 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3931,7 +4014,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -3951,7 +4034,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -3974,7 +4057,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -4003,7 +4086,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -4032,7 +4115,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -4061,7 +4144,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -4090,7 +4173,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -4119,7 +4202,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -4148,7 +4231,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -4177,7 +4260,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -4200,7 +4283,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -4226,7 +4309,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -4255,7 +4338,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -4284,7 +4367,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>206</v>
       </c>
@@ -4313,7 +4396,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -4342,7 +4425,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>212</v>
       </c>
@@ -4371,7 +4454,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>143</v>
       </c>
@@ -4400,7 +4483,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>144</v>
       </c>
@@ -4429,7 +4512,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>145</v>
       </c>
@@ -4458,7 +4541,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>146</v>
       </c>
@@ -4484,7 +4567,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -4510,7 +4593,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>222</v>
       </c>
@@ -4539,7 +4622,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>225</v>
       </c>
@@ -4568,7 +4651,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>228</v>
       </c>
@@ -4597,7 +4680,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -4626,7 +4709,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>234</v>
       </c>
@@ -4655,7 +4738,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -4684,7 +4767,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -4713,7 +4796,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -4742,7 +4825,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -4784,16 +4867,16 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.86328125" customWidth="1"/>
     <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="7" max="8" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B1" s="14" t="s">
         <v>247</v>
       </c>
@@ -4816,7 +4899,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>252</v>
       </c>
@@ -4839,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>253</v>
       </c>
@@ -4862,7 +4945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>255</v>
       </c>
@@ -4885,7 +4968,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>60</v>
       </c>
@@ -4902,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>56</v>
       </c>
@@ -4911,376 +4994,376 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="3"/>
       <c r="D8" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D10" s="3" t="s">
         <v>62</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D11" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D12" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D13" s="3" t="s">
         <v>256</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D14" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H24" s="3"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H29" s="3"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F50"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F51"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F52"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F53"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F54"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F55"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F56"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F57"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F58"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F59"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F60"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F61"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F62"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F63"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F64"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F65"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F66"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F67"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F68"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F69"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F70"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F71"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F72"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F73"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F74"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F75"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F76"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F77"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F78"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F79"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F80"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F81"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F82"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F83"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F84"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F85"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F86"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F87"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F88"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F89"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F90"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F91"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F92"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F93"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F94"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F95"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F96"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F97"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F98"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F99"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F100"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F101"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F102"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F103"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F104"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F105"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F106"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F107"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F108"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F109"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F110"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F111"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F112"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F113"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F114"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F115"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F116"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F117"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F118"/>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F119"/>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F120"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F121"/>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F122"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F123"/>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F124"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F125"/>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F126"/>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F127"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F128"/>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F129"/>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F130"/>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F131"/>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F132"/>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F133"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F134"/>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F135"/>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F136"/>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F137"/>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F138"/>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F139"/>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F140"/>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F141"/>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F142"/>
     </row>
   </sheetData>
@@ -5300,12 +5383,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.1328125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -5319,7 +5402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -5334,7 +5417,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -5349,7 +5432,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -5364,7 +5447,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -5379,7 +5462,7 @@
         <v>19400</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -5394,7 +5477,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -5409,7 +5492,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -5424,7 +5507,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -5439,7 +5522,7 @@
         <v>18600</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -5454,7 +5537,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -5469,7 +5552,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -5484,7 +5567,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -5499,7 +5582,7 @@
         <v>17800</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -5514,7 +5597,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -5529,7 +5612,7 @@
         <v>17400</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -5544,7 +5627,7 @@
         <v>17200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -5559,7 +5642,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -5574,7 +5657,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -5589,7 +5672,7 @@
         <v>16600</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -5604,7 +5687,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -5619,7 +5702,7 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -5634,7 +5717,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -5649,7 +5732,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -5664,7 +5747,7 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -5679,7 +5762,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -5694,7 +5777,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -5709,7 +5792,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -5724,7 +5807,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -5739,7 +5822,7 @@
         <v>14600</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -5754,7 +5837,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -5769,7 +5852,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -5784,7 +5867,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -5799,7 +5882,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -5814,7 +5897,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -5829,7 +5912,7 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="11">
         <v>34</v>
       </c>
@@ -5844,7 +5927,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -5859,7 +5942,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="11">
         <v>36</v>
       </c>
@@ -5874,7 +5957,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -5889,7 +5972,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -5904,7 +5987,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -5919,7 +6002,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -5934,7 +6017,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -5949,7 +6032,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -5964,7 +6047,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -5979,7 +6062,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -5994,7 +6077,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -6009,7 +6092,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -6024,7 +6107,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -6039,7 +6122,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -6054,7 +6137,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -6069,7 +6152,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -6084,7 +6167,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -6099,7 +6182,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -6114,7 +6197,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -6129,7 +6212,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -6144,7 +6227,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -6159,7 +6242,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -6174,7 +6257,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -6189,7 +6272,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -6204,7 +6287,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -6219,7 +6302,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -6234,7 +6317,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -6249,7 +6332,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -6264,7 +6347,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -6279,7 +6362,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -6294,7 +6377,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -6309,7 +6392,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -6324,7 +6407,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -6339,7 +6422,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="11">
         <v>68</v>
       </c>
@@ -6354,7 +6437,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="11">
         <v>69</v>
       </c>
@@ -6369,7 +6452,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -6384,7 +6467,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -6399,7 +6482,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -6414,7 +6497,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="11">
         <v>73</v>
       </c>
@@ -6429,7 +6512,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="11">
         <v>74</v>
       </c>
@@ -6444,7 +6527,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -6459,7 +6542,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -6474,7 +6557,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -6489,7 +6572,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="11">
         <v>78</v>
       </c>
@@ -6504,7 +6587,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -6519,7 +6602,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="11">
         <v>80</v>
       </c>
@@ -6534,7 +6617,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="11">
         <v>81</v>
       </c>
@@ -6549,7 +6632,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="11">
         <v>82</v>
       </c>
@@ -6564,7 +6647,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -6579,7 +6662,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="11">
         <v>84</v>
       </c>
@@ -6594,7 +6677,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="11">
         <v>85</v>
       </c>
@@ -6609,7 +6692,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="11">
         <v>86</v>
       </c>
@@ -6624,7 +6707,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="11">
         <v>87</v>
       </c>
@@ -6639,7 +6722,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="11">
         <v>88</v>
       </c>
@@ -6654,7 +6737,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="11">
         <v>89</v>
       </c>
@@ -6669,7 +6752,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="11">
         <v>90</v>
       </c>
@@ -6684,7 +6767,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="11">
         <v>91</v>
       </c>
@@ -6699,7 +6782,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="11">
         <v>92</v>
       </c>
@@ -6714,7 +6797,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="11">
         <v>93</v>
       </c>
@@ -6729,7 +6812,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="11">
         <v>94</v>
       </c>
@@ -6744,7 +6827,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="11">
         <v>95</v>
       </c>
@@ -6759,7 +6842,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="11">
         <v>96</v>
       </c>
@@ -6774,7 +6857,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="11">
         <v>97</v>
       </c>
@@ -6789,7 +6872,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="11">
         <v>98</v>
       </c>
@@ -6804,7 +6887,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="11">
         <v>99</v>
       </c>
@@ -6819,7 +6902,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="11">
         <v>100</v>
       </c>
@@ -6850,12 +6933,12 @@
       <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -6869,7 +6952,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -6880,7 +6963,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -6888,7 +6971,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -6896,7 +6979,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -6910,7 +6993,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -6921,7 +7004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -6932,7 +7015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -6943,7 +7026,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -6951,7 +7034,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -6973,15 +7056,15 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A51"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -6995,7 +7078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -7010,7 +7093,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -7025,7 +7108,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -7040,7 +7123,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -7055,7 +7138,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -7070,7 +7153,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -7085,7 +7168,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -7100,7 +7183,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -7115,7 +7198,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -7130,7 +7213,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -7145,7 +7228,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -7160,7 +7243,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -7175,7 +7258,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -7190,7 +7273,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -7205,7 +7288,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -7220,7 +7303,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -7235,7 +7318,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -7250,7 +7333,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -7265,7 +7348,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -7280,7 +7363,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -7295,7 +7378,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -7310,7 +7393,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -7325,7 +7408,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -7340,7 +7423,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -7355,7 +7438,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -7370,7 +7453,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -7385,7 +7468,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -7400,7 +7483,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -7415,7 +7498,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -7430,7 +7513,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -7445,7 +7528,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -7460,7 +7543,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -7475,7 +7558,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -7490,7 +7573,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -7505,7 +7588,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="11">
         <v>34</v>
       </c>
@@ -7520,7 +7603,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -7535,7 +7618,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="11">
         <v>36</v>
       </c>
@@ -7550,7 +7633,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -7565,7 +7648,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -7580,7 +7663,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -7595,7 +7678,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -7610,7 +7693,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -7625,7 +7708,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -7640,7 +7723,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -7655,7 +7738,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -7670,7 +7753,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -7685,7 +7768,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -7700,7 +7783,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -7715,7 +7798,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -7730,7 +7813,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -7745,7 +7828,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -7760,7 +7843,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -7775,7 +7858,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -7790,7 +7873,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -7805,7 +7888,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -7820,7 +7903,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -7835,7 +7918,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -7850,7 +7933,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -7865,7 +7948,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -7880,7 +7963,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -7895,7 +7978,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -7910,7 +7993,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -7925,7 +8008,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -7940,7 +8023,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -7955,7 +8038,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -7970,7 +8053,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -7985,7 +8068,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -8000,7 +8083,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -8015,7 +8098,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="11">
         <v>68</v>
       </c>
@@ -8030,7 +8113,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="11">
         <v>69</v>
       </c>
@@ -8045,7 +8128,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -8060,7 +8143,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -8075,7 +8158,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -8090,7 +8173,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="11">
         <v>73</v>
       </c>
@@ -8105,7 +8188,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="11">
         <v>74</v>
       </c>
@@ -8120,7 +8203,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -8135,7 +8218,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -8150,7 +8233,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -8165,7 +8248,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="11">
         <v>78</v>
       </c>
@@ -8180,7 +8263,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -8195,7 +8278,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="11">
         <v>80</v>
       </c>
@@ -8210,7 +8293,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="11">
         <v>81</v>
       </c>
@@ -8225,7 +8308,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="11">
         <v>82</v>
       </c>
@@ -8240,7 +8323,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -8255,7 +8338,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="11">
         <v>84</v>
       </c>
@@ -8270,7 +8353,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="11">
         <v>85</v>
       </c>
@@ -8285,7 +8368,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="11">
         <v>86</v>
       </c>
@@ -8300,7 +8383,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="11">
         <v>87</v>
       </c>
@@ -8315,7 +8398,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="11">
         <v>88</v>
       </c>
@@ -8330,7 +8413,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="11">
         <v>89</v>
       </c>
@@ -8345,7 +8428,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="11">
         <v>90</v>
       </c>
@@ -8360,7 +8443,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="11">
         <v>91</v>
       </c>
@@ -8375,7 +8458,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="11">
         <v>92</v>
       </c>
@@ -8390,7 +8473,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="11">
         <v>93</v>
       </c>
@@ -8405,7 +8488,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="11">
         <v>94</v>
       </c>
@@ -8420,7 +8503,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="11">
         <v>95</v>
       </c>
@@ -8435,7 +8518,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="11">
         <v>96</v>
       </c>
@@ -8450,7 +8533,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="11">
         <v>97</v>
       </c>
@@ -8465,7 +8548,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="11">
         <v>98</v>
       </c>
@@ -8480,7 +8563,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="11">
         <v>99</v>
       </c>
@@ -8495,7 +8578,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="11">
         <v>100</v>
       </c>
@@ -8526,20 +8609,20 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.73046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -8568,7 +8651,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -8594,7 +8677,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -8620,7 +8703,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>241</v>
       </c>
@@ -8650,7 +8733,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -8676,7 +8759,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>243</v>
       </c>
@@ -8705,7 +8788,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>245</v>
       </c>
@@ -8750,20 +8833,20 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.73046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -8792,7 +8875,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -8818,7 +8901,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -8844,7 +8927,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>241</v>
       </c>
@@ -8874,7 +8957,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -8900,7 +8983,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>243</v>
       </c>
@@ -8929,7 +9012,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>245</v>
       </c>
@@ -8974,12 +9057,12 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -8993,7 +9076,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -9004,7 +9087,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -9012,7 +9095,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -9020,7 +9103,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -9034,7 +9117,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -9045,7 +9128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -9056,7 +9139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -9067,7 +9150,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -9075,7 +9158,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -9100,29 +9183,29 @@
       <selection activeCell="A3" sqref="A3:S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.73046875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -9181,7 +9264,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>177</v>
       </c>

--- a/pacehrh/tests/simple_config/super_simple_inputs.xlsx
+++ b/pacehrh/tests/simple_config/super_simple_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesel\Source\Ethiopia-HEP-Capacity-Analysis\pacehrh\tests\simple_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BC9186-51CD-445B-9F1F-BE5E9FF5BBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A2F7EB-1D36-4963-8466-6E2ABCCD27A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="830" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="830" activeTab="6" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="80" r:id="rId1"/>
@@ -19,63 +19,69 @@
     <sheet name="TotalPop" sheetId="96" r:id="rId4"/>
     <sheet name="StochasticParameters" sheetId="72" r:id="rId5"/>
     <sheet name="StochasticParameters_Alt" sheetId="100" r:id="rId6"/>
-    <sheet name="Flat_Population" sheetId="89" r:id="rId7"/>
-    <sheet name="Flat_Rates" sheetId="90" r:id="rId8"/>
-    <sheet name="Rise_Rates" sheetId="93" r:id="rId9"/>
-    <sheet name="Flat_StochasticParms" sheetId="91" r:id="rId10"/>
-    <sheet name="TV_Simple_1" sheetId="97" r:id="rId11"/>
-    <sheet name="TV_Simple_Many" sheetId="98" r:id="rId12"/>
-    <sheet name="SeasonalityCurves" sheetId="58" r:id="rId13"/>
-    <sheet name="SeasonalityCurves_Alt" sheetId="101" r:id="rId14"/>
-    <sheet name="SeasonalityOffsets" sheetId="66" r:id="rId15"/>
-    <sheet name="SeasonalityOffsets_Alt" sheetId="102" r:id="rId16"/>
-    <sheet name="CadreRoles" sheetId="104" r:id="rId17"/>
-    <sheet name="Cadres_Merged" sheetId="103" r:id="rId18"/>
-    <sheet name="Bad_Lookup" sheetId="95" r:id="rId19"/>
-    <sheet name="EXP_PopValues" sheetId="84" r:id="rId20"/>
+    <sheet name="ChangeRateLimits" sheetId="105" r:id="rId7"/>
+    <sheet name="Flat_Population" sheetId="89" r:id="rId8"/>
+    <sheet name="Flat_Rates" sheetId="90" r:id="rId9"/>
+    <sheet name="Rise_Rates" sheetId="93" r:id="rId10"/>
+    <sheet name="Flat_StochasticParms" sheetId="91" r:id="rId11"/>
+    <sheet name="TV_Simple_1" sheetId="97" r:id="rId12"/>
+    <sheet name="TV_Simple_Many" sheetId="98" r:id="rId13"/>
+    <sheet name="SeasonalityCurves" sheetId="58" r:id="rId14"/>
+    <sheet name="SeasonalityCurves_Alt" sheetId="101" r:id="rId15"/>
+    <sheet name="SeasonalityOffsets" sheetId="66" r:id="rId16"/>
+    <sheet name="SeasonalityOffsets_Alt" sheetId="102" r:id="rId17"/>
+    <sheet name="CadreRoles" sheetId="104" r:id="rId18"/>
+    <sheet name="Cadres_Merged" sheetId="103" r:id="rId19"/>
+    <sheet name="Bad_Lookup" sheetId="95" r:id="rId20"/>
+    <sheet name="EXP_PopValues" sheetId="84" r:id="rId21"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
   </externalReferences>
   <definedNames>
+    <definedName name="hours" localSheetId="19">#REF!</definedName>
+    <definedName name="hours" localSheetId="17">#REF!</definedName>
     <definedName name="hours" localSheetId="18">#REF!</definedName>
-    <definedName name="hours" localSheetId="16">#REF!</definedName>
-    <definedName name="hours" localSheetId="17">#REF!</definedName>
+    <definedName name="hours" localSheetId="6">#REF!</definedName>
     <definedName name="hours" localSheetId="2">#REF!</definedName>
     <definedName name="hours" localSheetId="0">#REF!</definedName>
     <definedName name="hours" localSheetId="1">#REF!</definedName>
     <definedName name="hours">#REF!</definedName>
+    <definedName name="select_pop" localSheetId="19">#REF!</definedName>
+    <definedName name="select_pop" localSheetId="17">#REF!</definedName>
     <definedName name="select_pop" localSheetId="18">#REF!</definedName>
-    <definedName name="select_pop" localSheetId="16">#REF!</definedName>
-    <definedName name="select_pop" localSheetId="17">#REF!</definedName>
+    <definedName name="select_pop" localSheetId="6">#REF!</definedName>
     <definedName name="select_pop" localSheetId="2">#REF!</definedName>
     <definedName name="select_pop" localSheetId="0">#REF!</definedName>
     <definedName name="select_pop" localSheetId="1">#REF!</definedName>
     <definedName name="select_pop">#REF!</definedName>
     <definedName name="select_pop_2">'[1]Inputs Assump'!$C$4</definedName>
-    <definedName name="total_pop" localSheetId="18">[2]Demographics_Total!$CZ$3</definedName>
-    <definedName name="total_pop" localSheetId="16">#REF!</definedName>
+    <definedName name="total_pop" localSheetId="19">[2]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop" localSheetId="17">#REF!</definedName>
+    <definedName name="total_pop" localSheetId="18">#REF!</definedName>
+    <definedName name="total_pop" localSheetId="6">#REF!</definedName>
     <definedName name="total_pop" localSheetId="2">[2]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop" localSheetId="0">[2]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop" localSheetId="1">[2]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop">#REF!</definedName>
     <definedName name="total_pop_2">[2]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2" localSheetId="19">[3]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2" localSheetId="17">[3]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop2" localSheetId="18">[3]Demographics_Total!$CZ$3</definedName>
-    <definedName name="total_pop2" localSheetId="16">[3]Demographics_Total!$CZ$3</definedName>
-    <definedName name="total_pop2" localSheetId="17">[3]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2" localSheetId="6">[3]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop2" localSheetId="2">[3]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop2" localSheetId="0">[4]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop2" localSheetId="1">[4]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop2">[5]Demographics_Total!$CZ$3</definedName>
+    <definedName name="weeks" localSheetId="19">#REF!</definedName>
+    <definedName name="weeks" localSheetId="17">#REF!</definedName>
     <definedName name="weeks" localSheetId="18">#REF!</definedName>
-    <definedName name="weeks" localSheetId="16">#REF!</definedName>
-    <definedName name="weeks" localSheetId="17">#REF!</definedName>
+    <definedName name="weeks" localSheetId="6">#REF!</definedName>
     <definedName name="weeks" localSheetId="2">#REF!</definedName>
     <definedName name="weeks" localSheetId="0">#REF!</definedName>
     <definedName name="weeks" localSheetId="1">#REF!</definedName>
@@ -100,6 +106,64 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rui Han (AgileOne)</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{FFDB16CF-0F14-4541-AC8B-42A5F8ED6FC4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rui Han (AgileOne):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The category of rates the limits apply to</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{7DC0C60C-99F3-4553-94DB-7A44B75B5BB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rui Han (AgileOne):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Values are ratio to baseline rates
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Charles Eliot (he/him/his)</author>
@@ -133,7 +197,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={1E4BC7B8-5D97-423A-8C18-55C4678A85D9}</author>
@@ -151,7 +215,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={3C655783-B4D7-4C44-9A52-CF19513E34BB}</author>
@@ -169,7 +233,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Rui Han (AgileOne)</author>
@@ -204,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="437">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -1503,6 +1567,18 @@
   </si>
   <si>
     <t>MergedModel</t>
+  </si>
+  <si>
+    <t>RateCategory</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Incidence</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1590,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1610,6 +1686,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1637,7 +1726,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1703,8 +1792,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1717,8 +1857,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1757,9 +1898,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="8" xr:uid="{4FFB0AD5-C839-4380-ABD3-A4FD11E68E6F}"/>
     <cellStyle name="Data" xfId="6" xr:uid="{210BAF51-33D3-495B-9156-CBDCF2D0412F}"/>
     <cellStyle name="Header" xfId="5" xr:uid="{3562FB01-884A-4428-8FB5-9312164FC171}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2019,73 +2178,73 @@
       <sheetName val="Pop_male_2020"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
       <sheetData sheetId="43">
         <row r="3">
           <cell r="CZ3">
-            <v>115103531.71799999</v>
+            <v>24715222.24724872</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
-      <sheetData sheetId="57" refreshError="1"/>
-      <sheetData sheetId="58" refreshError="1"/>
-      <sheetData sheetId="59" refreshError="1"/>
-      <sheetData sheetId="60" refreshError="1"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
       <sheetData sheetId="61"/>
       <sheetData sheetId="62"/>
       <sheetData sheetId="63"/>
@@ -2592,7 +2751,13 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="10">
+        <row r="1">
+          <cell r="E1" t="str">
+            <v>Indicator</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="11">
         <row r="1">
           <cell r="E1" t="str">
@@ -3579,7 +3744,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="12">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ID_col</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -3948,24 +4119,24 @@
   </sheetPr>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.86328125" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="14.265625" customWidth="1"/>
+    <col min="11" max="11" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -4018,7 +4189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -4068,7 +4239,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>269</v>
       </c>
@@ -4124,6 +4295,230 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DA5DAA-CF6C-4D9D-B4B7-3F4EA4894591}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>49</v>
+      </c>
+      <c r="G4">
+        <f>2.5/35</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FC28FE-ABC8-44AD-92FB-5F8D3BC89DD4}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -4134,12 +4529,12 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -4153,7 +4548,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -4164,7 +4559,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -4172,7 +4567,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -4180,7 +4575,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -4194,7 +4589,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -4205,7 +4600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -4216,7 +4611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -4227,7 +4622,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -4235,7 +4630,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -4249,7 +4644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3D52B3-93AC-4DBF-9DF6-AB01EEE9AD72}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -4260,29 +4655,29 @@
       <selection activeCell="A3" sqref="A3:S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.73046875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -4341,7 +4736,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -4381,7 +4776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E868FE-3D54-4AF5-86AB-9637B7FEC08F}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -4392,29 +4787,29 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.73046875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -4473,7 +4868,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -4508,7 +4903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>266</v>
       </c>
@@ -4543,7 +4938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>271</v>
       </c>
@@ -4578,7 +4973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>273</v>
       </c>
@@ -4604,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>276</v>
       </c>
@@ -4630,7 +5025,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>277</v>
       </c>
@@ -4671,7 +5066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1975A502-7E7F-4553-BC06-71CD8A16214F}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -4682,13 +5077,13 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="8" customWidth="1"/>
+    <col min="2" max="7" width="12.73046875" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -4711,7 +5106,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -4735,7 +5130,7 @@
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -4759,7 +5154,7 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -4783,7 +5178,7 @@
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -4807,7 +5202,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -4831,7 +5226,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -4855,7 +5250,7 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -4879,7 +5274,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -4903,7 +5298,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -4927,7 +5322,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -4951,7 +5346,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -4975,7 +5370,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -5005,7 +5400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D7B1BB-D3CF-4E01-A4C2-42E866F014FB}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -5016,13 +5411,13 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="8" customWidth="1"/>
+    <col min="2" max="7" width="12.73046875" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -5045,7 +5440,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -5069,7 +5464,7 @@
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -5093,7 +5488,7 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -5117,7 +5512,7 @@
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -5141,7 +5536,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -5165,7 +5560,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -5189,7 +5584,7 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -5213,7 +5608,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -5237,7 +5632,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -5261,7 +5656,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -5285,7 +5680,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -5309,7 +5704,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -5339,7 +5734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FB9B18-434F-4677-A182-407CBC10EA8F}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -5350,13 +5745,13 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -5385,7 +5780,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -5408,7 +5803,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -5422,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -5436,7 +5831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -5453,7 +5848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -5470,7 +5865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -5484,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -5507,7 +5902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -5521,7 +5916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -5538,7 +5933,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -5567,7 +5962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -5581,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -5595,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -5612,7 +6007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -5626,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -5640,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -5654,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>122</v>
       </c>
@@ -5668,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -5682,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -5696,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -5710,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -5724,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>266</v>
       </c>
@@ -5747,7 +6142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC2BD33-F643-4255-B964-CB80E711F4CC}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -5758,13 +6153,13 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -5793,7 +6188,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -5816,7 +6211,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -5830,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -5844,7 +6239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -5861,7 +6256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -5878,7 +6273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -5892,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -5915,7 +6310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -5929,7 +6324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -5946,7 +6341,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -5975,7 +6370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -5989,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -6003,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -6020,7 +6415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -6034,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -6048,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -6062,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>122</v>
       </c>
@@ -6076,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -6090,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -6104,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -6118,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -6132,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>266</v>
       </c>
@@ -6155,7 +6550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D6A358-A1B6-4E67-814E-E1933A5C3312}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -6166,19 +6561,19 @@
       <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.73046875" customWidth="1"/>
+    <col min="9" max="9" width="29.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>412</v>
       </c>
@@ -6198,7 +6593,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>418</v>
       </c>
@@ -6219,7 +6614,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f>A2</f>
         <v>ComprehensiveModel</v>
@@ -6241,7 +6636,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f>A2</f>
         <v>ComprehensiveModel</v>
@@ -6260,7 +6655,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f>A2</f>
         <v>ComprehensiveModel</v>
@@ -6279,7 +6674,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f>A2</f>
         <v>ComprehensiveModel</v>
@@ -6298,7 +6693,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f>A2</f>
         <v>ComprehensiveModel</v>
@@ -6317,7 +6712,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f>A2</f>
         <v>ComprehensiveModel</v>
@@ -6336,7 +6731,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f>A2</f>
         <v>ComprehensiveModel</v>
@@ -6355,7 +6750,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>431</v>
       </c>
@@ -6376,7 +6771,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f>A10</f>
         <v>BasicModel</v>
@@ -6398,7 +6793,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <f>A10</f>
         <v>BasicModel</v>
@@ -6417,7 +6812,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f>A10</f>
         <v>BasicModel</v>
@@ -6436,7 +6831,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f>A10</f>
         <v>BasicModel</v>
@@ -6455,7 +6850,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f>A10</f>
         <v>BasicModel</v>
@@ -6474,7 +6869,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>432</v>
       </c>
@@ -6495,7 +6890,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f>A16</f>
         <v>MergedModel</v>
@@ -6517,7 +6912,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <f>A16</f>
         <v>MergedModel</v>
@@ -6536,7 +6931,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f>A16</f>
         <v>MergedModel</v>
@@ -6561,7 +6956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7422E24-9097-4AAE-89E0-E5AB192E3F82}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -6575,21 +6970,21 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" customWidth="1"/>
-    <col min="3" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="13.7109375" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="46.1328125" customWidth="1"/>
+    <col min="3" max="12" width="13.73046875" customWidth="1"/>
+    <col min="13" max="13" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="13.73046875" customWidth="1"/>
+    <col min="21" max="21" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="5.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="23.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>281</v>
       </c>
@@ -6661,7 +7056,7 @@
         <v>StartYear2035</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="19" t="s">
         <v>24</v>
       </c>
@@ -6717,7 +7112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>288</v>
       </c>
@@ -6766,7 +7161,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="22" t="s">
         <v>289</v>
       </c>
@@ -6815,7 +7210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="22" t="s">
         <v>290</v>
       </c>
@@ -6864,7 +7259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="22" t="s">
         <v>291</v>
       </c>
@@ -6913,7 +7308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="22" t="s">
         <v>292</v>
       </c>
@@ -6962,7 +7357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="22" t="s">
         <v>293</v>
       </c>
@@ -7011,7 +7406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="22" t="s">
         <v>294</v>
       </c>
@@ -7060,7 +7455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="22" t="s">
         <v>295</v>
       </c>
@@ -7109,7 +7504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="22" t="s">
         <v>296</v>
       </c>
@@ -7158,7 +7553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="22" t="s">
         <v>297</v>
       </c>
@@ -7207,7 +7602,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="22" t="s">
         <v>298</v>
       </c>
@@ -7256,7 +7651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="22" t="s">
         <v>299</v>
       </c>
@@ -7305,7 +7700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="22" t="s">
         <v>300</v>
       </c>
@@ -7354,7 +7749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="22" t="s">
         <v>301</v>
       </c>
@@ -7403,7 +7798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="22" t="s">
         <v>302</v>
       </c>
@@ -7452,7 +7847,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="22" t="s">
         <v>303</v>
       </c>
@@ -7501,7 +7896,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="22" t="s">
         <v>304</v>
       </c>
@@ -7550,7 +7945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="22" t="s">
         <v>305</v>
       </c>
@@ -7599,7 +7994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="22" t="s">
         <v>306</v>
       </c>
@@ -7648,7 +8043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="22" t="s">
         <v>307</v>
       </c>
@@ -7697,7 +8092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="22" t="s">
         <v>308</v>
       </c>
@@ -7746,7 +8141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="22" t="s">
         <v>309</v>
       </c>
@@ -7795,7 +8190,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="22" t="s">
         <v>310</v>
       </c>
@@ -7844,7 +8239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="22" t="s">
         <v>311</v>
       </c>
@@ -7893,7 +8288,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" s="22" t="s">
         <v>312</v>
       </c>
@@ -7942,7 +8337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" s="22" t="s">
         <v>313</v>
       </c>
@@ -7991,7 +8386,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29" s="22" t="s">
         <v>314</v>
       </c>
@@ -8040,7 +8435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" s="22" t="s">
         <v>315</v>
       </c>
@@ -8089,7 +8484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" s="22" t="s">
         <v>316</v>
       </c>
@@ -8138,7 +8533,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" s="22" t="s">
         <v>317</v>
       </c>
@@ -8187,7 +8582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="22" t="s">
         <v>318</v>
       </c>
@@ -8236,7 +8631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="22" t="s">
         <v>319</v>
       </c>
@@ -8285,7 +8680,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="22" t="s">
         <v>320</v>
       </c>
@@ -8334,7 +8729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" s="22" t="s">
         <v>321</v>
       </c>
@@ -8383,7 +8778,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="22" t="s">
         <v>322</v>
       </c>
@@ -8432,7 +8827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="22" t="s">
         <v>323</v>
       </c>
@@ -8481,7 +8876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" s="22" t="s">
         <v>324</v>
       </c>
@@ -8530,7 +8925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="22" t="s">
         <v>325</v>
       </c>
@@ -8579,7 +8974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" s="22" t="s">
         <v>326</v>
       </c>
@@ -8628,7 +9023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42" s="22" t="s">
         <v>327</v>
       </c>
@@ -8677,7 +9072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" s="22" t="s">
         <v>328</v>
       </c>
@@ -8726,7 +9121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44" s="22" t="s">
         <v>329</v>
       </c>
@@ -8775,7 +9170,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A45" s="22" t="s">
         <v>330</v>
       </c>
@@ -8824,7 +9219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46" s="22" t="s">
         <v>331</v>
       </c>
@@ -8873,7 +9268,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47" s="22" t="s">
         <v>332</v>
       </c>
@@ -8922,7 +9317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48" s="22" t="s">
         <v>333</v>
       </c>
@@ -8971,7 +9366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A49" s="22" t="s">
         <v>334</v>
       </c>
@@ -9020,7 +9415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A50" s="22" t="s">
         <v>335</v>
       </c>
@@ -9069,7 +9464,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A51" s="22" t="s">
         <v>336</v>
       </c>
@@ -9118,7 +9513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A52" s="22" t="s">
         <v>337</v>
       </c>
@@ -9167,7 +9562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A53" s="22" t="s">
         <v>338</v>
       </c>
@@ -9216,7 +9611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A54" s="22" t="s">
         <v>339</v>
       </c>
@@ -9265,7 +9660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A55" s="22" t="s">
         <v>340</v>
       </c>
@@ -9314,7 +9709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A56" s="22" t="s">
         <v>341</v>
       </c>
@@ -9363,7 +9758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A57" s="22" t="s">
         <v>342</v>
       </c>
@@ -9412,7 +9807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A58" s="22" t="s">
         <v>343</v>
       </c>
@@ -9461,7 +9856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A59" s="22" t="s">
         <v>344</v>
       </c>
@@ -9510,7 +9905,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A60" s="22" t="s">
         <v>345</v>
       </c>
@@ -9559,7 +9954,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A61" s="22" t="s">
         <v>346</v>
       </c>
@@ -9608,7 +10003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A62" s="22" t="s">
         <v>347</v>
       </c>
@@ -9657,7 +10052,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A63" s="22" t="s">
         <v>348</v>
       </c>
@@ -9706,7 +10101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A64" s="22" t="s">
         <v>349</v>
       </c>
@@ -9755,7 +10150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A65" s="22" t="s">
         <v>350</v>
       </c>
@@ -9804,7 +10199,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A66" s="22" t="s">
         <v>351</v>
       </c>
@@ -9853,7 +10248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A67" s="22" t="s">
         <v>352</v>
       </c>
@@ -9902,7 +10297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A68" s="22" t="s">
         <v>353</v>
       </c>
@@ -9917,7 +10312,7 @@
         <v>50</v>
       </c>
       <c r="F68" s="23">
-        <f t="shared" ref="F68:F136" si="11">SUM(C68:E68)</f>
+        <f t="shared" ref="F68:F124" si="11">SUM(C68:E68)</f>
         <v>100</v>
       </c>
       <c r="G68">
@@ -9951,7 +10346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A69" s="22" t="s">
         <v>354</v>
       </c>
@@ -10000,7 +10395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A70" s="22" t="s">
         <v>355</v>
       </c>
@@ -10049,7 +10444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A71" s="22" t="s">
         <v>356</v>
       </c>
@@ -10098,7 +10493,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A72" s="22" t="s">
         <v>357</v>
       </c>
@@ -10147,7 +10542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A73" s="22" t="s">
         <v>358</v>
       </c>
@@ -10196,7 +10591,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A74" s="22" t="s">
         <v>359</v>
       </c>
@@ -10245,7 +10640,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A75" s="22" t="s">
         <v>360</v>
       </c>
@@ -10294,7 +10689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A76" s="22" t="s">
         <v>361</v>
       </c>
@@ -10343,7 +10738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A77" s="22" t="s">
         <v>362</v>
       </c>
@@ -10392,7 +10787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A78" s="22" t="s">
         <v>363</v>
       </c>
@@ -10441,7 +10836,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A79" s="22" t="s">
         <v>364</v>
       </c>
@@ -10490,7 +10885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A80" s="22" t="s">
         <v>365</v>
       </c>
@@ -10539,7 +10934,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A81" s="22" t="s">
         <v>366</v>
       </c>
@@ -10588,7 +10983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A82" s="22" t="s">
         <v>367</v>
       </c>
@@ -10637,7 +11032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A83" s="22" t="s">
         <v>368</v>
       </c>
@@ -10686,7 +11081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A84" s="22" t="s">
         <v>369</v>
       </c>
@@ -10735,7 +11130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A85" s="22" t="s">
         <v>370</v>
       </c>
@@ -10784,7 +11179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A86" s="22" t="s">
         <v>371</v>
       </c>
@@ -10833,7 +11228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A87" s="22" t="s">
         <v>372</v>
       </c>
@@ -10882,7 +11277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A88" s="22" t="s">
         <v>373</v>
       </c>
@@ -10931,7 +11326,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A89" s="22" t="s">
         <v>374</v>
       </c>
@@ -10980,7 +11375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A90" s="22" t="s">
         <v>375</v>
       </c>
@@ -11029,7 +11424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A91" s="22" t="s">
         <v>376</v>
       </c>
@@ -11078,7 +11473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A92" s="22" t="s">
         <v>377</v>
       </c>
@@ -11127,7 +11522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A93" s="22" t="s">
         <v>378</v>
       </c>
@@ -11176,7 +11571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A94" s="22" t="s">
         <v>379</v>
       </c>
@@ -11225,7 +11620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A95" s="22" t="s">
         <v>380</v>
       </c>
@@ -11274,7 +11669,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A96" s="22" t="s">
         <v>381</v>
       </c>
@@ -11323,7 +11718,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A97" s="22" t="s">
         <v>382</v>
       </c>
@@ -11372,7 +11767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A98" s="22" t="s">
         <v>383</v>
       </c>
@@ -11421,7 +11816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A99" s="22" t="s">
         <v>384</v>
       </c>
@@ -11446,7 +11841,7 @@
         <v>50</v>
       </c>
       <c r="J99" s="23">
-        <f t="shared" ref="J99:J144" si="12">SUM(G99:I99)</f>
+        <f t="shared" ref="J99:J122" si="12">SUM(G99:I99)</f>
         <v>100</v>
       </c>
       <c r="K99">
@@ -11470,7 +11865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A100" s="22" t="s">
         <v>385</v>
       </c>
@@ -11519,7 +11914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A101" s="22" t="s">
         <v>386</v>
       </c>
@@ -11568,7 +11963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A102" s="22" t="s">
         <v>387</v>
       </c>
@@ -11617,7 +12012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A103" s="22" t="s">
         <v>388</v>
       </c>
@@ -11666,7 +12061,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A104" s="22" t="s">
         <v>389</v>
       </c>
@@ -11715,7 +12110,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A105" s="22" t="s">
         <v>390</v>
       </c>
@@ -11764,7 +12159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A106" s="22" t="s">
         <v>391</v>
       </c>
@@ -11813,7 +12208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A107" s="22" t="s">
         <v>392</v>
       </c>
@@ -11862,7 +12257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A108" s="22" t="s">
         <v>393</v>
       </c>
@@ -11911,7 +12306,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A109" s="22" t="s">
         <v>394</v>
       </c>
@@ -11960,7 +12355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A110" s="22" t="s">
         <v>395</v>
       </c>
@@ -12009,7 +12404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A111" s="22" t="s">
         <v>396</v>
       </c>
@@ -12058,7 +12453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A112" s="22" t="s">
         <v>397</v>
       </c>
@@ -12107,7 +12502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A113" s="22" t="s">
         <v>398</v>
       </c>
@@ -12156,7 +12551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A114" s="22" t="s">
         <v>399</v>
       </c>
@@ -12205,7 +12600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A115" s="22" t="s">
         <v>400</v>
       </c>
@@ -12254,7 +12649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A116" s="22" t="s">
         <v>401</v>
       </c>
@@ -12303,7 +12698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A117" s="22" t="s">
         <v>402</v>
       </c>
@@ -12352,7 +12747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A118" s="22" t="s">
         <v>403</v>
       </c>
@@ -12401,7 +12796,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A119" s="22" t="s">
         <v>404</v>
       </c>
@@ -12450,7 +12845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A120" s="22" t="s">
         <v>405</v>
       </c>
@@ -12499,7 +12894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A121" s="22" t="s">
         <v>406</v>
       </c>
@@ -12548,7 +12943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A122" s="22" t="s">
         <v>407</v>
       </c>
@@ -12597,7 +12992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>408</v>
       </c>
@@ -12645,7 +13040,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>410</v>
       </c>
@@ -12714,519 +13109,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA08B31E-403F-4D98-A2C5-BD7B3834450E}">
-  <dimension ref="B1:J142"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>35</v>
-      </c>
-      <c r="J4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="3"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="3"/>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F50"/>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F51"/>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F54"/>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F58"/>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F59"/>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F60"/>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F61"/>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F62"/>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F63"/>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F64"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F65"/>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F66"/>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F73"/>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F74"/>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F75"/>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F76"/>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F77"/>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F79"/>
-    </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F80"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F81"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F82"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F83"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F84"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F85"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F86"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F87"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F88"/>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F89"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F90"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F91"/>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F92"/>
-    </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F93"/>
-    </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F94"/>
-    </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F95"/>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F96"/>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F97"/>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F98"/>
-    </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F99"/>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F100"/>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F101"/>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F102"/>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F103"/>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F104"/>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F105"/>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F106"/>
-    </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F107"/>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F108"/>
-    </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F109"/>
-    </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F110"/>
-    </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F111"/>
-    </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F112"/>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F113"/>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F114"/>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F115"/>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F116"/>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F117"/>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F118"/>
-    </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F119"/>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F120"/>
-    </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F121"/>
-    </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F122"/>
-    </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F123"/>
-    </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F124"/>
-    </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F125"/>
-    </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F126"/>
-    </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F127"/>
-    </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F128"/>
-    </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F129"/>
-    </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F130"/>
-    </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F131"/>
-    </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F132"/>
-    </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F133"/>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F134"/>
-    </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F135"/>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F136"/>
-    </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F137"/>
-    </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F138"/>
-    </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F139"/>
-    </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F140"/>
-    </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F141"/>
-    </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F142"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54ED8AC-6FDF-4EF8-BCA9-A6A93DE727E6}">
   <sheetPr>
@@ -13238,20 +13120,20 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.86328125" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="14.265625" customWidth="1"/>
+    <col min="11" max="11" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -13304,7 +13186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -13354,7 +13236,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>269</v>
       </c>
@@ -13410,6 +13292,519 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA08B31E-403F-4D98-A2C5-BD7B3834450E}">
+  <dimension ref="B1:J142"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="15.86328125" customWidth="1"/>
+    <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B1" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B3" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B4" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>35</v>
+      </c>
+      <c r="J4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="D10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="D13" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="D14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="D15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F66"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F98"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F99"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F100"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F101"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F102"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F103"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F104"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F105"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F106"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F107"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F108"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F109"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F110"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F111"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F112"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F127"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F128"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F129"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F130"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F132"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F133"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F134"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F135"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F136"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F137"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F138"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F139"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F140"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F141"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F142"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E7F677-BE8D-4B15-BFBB-F131739569D4}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -13420,19 +13815,19 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -13461,7 +13856,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -13481,7 +13876,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -13504,7 +13899,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -13533,7 +13928,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -13562,7 +13957,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -13591,7 +13986,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -13620,7 +14015,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -13649,7 +14044,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -13678,7 +14073,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -13707,7 +14102,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -13730,7 +14125,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -13756,7 +14151,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -13785,7 +14180,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -13814,7 +14209,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>206</v>
       </c>
@@ -13843,7 +14238,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -13872,7 +14267,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>212</v>
       </c>
@@ -13901,7 +14296,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>143</v>
       </c>
@@ -13930,7 +14325,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>144</v>
       </c>
@@ -13959,7 +14354,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>145</v>
       </c>
@@ -13988,7 +14383,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>146</v>
       </c>
@@ -14014,7 +14409,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -14040,7 +14435,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>222</v>
       </c>
@@ -14069,7 +14464,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>225</v>
       </c>
@@ -14098,7 +14493,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>228</v>
       </c>
@@ -14127,7 +14522,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -14156,7 +14551,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>234</v>
       </c>
@@ -14185,7 +14580,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -14214,7 +14609,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -14243,7 +14638,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -14272,7 +14667,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -14314,16 +14709,16 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.86328125" customWidth="1"/>
     <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="7" max="8" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B1" s="14" t="s">
         <v>247</v>
       </c>
@@ -14346,7 +14741,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>252</v>
       </c>
@@ -14369,7 +14764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>253</v>
       </c>
@@ -14392,7 +14787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>255</v>
       </c>
@@ -14415,7 +14810,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>60</v>
       </c>
@@ -14432,7 +14827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>56</v>
       </c>
@@ -14441,376 +14836,376 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="3"/>
       <c r="D8" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D10" s="3" t="s">
         <v>62</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D11" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D12" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D13" s="3" t="s">
         <v>256</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D14" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H24" s="3"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H29" s="3"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F50"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F51"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F52"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F53"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F54"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F55"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F56"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F57"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F58"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F59"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F60"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F61"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F62"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F63"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F64"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F65"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F66"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F67"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F68"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F69"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F70"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F71"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F72"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F73"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F74"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F75"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F76"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F77"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F78"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F79"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F80"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F81"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F82"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F83"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F84"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F85"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F86"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F87"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F88"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F89"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F90"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F91"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F92"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F93"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F94"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F95"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F96"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F97"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F98"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F99"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F100"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F101"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F102"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F103"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F104"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F105"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F106"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F107"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F108"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F109"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F110"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F111"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F112"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F113"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F114"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F115"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F116"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F117"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F118"/>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F119"/>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F120"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F121"/>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F122"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F123"/>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F124"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F125"/>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F126"/>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F127"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F128"/>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F129"/>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F130"/>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F131"/>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F132"/>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F133"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F134"/>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F135"/>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F136"/>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F137"/>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F138"/>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F139"/>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F140"/>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F141"/>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F142"/>
     </row>
   </sheetData>
@@ -14830,12 +15225,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.1328125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -14849,7 +15244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -14864,7 +15259,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -14879,7 +15274,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -14894,7 +15289,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -14909,7 +15304,7 @@
         <v>19400</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -14924,7 +15319,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -14939,7 +15334,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -14954,7 +15349,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -14969,7 +15364,7 @@
         <v>18600</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -14984,7 +15379,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -14999,7 +15394,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -15014,7 +15409,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -15029,7 +15424,7 @@
         <v>17800</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -15044,7 +15439,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -15059,7 +15454,7 @@
         <v>17400</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -15074,7 +15469,7 @@
         <v>17200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -15089,7 +15484,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -15104,7 +15499,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -15119,7 +15514,7 @@
         <v>16600</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -15134,7 +15529,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -15149,7 +15544,7 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -15164,7 +15559,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -15179,7 +15574,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -15194,7 +15589,7 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -15209,7 +15604,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -15224,7 +15619,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -15239,7 +15634,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -15254,7 +15649,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -15269,7 +15664,7 @@
         <v>14600</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -15284,7 +15679,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -15299,7 +15694,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -15314,7 +15709,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -15329,7 +15724,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -15344,7 +15739,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -15359,7 +15754,7 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="11">
         <v>34</v>
       </c>
@@ -15374,7 +15769,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -15389,7 +15784,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="11">
         <v>36</v>
       </c>
@@ -15404,7 +15799,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -15419,7 +15814,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -15434,7 +15829,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -15449,7 +15844,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -15464,7 +15859,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -15479,7 +15874,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -15494,7 +15889,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -15509,7 +15904,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -15524,7 +15919,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -15539,7 +15934,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -15554,7 +15949,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -15569,7 +15964,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -15584,7 +15979,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -15599,7 +15994,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -15614,7 +16009,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -15629,7 +16024,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -15644,7 +16039,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -15659,7 +16054,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -15674,7 +16069,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -15689,7 +16084,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -15704,7 +16099,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -15719,7 +16114,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -15734,7 +16129,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -15749,7 +16144,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -15764,7 +16159,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -15779,7 +16174,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -15794,7 +16189,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -15809,7 +16204,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -15824,7 +16219,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -15839,7 +16234,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -15854,7 +16249,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -15869,7 +16264,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="11">
         <v>68</v>
       </c>
@@ -15884,7 +16279,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="11">
         <v>69</v>
       </c>
@@ -15899,7 +16294,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -15914,7 +16309,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -15929,7 +16324,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -15944,7 +16339,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="11">
         <v>73</v>
       </c>
@@ -15959,7 +16354,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="11">
         <v>74</v>
       </c>
@@ -15974,7 +16369,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -15989,7 +16384,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -16004,7 +16399,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -16019,7 +16414,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="11">
         <v>78</v>
       </c>
@@ -16034,7 +16429,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -16049,7 +16444,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="11">
         <v>80</v>
       </c>
@@ -16064,7 +16459,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="11">
         <v>81</v>
       </c>
@@ -16079,7 +16474,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="11">
         <v>82</v>
       </c>
@@ -16094,7 +16489,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -16109,7 +16504,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="11">
         <v>84</v>
       </c>
@@ -16124,7 +16519,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="11">
         <v>85</v>
       </c>
@@ -16139,7 +16534,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="11">
         <v>86</v>
       </c>
@@ -16154,7 +16549,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="11">
         <v>87</v>
       </c>
@@ -16169,7 +16564,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="11">
         <v>88</v>
       </c>
@@ -16184,7 +16579,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="11">
         <v>89</v>
       </c>
@@ -16199,7 +16594,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="11">
         <v>90</v>
       </c>
@@ -16214,7 +16609,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="11">
         <v>91</v>
       </c>
@@ -16229,7 +16624,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="11">
         <v>92</v>
       </c>
@@ -16244,7 +16639,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="11">
         <v>93</v>
       </c>
@@ -16259,7 +16654,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="11">
         <v>94</v>
       </c>
@@ -16274,7 +16669,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="11">
         <v>95</v>
       </c>
@@ -16289,7 +16684,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="11">
         <v>96</v>
       </c>
@@ -16304,7 +16699,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="11">
         <v>97</v>
       </c>
@@ -16319,7 +16714,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="11">
         <v>98</v>
       </c>
@@ -16334,7 +16729,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="11">
         <v>99</v>
       </c>
@@ -16349,7 +16744,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="11">
         <v>100</v>
       </c>
@@ -16380,12 +16775,12 @@
       <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -16399,7 +16794,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -16410,7 +16805,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -16418,7 +16813,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -16426,7 +16821,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -16440,7 +16835,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -16451,7 +16846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -16462,7 +16857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -16473,7 +16868,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -16481,7 +16876,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -16506,12 +16901,12 @@
       <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -16525,7 +16920,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -16536,7 +16931,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -16544,7 +16939,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -16552,7 +16947,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -16566,7 +16961,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -16577,7 +16972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -16588,7 +16983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -16599,7 +16994,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -16607,7 +17002,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -16622,6 +17017,73 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22101EE4-575E-4BFE-9D75-6D6E243D8B22}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.9296875" customWidth="1"/>
+    <col min="2" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="C2" s="31">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="33">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="36">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B841DDD-E656-48EF-90B2-112495E8E9FF}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -16632,12 +17094,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -16651,7 +17113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -16666,7 +17128,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -16681,7 +17143,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -16696,7 +17158,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -16711,7 +17173,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -16726,7 +17188,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -16741,7 +17203,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -16756,7 +17218,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -16771,7 +17233,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -16786,7 +17248,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -16801,7 +17263,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -16816,7 +17278,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -16831,7 +17293,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -16846,7 +17308,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -16861,7 +17323,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -16876,7 +17338,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -16891,7 +17353,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -16906,7 +17368,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -16921,7 +17383,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -16936,7 +17398,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -16951,7 +17413,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -16966,7 +17428,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -16981,7 +17443,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -16996,7 +17458,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -17011,7 +17473,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -17026,7 +17488,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -17041,7 +17503,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -17056,7 +17518,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -17071,7 +17533,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -17086,7 +17548,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -17101,7 +17563,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -17116,7 +17578,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -17131,7 +17593,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -17146,7 +17608,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -17161,7 +17623,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="11">
         <v>34</v>
       </c>
@@ -17176,7 +17638,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -17191,7 +17653,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="11">
         <v>36</v>
       </c>
@@ -17206,7 +17668,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -17221,7 +17683,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -17236,7 +17698,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -17251,7 +17713,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -17266,7 +17728,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -17281,7 +17743,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -17296,7 +17758,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -17311,7 +17773,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -17326,7 +17788,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -17341,7 +17803,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -17356,7 +17818,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -17371,7 +17833,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -17386,7 +17848,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -17401,7 +17863,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -17416,7 +17878,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -17431,7 +17893,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -17446,7 +17908,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -17461,7 +17923,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -17476,7 +17938,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -17491,7 +17953,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -17506,7 +17968,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -17521,7 +17983,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -17536,7 +17998,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -17551,7 +18013,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -17566,7 +18028,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -17581,7 +18043,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -17596,7 +18058,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -17611,7 +18073,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -17626,7 +18088,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -17641,7 +18103,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -17656,7 +18118,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -17671,7 +18133,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="11">
         <v>68</v>
       </c>
@@ -17686,7 +18148,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="11">
         <v>69</v>
       </c>
@@ -17701,7 +18163,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -17716,7 +18178,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -17731,7 +18193,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -17746,7 +18208,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="11">
         <v>73</v>
       </c>
@@ -17761,7 +18223,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="11">
         <v>74</v>
       </c>
@@ -17776,7 +18238,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -17791,7 +18253,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -17806,7 +18268,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -17821,7 +18283,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="11">
         <v>78</v>
       </c>
@@ -17836,7 +18298,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -17851,7 +18313,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="11">
         <v>80</v>
       </c>
@@ -17866,7 +18328,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="11">
         <v>81</v>
       </c>
@@ -17881,7 +18343,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="11">
         <v>82</v>
       </c>
@@ -17896,7 +18358,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -17911,7 +18373,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="11">
         <v>84</v>
       </c>
@@ -17926,7 +18388,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="11">
         <v>85</v>
       </c>
@@ -17941,7 +18403,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="11">
         <v>86</v>
       </c>
@@ -17956,7 +18418,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="11">
         <v>87</v>
       </c>
@@ -17971,7 +18433,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="11">
         <v>88</v>
       </c>
@@ -17986,7 +18448,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="11">
         <v>89</v>
       </c>
@@ -18001,7 +18463,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="11">
         <v>90</v>
       </c>
@@ -18016,7 +18478,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="11">
         <v>91</v>
       </c>
@@ -18031,7 +18493,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="11">
         <v>92</v>
       </c>
@@ -18046,7 +18508,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="11">
         <v>93</v>
       </c>
@@ -18061,7 +18523,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="11">
         <v>94</v>
       </c>
@@ -18076,7 +18538,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="11">
         <v>95</v>
       </c>
@@ -18091,7 +18553,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="11">
         <v>96</v>
       </c>
@@ -18106,7 +18568,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="11">
         <v>97</v>
       </c>
@@ -18121,7 +18583,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="11">
         <v>98</v>
       </c>
@@ -18136,7 +18598,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="11">
         <v>99</v>
       </c>
@@ -18151,7 +18613,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="11">
         <v>100</v>
       </c>
@@ -18171,7 +18633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4BDA4A-DD13-4CE0-A00F-5A819FEC1D2B}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -18182,20 +18644,20 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.73046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -18224,7 +18686,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -18250,7 +18712,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -18276,7 +18738,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>241</v>
       </c>
@@ -18306,7 +18768,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -18332,7 +18794,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>243</v>
       </c>
@@ -18361,231 +18823,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DA5DAA-CF6C-4D9D-B4B7-3F4EA4894591}">
-  <sheetPr>
-    <tabColor theme="7"/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>49</v>
-      </c>
-      <c r="G4">
-        <f>2.5/35</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>245</v>
       </c>

--- a/pacehrh/tests/simple_config/super_simple_inputs.xlsx
+++ b/pacehrh/tests/simple_config/super_simple_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesel\Source\Ethiopia-HEP-Capacity-Analysis\pacehrh\tests\simple_config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/ryan_hull_gatesfoundation_org/Documents/Documents/pace-hrh/pacehrh/tests/simple_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A2F7EB-1D36-4963-8466-6E2ABCCD27A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{A8A2F7EB-1D36-4963-8466-6E2ABCCD27A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{028B0D00-81AC-4B9F-BE05-22FCF1DBC700}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="830" activeTab="6" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="3030" yWindow="-21720" windowWidth="51840" windowHeight="20625" tabRatio="830" activeTab="1" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="80" r:id="rId1"/>
@@ -32,19 +32,21 @@
     <sheet name="SeasonalityOffsets_Alt" sheetId="102" r:id="rId17"/>
     <sheet name="CadreRoles" sheetId="104" r:id="rId18"/>
     <sheet name="Cadres_Merged" sheetId="103" r:id="rId19"/>
-    <sheet name="Bad_Lookup" sheetId="95" r:id="rId20"/>
-    <sheet name="EXP_PopValues" sheetId="84" r:id="rId21"/>
+    <sheet name="Coverage" sheetId="106" r:id="rId20"/>
+    <sheet name="Bad_Lookup" sheetId="95" r:id="rId21"/>
+    <sheet name="EXP_PopValues" sheetId="84" r:id="rId22"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
     <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
   </externalReferences>
   <definedNames>
-    <definedName name="hours" localSheetId="19">#REF!</definedName>
+    <definedName name="hours" localSheetId="20">#REF!</definedName>
     <definedName name="hours" localSheetId="17">#REF!</definedName>
     <definedName name="hours" localSheetId="18">#REF!</definedName>
     <definedName name="hours" localSheetId="6">#REF!</definedName>
@@ -52,7 +54,7 @@
     <definedName name="hours" localSheetId="0">#REF!</definedName>
     <definedName name="hours" localSheetId="1">#REF!</definedName>
     <definedName name="hours">#REF!</definedName>
-    <definedName name="select_pop" localSheetId="19">#REF!</definedName>
+    <definedName name="select_pop" localSheetId="20">#REF!</definedName>
     <definedName name="select_pop" localSheetId="17">#REF!</definedName>
     <definedName name="select_pop" localSheetId="18">#REF!</definedName>
     <definedName name="select_pop" localSheetId="6">#REF!</definedName>
@@ -61,7 +63,7 @@
     <definedName name="select_pop" localSheetId="1">#REF!</definedName>
     <definedName name="select_pop">#REF!</definedName>
     <definedName name="select_pop_2">'[1]Inputs Assump'!$C$4</definedName>
-    <definedName name="total_pop" localSheetId="19">[2]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop" localSheetId="20">[2]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop" localSheetId="17">#REF!</definedName>
     <definedName name="total_pop" localSheetId="18">#REF!</definedName>
     <definedName name="total_pop" localSheetId="6">#REF!</definedName>
@@ -70,7 +72,7 @@
     <definedName name="total_pop" localSheetId="1">[2]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop">#REF!</definedName>
     <definedName name="total_pop_2">[2]Demographics_Total!$CZ$3</definedName>
-    <definedName name="total_pop2" localSheetId="19">[3]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2" localSheetId="20">[3]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop2" localSheetId="17">[3]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop2" localSheetId="18">[3]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop2" localSheetId="6">[3]Demographics_Total!$CZ$3</definedName>
@@ -78,7 +80,7 @@
     <definedName name="total_pop2" localSheetId="0">[4]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop2" localSheetId="1">[4]Demographics_Total!$CZ$3</definedName>
     <definedName name="total_pop2">[5]Demographics_Total!$CZ$3</definedName>
-    <definedName name="weeks" localSheetId="19">#REF!</definedName>
+    <definedName name="weeks" localSheetId="20">#REF!</definedName>
     <definedName name="weeks" localSheetId="17">#REF!</definedName>
     <definedName name="weeks" localSheetId="18">#REF!</definedName>
     <definedName name="weeks" localSheetId="6">#REF!</definedName>
@@ -268,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="465">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -1579,6 +1581,90 @@
   </si>
   <si>
     <t>Incidence</t>
+  </si>
+  <si>
+    <t>sheet_Coverage</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Year 0</t>
+  </si>
+  <si>
+    <t>Year 1</t>
+  </si>
+  <si>
+    <t>Year 2</t>
+  </si>
+  <si>
+    <t>Year 3</t>
+  </si>
+  <si>
+    <t>Year 4</t>
+  </si>
+  <si>
+    <t>Year 5</t>
+  </si>
+  <si>
+    <t>Year 6</t>
+  </si>
+  <si>
+    <t>Year 7</t>
+  </si>
+  <si>
+    <t>Year 8</t>
+  </si>
+  <si>
+    <t>Year 9</t>
+  </si>
+  <si>
+    <t>Year 10</t>
+  </si>
+  <si>
+    <t>Year 11</t>
+  </si>
+  <si>
+    <t>Year 12</t>
+  </si>
+  <si>
+    <t>Year 13</t>
+  </si>
+  <si>
+    <t>Year 14</t>
+  </si>
+  <si>
+    <t>Year 15</t>
+  </si>
+  <si>
+    <t>Year 16</t>
+  </si>
+  <si>
+    <t>Year 17</t>
+  </si>
+  <si>
+    <t>Year 18</t>
+  </si>
+  <si>
+    <t>Year 19</t>
+  </si>
+  <si>
+    <t>Year 20</t>
+  </si>
+  <si>
+    <t>FH.MN.ANC.2</t>
+  </si>
+  <si>
+    <t>FH.MN.D.3</t>
+  </si>
+  <si>
+    <t>FH.MN.D.4</t>
+  </si>
+  <si>
+    <t>FH.MN.D.5</t>
+  </si>
+  <si>
+    <t>FH.MN.D.6</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1945,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1915,6 +2001,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1927,21 +2016,7 @@
     <cellStyle name="Normal 3" xfId="3" xr:uid="{0BF7DB11-EC82-411C-A30D-E3B92EB716AD}"/>
     <cellStyle name="Normal 4" xfId="7" xr:uid="{BF3E4F93-5C6B-4114-BA74-D73A14FC022F}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -3790,6 +3865,2006 @@
       <sheetData sheetId="43"/>
       <sheetData sheetId="44"/>
       <sheetData sheetId="45"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Read Me"/>
+      <sheetName val="Scenarios"/>
+      <sheetName val="RegionSelect"/>
+      <sheetName val="PopValues"/>
+      <sheetName val="TotalPop"/>
+      <sheetName val="StochasticParameters"/>
+      <sheetName val="ChangeRateLimits"/>
+      <sheetName val="SeasonalityCurves"/>
+      <sheetName val="TV_Comprehensive"/>
+      <sheetName val="SeasonalityOffsets"/>
+      <sheetName val="TaskValues_ref"/>
+      <sheetName val="CoverageRates_slowramp"/>
+      <sheetName val="TV_Merged"/>
+      <sheetName val="Cadres_Comprehensive"/>
+      <sheetName val="TV_Basic"/>
+      <sheetName val="Cadres_Basic"/>
+      <sheetName val="Cadres_Merged"/>
+      <sheetName val="CadreRoles"/>
+      <sheetName val="Lookup"/>
+      <sheetName val="Fertility Mortality Rates"/>
+      <sheetName val="RegionalData"/>
+      <sheetName val="Work time"/>
+      <sheetName val="Age band mort calcs"/>
+      <sheetName val="Pop-HW Ratios"/>
+      <sheetName val="Prevalences"/>
+      <sheetName val="Ssn TB"/>
+      <sheetName val="Ssn Births"/>
+      <sheetName val="Ssn Diarrhea"/>
+      <sheetName val="Ssn Malaria"/>
+      <sheetName val="Ssn Nutr"/>
+      <sheetName val="Staffing"/>
+      <sheetName val="Pop_female_2020"/>
+      <sheetName val="Pop_male_2020"/>
+      <sheetName val="TB Incidence"/>
+      <sheetName val="Malaria Incid"/>
+      <sheetName val="HIV Prev"/>
+      <sheetName val="HIV Incid"/>
+      <sheetName val="mort infant"/>
+      <sheetName val="mort 1-5"/>
+      <sheetName val="mort 5-9"/>
+      <sheetName val="mort 10-14"/>
+      <sheetName val="mort 15-19"/>
+      <sheetName val="mort 20-24"/>
+      <sheetName val="mort adult f"/>
+      <sheetName val="mort adult m"/>
+      <sheetName val="Pop M"/>
+      <sheetName val="Pop F"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1">
+        <row r="1">
+          <cell r="E1" t="str">
+            <v>Indicator</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>CommonName</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="E2" t="str">
+            <v>FH.MN.ANC.1</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>ANC visits</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3" t="str">
+            <v>FH.MN.ANC.2</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>ANC rapid testing</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4" t="str">
+            <v>FH.MN.D.3</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>Normal labor management</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5" t="str">
+            <v>FH.MN.D.4</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>Active management 3rd stage</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6" t="str">
+            <v>FH.MN.D.5</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>Emergency OB</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7" t="str">
+            <v>FH.MN.D.6</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>Pre-referral for complications</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8" t="str">
+            <v>FH.MN.PNC.7</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>PNC home visits</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9" t="str">
+            <v>FH.MN.PNC.8</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>Maternal sepsis</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10" t="str">
+            <v>FH.MN.PNC.9</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>Mastitis</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11" t="str">
+            <v>FH.MN.PNC.10</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>Postpartum haemorrhage</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12" t="str">
+            <v>FH.MN.PNC.11</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>Pre-referral PPH</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13" t="str">
+            <v>FH.MN.S.12</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>Mortality surveillance</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14" t="str">
+            <v>FH.MN.S.13</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>ID fistula and prolapse</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15" t="str">
+            <v>FH.MN.S.14</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>Promote cervical cancer ID and treat</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16" t="str">
+            <v>FH.MN.15</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>Newborn care</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17" t="str">
+            <v>FH.MN.16</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>Chlorhexidine</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18" t="str">
+            <v>FH.MN.17</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>Kangaroo care</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19" t="str">
+            <v>FH.MN.18</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>Refer congenital anomalies</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="F20" t="str">
+            <v>ICCM childhood illness</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21" t="str">
+            <v>FH.MN.19A</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>Pneumonia (ARI)</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22" t="str">
+            <v>FH.MN.19B</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>Diarrhea</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23" t="str">
+            <v>FH.MN.19C</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>Parasites</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24" t="str">
+            <v>FH.MN.19D</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>Fever, excluding diarrhea and ARI</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25" t="str">
+            <v>FH.MN.20</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>IMNCI</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26" t="str">
+            <v>FH.MN.21A</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>Well child check &amp; growth monitoring</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27" t="str">
+            <v>FH.MN.21</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>Treat severe malnutrition</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28" t="str">
+            <v>FH.MN.22</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>Treat moderate malnutrition</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29" t="str">
+            <v>FH.MN.23</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>Deworming &amp; VitA</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30" t="str">
+            <v>FH.MN.24</v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>Paediatric palliative</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31" t="str">
+            <v>FH.MN.25</v>
+          </cell>
+          <cell r="F31" t="str">
+            <v>Pharyngitis, tonsillitis, sinusitis</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32" t="str">
+            <v>FH.MN.28</v>
+          </cell>
+          <cell r="F32" t="str">
+            <v>Scabies</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33" t="str">
+            <v>FH.MN.29</v>
+          </cell>
+          <cell r="F33" t="str">
+            <v>Child abuse</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34" t="str">
+            <v>FH.MN.30</v>
+          </cell>
+          <cell r="F34" t="str">
+            <v>Social services</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35" t="str">
+            <v>FH.EPI.31</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>Promotion of immunization</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="F36" t="str">
+            <v>Routine immunization</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37" t="str">
+            <v>FH.EPI.32A</v>
+          </cell>
+          <cell r="F37" t="str">
+            <v>RI birth</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38" t="str">
+            <v>FH.EPI.32B</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>RI 1st year</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39" t="str">
+            <v>FH.EPI.32C</v>
+          </cell>
+          <cell r="F39" t="str">
+            <v>RI 2nd year</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40" t="str">
+            <v>FH.EPI.32D</v>
+          </cell>
+          <cell r="F40" t="str">
+            <v>RI Td CBA</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41" t="str">
+            <v>FH.EPI.33</v>
+          </cell>
+          <cell r="F41" t="str">
+            <v>SIAs</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42" t="str">
+            <v>FH.EPI.34</v>
+          </cell>
+          <cell r="F42" t="str">
+            <v>RI adverse effects</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43" t="str">
+            <v>FH.EPI.35</v>
+          </cell>
+          <cell r="F43" t="str">
+            <v>Outbreak detection &amp; response</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44" t="str">
+            <v>FH.EPI.36</v>
+          </cell>
+          <cell r="F44" t="str">
+            <v>Mobiliation &amp; promotion of EPI</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45" t="str">
+            <v>FH.EPI.37</v>
+          </cell>
+          <cell r="F45" t="str">
+            <v>VPD surveillance</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="F46" t="str">
+            <v>FP counseling</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47" t="str">
+            <v>FH.FP.38A</v>
+          </cell>
+          <cell r="F47" t="str">
+            <v>FP consult first time</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="E48" t="str">
+            <v>FH.FP.38B</v>
+          </cell>
+          <cell r="F48" t="str">
+            <v>FP consult postpartum</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="E49" t="str">
+            <v>FH.FP.38C</v>
+          </cell>
+          <cell r="F49" t="str">
+            <v>FP consult switch</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="E50" t="str">
+            <v>FH.FP.39</v>
+          </cell>
+          <cell r="F50" t="str">
+            <v>Provision of contraceptives</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="E51" t="str">
+            <v>FH.FP.40</v>
+          </cell>
+          <cell r="F51" t="str">
+            <v>Provision of implants and IUCD</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52" t="str">
+            <v>FH.FP.41</v>
+          </cell>
+          <cell r="F52" t="str">
+            <v>Removal of implants and IUCD</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53" t="str">
+            <v>FH.FP.42</v>
+          </cell>
+          <cell r="F53" t="str">
+            <v>Psycho-social counseling</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="E54" t="str">
+            <v>FH.FP.43</v>
+          </cell>
+          <cell r="F54" t="str">
+            <v>Abortion care &amp; referral</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="E55" t="str">
+            <v>FH.FP.44</v>
+          </cell>
+          <cell r="F55" t="str">
+            <v>Post-abortion follow-up</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="E56" t="str">
+            <v>FH.FP.45</v>
+          </cell>
+          <cell r="F56" t="str">
+            <v>Education on menstration</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="E57" t="str">
+            <v>FH.FP.46</v>
+          </cell>
+          <cell r="F57" t="str">
+            <v>Treatment of menstrual problems</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="E58" t="str">
+            <v>FH.FP.47</v>
+          </cell>
+          <cell r="F58" t="str">
+            <v>Promote self-breast exam</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="E59" t="str">
+            <v>FH.FP.48</v>
+          </cell>
+          <cell r="F59" t="str">
+            <v>HPV vacination</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="E60" t="str">
+            <v>FH.FP.49</v>
+          </cell>
+          <cell r="F60" t="str">
+            <v>Education on health &amp; wellbeing</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="E61" t="str">
+            <v>FH.FP.50</v>
+          </cell>
+          <cell r="F61" t="str">
+            <v>Adolescent SRH</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="E62" t="str">
+            <v>FH.FP.51</v>
+          </cell>
+          <cell r="F62" t="str">
+            <v>Provision of adolescent-friendly contraceptives</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="E63" t="str">
+            <v>FH.FP.52</v>
+          </cell>
+          <cell r="F63" t="str">
+            <v>Education about GBV</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="E64" t="str">
+            <v>FH.FP.53</v>
+          </cell>
+          <cell r="F64" t="str">
+            <v>Community dialogue about GBV</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="E65" t="str">
+            <v>FH.FP.54</v>
+          </cell>
+          <cell r="F65" t="str">
+            <v>Pregnancy test for GBV</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="E66" t="str">
+            <v>FH.FP.55</v>
+          </cell>
+          <cell r="F66" t="str">
+            <v>HIV test for GBV</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="E67" t="str">
+            <v>FH.FP.56</v>
+          </cell>
+          <cell r="F67" t="str">
+            <v>Emergency GBV response</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="E68" t="str">
+            <v>FH.FP.57</v>
+          </cell>
+          <cell r="F68" t="str">
+            <v>Medical treatment for GBV</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="E69" t="str">
+            <v>FH.FP.58</v>
+          </cell>
+          <cell r="F69" t="str">
+            <v>Psycho-social support for GBV</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="E70" t="str">
+            <v>FH.FP.59</v>
+          </cell>
+          <cell r="F70" t="str">
+            <v>Adovacy against HTP</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="E71" t="str">
+            <v>FH.FP.60</v>
+          </cell>
+          <cell r="F71" t="str">
+            <v>Prevention of teen pregnancy</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="E72" t="str">
+            <v>FH.FP.61</v>
+          </cell>
+          <cell r="F72" t="str">
+            <v>Folic acid</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="E73" t="str">
+            <v>FH.FP.62</v>
+          </cell>
+          <cell r="F73" t="str">
+            <v>SRH counseling for men</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="E74" t="str">
+            <v>FH.Ntr.64</v>
+          </cell>
+          <cell r="F74" t="str">
+            <v>Promote breast feeding</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="E75" t="str">
+            <v>FH.Ntr.65</v>
+          </cell>
+          <cell r="F75" t="str">
+            <v>Nutritional screening during pregnancy</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="E76" t="str">
+            <v>FH.Ntr.66</v>
+          </cell>
+          <cell r="F76" t="str">
+            <v>Monthly monitoring</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="E77" t="str">
+            <v>FH.Ntr.67</v>
+          </cell>
+          <cell r="F77" t="str">
+            <v>MUAC and oedema screening</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="E78" t="str">
+            <v>FH.Ntr.68</v>
+          </cell>
+          <cell r="F78" t="str">
+            <v>Treat malnourished mothers</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="F79" t="str">
+            <v>Anaemia</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="E80" t="str">
+            <v>FH.Ntr.69A</v>
+          </cell>
+          <cell r="F80" t="str">
+            <v>Anaemia severe U5</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="E81" t="str">
+            <v>FH.Ntr.69B</v>
+          </cell>
+          <cell r="F81" t="str">
+            <v>Anaemia severe children</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="E82" t="str">
+            <v>FH.Ntr.69C</v>
+          </cell>
+          <cell r="F82" t="str">
+            <v>Anaemia severe adults</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="E83" t="str">
+            <v>FH.Ntr.70</v>
+          </cell>
+          <cell r="F83" t="str">
+            <v>Promote nutrition for MNC</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="E84" t="str">
+            <v>FH.Ntr.71</v>
+          </cell>
+          <cell r="F84" t="str">
+            <v>Education re nutrition</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="E85" t="str">
+            <v>FH.Ntr.72</v>
+          </cell>
+          <cell r="F85" t="str">
+            <v>Calcium supplementation</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="E86" t="str">
+            <v>FH.Ntr.73</v>
+          </cell>
+          <cell r="F86" t="str">
+            <v>Nutrition for HIV+ women</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="E87" t="str">
+            <v>FH.Ntr.74</v>
+          </cell>
+          <cell r="F87" t="str">
+            <v>Promote iodized salt &amp; fortified food</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="E88" t="str">
+            <v>FH.Ntr.75</v>
+          </cell>
+          <cell r="F88" t="str">
+            <v>Nutrition outreach</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="E89" t="str">
+            <v>FH.Ntr.76</v>
+          </cell>
+          <cell r="F89" t="str">
+            <v>Promote gender equity &amp; empowerment</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="E90" t="str">
+            <v>FH.Ntr.77</v>
+          </cell>
+          <cell r="F90" t="str">
+            <v>Nutritional disaster response</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="E91" t="str">
+            <v>FH.Ntr.78</v>
+          </cell>
+          <cell r="F91" t="str">
+            <v>Multisectoral nutrition intervention</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="E92" t="str">
+            <v>FH.Ntr.79</v>
+          </cell>
+          <cell r="F92" t="str">
+            <v>Breast feeding technique</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="E93" t="str">
+            <v>FH.Ntr.80</v>
+          </cell>
+          <cell r="F93" t="str">
+            <v>Acute malnutrition</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="E94" t="str">
+            <v>FH.Ntr.81</v>
+          </cell>
+          <cell r="F94" t="str">
+            <v>Counsel complementary feeding</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="E95" t="str">
+            <v>FH.Ntr.82</v>
+          </cell>
+          <cell r="F95" t="str">
+            <v>Timely complementary feeding</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="E96" t="str">
+            <v>FH.Ntr.83</v>
+          </cell>
+          <cell r="F96" t="str">
+            <v>Promote BF until 24 months</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="E97" t="str">
+            <v>FH.Ntr.84</v>
+          </cell>
+          <cell r="F97" t="str">
+            <v>Promote BF during child illness</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="E98" t="str">
+            <v>FH.Ntr.85</v>
+          </cell>
+          <cell r="F98" t="str">
+            <v>Educate on complementary foods</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="E99" t="str">
+            <v>FH.Ntr.86</v>
+          </cell>
+          <cell r="F99" t="str">
+            <v>Nutrition education for children</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="E100" t="str">
+            <v>FH.Ntr.87</v>
+          </cell>
+          <cell r="F100" t="str">
+            <v>Nutrition in schools</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="E101" t="str">
+            <v>FH.Ntr.88</v>
+          </cell>
+          <cell r="F101" t="str">
+            <v>Food diversification</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="E102" t="str">
+            <v>FH.Ntr.89</v>
+          </cell>
+          <cell r="F102" t="str">
+            <v>School-based de-worming</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="E103" t="str">
+            <v>FH.Ntr.90</v>
+          </cell>
+          <cell r="F103" t="str">
+            <v>School nutrition clubs</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="E104" t="str">
+            <v>FH.Ntr.91</v>
+          </cell>
+          <cell r="F104" t="str">
+            <v>School gardening programs</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="E105" t="str">
+            <v>FH.Ntr.92</v>
+          </cell>
+          <cell r="F105" t="str">
+            <v>School nutrition demonstrations</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="F106" t="str">
+            <v>STI management</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="E107" t="str">
+            <v>DPC.STI.93A</v>
+          </cell>
+          <cell r="F107" t="str">
+            <v>STI management, women</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="E108" t="str">
+            <v>DPC.STI.93B</v>
+          </cell>
+          <cell r="F108" t="str">
+            <v>STI management, men</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="E109" t="str">
+            <v>DPC.STI.94</v>
+          </cell>
+          <cell r="F109" t="str">
+            <v>STI prevention for sex workers</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="E110" t="str">
+            <v>DPC.STI.95</v>
+          </cell>
+          <cell r="F110" t="str">
+            <v>Risk reduction</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="E111" t="str">
+            <v>DPC.STI.96</v>
+          </cell>
+          <cell r="F111" t="str">
+            <v>HIV self-testing</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="E112" t="str">
+            <v>DPC.STI.97</v>
+          </cell>
+          <cell r="F112" t="str">
+            <v>HIV voluntary counseling &amp; testing</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="E113" t="str">
+            <v>DPC.STI.98</v>
+          </cell>
+          <cell r="F113" t="str">
+            <v>HIV provider-initiated counseling &amp; testing</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="E114" t="str">
+            <v>DPC.STI.99</v>
+          </cell>
+          <cell r="F114" t="str">
+            <v>HIV linkages</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="E115" t="str">
+            <v>DPC.STI.100</v>
+          </cell>
+          <cell r="F115" t="str">
+            <v>Post-exposure prophylaxis</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="E116" t="str">
+            <v>DPC.STI.101</v>
+          </cell>
+          <cell r="F116" t="str">
+            <v>ART refilling/adherence</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="E117" t="str">
+            <v>DPC.Mlr.102</v>
+          </cell>
+          <cell r="F117" t="str">
+            <v>Vector control</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="F118" t="str">
+            <v>RDT &amp; treat uncomplicated cases</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="E119" t="str">
+            <v>DPC.Mlr.103A</v>
+          </cell>
+          <cell r="F119" t="str">
+            <v>Uncomplicated malaria in adults</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="E120" t="str">
+            <v>DPC.Mlr.103B</v>
+          </cell>
+          <cell r="F120" t="str">
+            <v>Uncomplicated malaria in children</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="E121" t="str">
+            <v>DPC.Mlr.103C</v>
+          </cell>
+          <cell r="F121" t="str">
+            <v>Testing non-malaria cases</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="F122" t="str">
+            <v>Treat &amp; refer severe cases</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="E123" t="str">
+            <v>DPC.Mlr.104A</v>
+          </cell>
+          <cell r="F123" t="str">
+            <v>Severe malaria in adults</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="E124" t="str">
+            <v>DPC.Mlr.104B</v>
+          </cell>
+          <cell r="F124" t="str">
+            <v>Severe malaria in children</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="E125" t="str">
+            <v>DPC.Mlr.105</v>
+          </cell>
+          <cell r="F125" t="str">
+            <v>Malaria surveillance</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="E126" t="str">
+            <v>DPC.Mlr.106</v>
+          </cell>
+          <cell r="F126" t="str">
+            <v>Risk reduction</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="E127" t="str">
+            <v>DPC.Mlr.107</v>
+          </cell>
+          <cell r="F127" t="str">
+            <v>Outbreak detection &amp; response</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="F128" t="str">
+            <v>Screening for TB &amp; leprosy</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="E129" t="str">
+            <v>DPC.TB.108A</v>
+          </cell>
+          <cell r="F129" t="str">
+            <v>Testing</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="E130" t="str">
+            <v>DPC.TB.108B</v>
+          </cell>
+          <cell r="F130" t="str">
+            <v>Follow-up and linkage for positives</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="E131" t="str">
+            <v>DPC.TB.109</v>
+          </cell>
+          <cell r="F131" t="str">
+            <v>Treatment (DOT)</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="E132" t="str">
+            <v>DPC.TB.110</v>
+          </cell>
+          <cell r="F132" t="str">
+            <v>HIV prevention for TB patients</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="E133" t="str">
+            <v>DPC.Drug.112</v>
+          </cell>
+          <cell r="F133" t="str">
+            <v>Promote protection from tobacco smoke</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="E134" t="str">
+            <v>DPC.Drug.113</v>
+          </cell>
+          <cell r="F134" t="str">
+            <v>Campaigns re: alcohol use</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="E135" t="str">
+            <v>DPC.Drug.114</v>
+          </cell>
+          <cell r="F135" t="str">
+            <v>Community-level physical activity</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="E136" t="str">
+            <v>DPC.Cncr.115</v>
+          </cell>
+          <cell r="F136" t="str">
+            <v>Awareness on risk factors</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="E137" t="str">
+            <v>DPC.Cncr.116</v>
+          </cell>
+          <cell r="F137" t="str">
+            <v>Screening for common cancers</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="E138" t="str">
+            <v>DPC.Cncr.117</v>
+          </cell>
+          <cell r="F138" t="str">
+            <v>Breast cancer education</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="E139" t="str">
+            <v>DPC.Cncr.118</v>
+          </cell>
+          <cell r="F139" t="str">
+            <v>Clinical breast exams</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="F140" t="str">
+            <v>Palliative care for cancer</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="E141" t="str">
+            <v>DPC.Cncr.119A</v>
+          </cell>
+          <cell r="F141" t="str">
+            <v>Palliative care for cancer, men 20-29</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="E142" t="str">
+            <v>DPC.Cncr.119B</v>
+          </cell>
+          <cell r="F142" t="str">
+            <v>Palliative care for cancer, men 30-39</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="E143" t="str">
+            <v>DPC.Cncr.119C</v>
+          </cell>
+          <cell r="F143" t="str">
+            <v>Palliative care for cancer, men 40-49</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="E144" t="str">
+            <v>DPC.Cncr.119D</v>
+          </cell>
+          <cell r="F144" t="str">
+            <v>Palliative care for cancer, men 50-59</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="E145" t="str">
+            <v>DPC.Cncr.119E</v>
+          </cell>
+          <cell r="F145" t="str">
+            <v>Palliative care for cancer, men 60-69</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="E146" t="str">
+            <v>DPC.Cncr.119F</v>
+          </cell>
+          <cell r="F146" t="str">
+            <v>Palliative care for cancer, women 20-29</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="E147" t="str">
+            <v>DPC.Cncr.119G</v>
+          </cell>
+          <cell r="F147" t="str">
+            <v>Palliative care for cancer, women 30-39</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="E148" t="str">
+            <v>DPC.Cncr.119H</v>
+          </cell>
+          <cell r="F148" t="str">
+            <v>Palliative care for cancer, women 40-49</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="E149" t="str">
+            <v>DPC.Cncr.119I</v>
+          </cell>
+          <cell r="F149" t="str">
+            <v>Palliative care for cancer, women 50-59</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="E150" t="str">
+            <v>DPC.Cncr.119J</v>
+          </cell>
+          <cell r="F150" t="str">
+            <v>Palliative care for cancer, women 60-69</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="E151" t="str">
+            <v>DPC.Cncr.119K</v>
+          </cell>
+          <cell r="F151" t="str">
+            <v>Palliative care for cancer, men &amp; women 70+</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="E152" t="str">
+            <v>DPC.Hyp.120</v>
+          </cell>
+          <cell r="F152" t="str">
+            <v>Lifestyle counseling</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="E153" t="str">
+            <v>DPC.Hyp.121</v>
+          </cell>
+          <cell r="F153" t="str">
+            <v>Hypertension screening</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="F154" t="str">
+            <v>Hypertension routine care</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="E155" t="str">
+            <v>DPC.Hyp.122A</v>
+          </cell>
+          <cell r="F155" t="str">
+            <v>Hypertension routine care, ages 15-24</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="E156" t="str">
+            <v>DPC.Hyp.122B</v>
+          </cell>
+          <cell r="F156" t="str">
+            <v>Hypertension routine care, ages 25-34</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="E157" t="str">
+            <v>DPC.Hyp.122C</v>
+          </cell>
+          <cell r="F157" t="str">
+            <v>Hypertension routine care, ages 35-44</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="E158" t="str">
+            <v>DPC.Hyp.122D</v>
+          </cell>
+          <cell r="F158" t="str">
+            <v>Hypertension routine care, ages 45-54</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="E159" t="str">
+            <v>DPC.Hyp.122E</v>
+          </cell>
+          <cell r="F159" t="str">
+            <v>Hypertension routine care, ages 55-64</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="E160" t="str">
+            <v>DPC.Hyp.122F</v>
+          </cell>
+          <cell r="F160" t="str">
+            <v>Hypertension routine care, ages 65+</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="E161" t="str">
+            <v>DPC.Dbt.123</v>
+          </cell>
+          <cell r="F161" t="str">
+            <v>Lifestyle counseling</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="E162" t="str">
+            <v>DPC.Dbt.124</v>
+          </cell>
+          <cell r="F162" t="str">
+            <v>Screening for type 2 diabetes</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="F163" t="str">
+            <v>Diabetes routine care</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="E164" t="str">
+            <v>DPC.Dbt.125A</v>
+          </cell>
+          <cell r="F164" t="str">
+            <v>Diabetes routine care, ages 15-24</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="E165" t="str">
+            <v>DPC.Dbt.125B</v>
+          </cell>
+          <cell r="F165" t="str">
+            <v>Diabetes routine care, ages 25-34</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="E166" t="str">
+            <v>DPC.Dbt.125C</v>
+          </cell>
+          <cell r="F166" t="str">
+            <v>Diabetes routine care, ages 35-44</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="E167" t="str">
+            <v>DPC.Dbt.125D</v>
+          </cell>
+          <cell r="F167" t="str">
+            <v>Diabetes routine care, ages 45-54</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="E168" t="str">
+            <v>DPC.Dbt.125E</v>
+          </cell>
+          <cell r="F168" t="str">
+            <v>Diabetes routine care, ages 55-64</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="E169" t="str">
+            <v>DPC.Dbt.125F</v>
+          </cell>
+          <cell r="F169" t="str">
+            <v>Diabetes routine care, ages 65+</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="E170" t="str">
+            <v>DPC.Asth.126</v>
+          </cell>
+          <cell r="F170" t="str">
+            <v>Smoking cessation</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="E171" t="str">
+            <v>DPC.Asth.127</v>
+          </cell>
+          <cell r="F171" t="str">
+            <v>Prevention of risk factors</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="E172" t="str">
+            <v>DPC.Asth.128</v>
+          </cell>
+          <cell r="F172" t="str">
+            <v>Dx &amp; treat mild asthma</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="E173" t="str">
+            <v>DPC.Asth.129</v>
+          </cell>
+          <cell r="F173" t="str">
+            <v>Dx &amp; refer severe asthma</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="F174" t="str">
+            <v>Awareness</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="E175" t="str">
+            <v>DPC.MH.130A</v>
+          </cell>
+          <cell r="F175" t="str">
+            <v>Generate community awareness</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="F176" t="str">
+            <v>Identify &amp; link to care</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="E177" t="str">
+            <v>DPC.MH.130B</v>
+          </cell>
+          <cell r="F177" t="str">
+            <v>Depression identify &amp; link to care, ages 18-30</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="E178" t="str">
+            <v>DPC.MH.130C</v>
+          </cell>
+          <cell r="F178" t="str">
+            <v>Depression identify &amp; link to care, ages 31-44</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="E179" t="str">
+            <v>DPC.MH.130D</v>
+          </cell>
+          <cell r="F179" t="str">
+            <v>Depression identify &amp; link to care, ages 45-54</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="E180" t="str">
+            <v>DPC.MH.130E</v>
+          </cell>
+          <cell r="F180" t="str">
+            <v>Depression identify &amp; link to care, ages 55-64</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="E181" t="str">
+            <v>DPC.MH.130F</v>
+          </cell>
+          <cell r="F181" t="str">
+            <v>Depression identify &amp; link to care, ages 65+</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="E182" t="str">
+            <v>DPC.MH.131</v>
+          </cell>
+          <cell r="F182" t="str">
+            <v>Workplace stress reduction</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="E183" t="str">
+            <v>DPC.MH.132</v>
+          </cell>
+          <cell r="F183" t="str">
+            <v>School-based mental health programs</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="E184" t="str">
+            <v>DPC.MH.133</v>
+          </cell>
+          <cell r="F184" t="str">
+            <v>Identify &amp; assess drug use</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="E185" t="str">
+            <v>DPC.MH.134</v>
+          </cell>
+          <cell r="F185" t="str">
+            <v>Safer storage of pesticides</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="E186" t="str">
+            <v>DPC.MH.135</v>
+          </cell>
+          <cell r="F186" t="str">
+            <v>Emergency poisoning response</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="E187" t="str">
+            <v>DPC.Oph.136</v>
+          </cell>
+          <cell r="F187" t="str">
+            <v>Awareness &amp; screening for cataracts</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="E188" t="str">
+            <v>DPC.Oph.137</v>
+          </cell>
+          <cell r="F188" t="str">
+            <v>Awareness of eye glasses</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="E189" t="str">
+            <v>DPC.Oph.138</v>
+          </cell>
+          <cell r="F189" t="str">
+            <v>School screenings for vision impairment</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="E190" t="str">
+            <v>DPC.Oph.139</v>
+          </cell>
+          <cell r="F190" t="str">
+            <v>Opportunistic screenings for vision impairment</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="E191" t="str">
+            <v>DPC.Oph.140</v>
+          </cell>
+          <cell r="F191" t="str">
+            <v>Awareness &amp; screening for glaucoma</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="E192" t="str">
+            <v>DPC.Oph.141</v>
+          </cell>
+          <cell r="F192" t="str">
+            <v>Common eye infection treatment</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="E193" t="str">
+            <v>DPC.FA.basic</v>
+          </cell>
+          <cell r="F193" t="str">
+            <v>Basic first aid</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="E194" t="str">
+            <v>DPC.FA.adv</v>
+          </cell>
+          <cell r="F194" t="str">
+            <v>Advanced first aid</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="F195" t="str">
+            <v>Laceration &amp; wound care</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="F196" t="str">
+            <v>Non-op fracture and dislocation care</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="F197" t="str">
+            <v>Basic wound management</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="F198" t="str">
+            <v>Draining superficial abscesses</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="F199" t="str">
+            <v>Prevention of ENT blockages</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="F200" t="str">
+            <v>Management of ENT blockages</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="F201" t="str">
+            <v>Acute musculosekeletal injury</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="F202" t="str">
+            <v>Minor surgeries</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="F203" t="str">
+            <v>Mass casualty management</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="F204" t="str">
+            <v>Dx, emergency response zoonotic diseases</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="E205" t="str">
+            <v>DPC.OutPt.152</v>
+          </cell>
+          <cell r="F205" t="str">
+            <v>Assorted adult outpatient</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="E206" t="str">
+            <v>DPC.NTD.156</v>
+          </cell>
+          <cell r="F206" t="str">
+            <v>Surveillance for NTDs</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="E207" t="str">
+            <v>DPC.NTD.157</v>
+          </cell>
+          <cell r="F207" t="str">
+            <v>LF screening &amp; referral</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="E208" t="str">
+            <v>DPC.NTD.158</v>
+          </cell>
+          <cell r="F208" t="str">
+            <v>LF MDA</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="E209" t="str">
+            <v>DPC.NTD.159</v>
+          </cell>
+          <cell r="F209" t="str">
+            <v>LLINs and IRS</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="E210" t="str">
+            <v>DPC.NTD.160</v>
+          </cell>
+          <cell r="F210" t="str">
+            <v>LF behavior change</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="E211" t="str">
+            <v>DPC.NTD.161</v>
+          </cell>
+          <cell r="F211" t="str">
+            <v>Oncho MDA</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="E212" t="str">
+            <v>DPC.NTD.162</v>
+          </cell>
+          <cell r="F212" t="str">
+            <v>Oncho behavior change</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="E213" t="str">
+            <v>DPC.NTD.163</v>
+          </cell>
+          <cell r="F213" t="str">
+            <v>Trachoma behavior change</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="E214" t="str">
+            <v>DPC.NTD.164</v>
+          </cell>
+          <cell r="F214" t="str">
+            <v>Promote water and sanitation</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="E215" t="str">
+            <v>DPC.NTD.165</v>
+          </cell>
+          <cell r="F215" t="str">
+            <v>Dx &amp; treat trachoma</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="E216" t="str">
+            <v>DPC.NTD.166</v>
+          </cell>
+          <cell r="F216" t="str">
+            <v>Trochomatous trichiasis surgery</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="E217" t="str">
+            <v>DPC.NTD.167</v>
+          </cell>
+          <cell r="F217" t="str">
+            <v>Trachoma MDA</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="E218" t="str">
+            <v>DPC.NTD.168</v>
+          </cell>
+          <cell r="F218" t="str">
+            <v>Promote face washing</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="E219" t="str">
+            <v>DPC.NTD.169</v>
+          </cell>
+          <cell r="F219" t="str">
+            <v>Schisto behavior change</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="E220" t="str">
+            <v>DPC.NTD.170</v>
+          </cell>
+          <cell r="F220" t="str">
+            <v>Snail control</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="E221" t="str">
+            <v>DPC.NTD.171</v>
+          </cell>
+          <cell r="F221" t="str">
+            <v>Schisto MDA</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="E222" t="str">
+            <v>DPC.NTD.172</v>
+          </cell>
+          <cell r="F222" t="str">
+            <v>STH behavior change</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="E223" t="str">
+            <v>DPC.NTD.173</v>
+          </cell>
+          <cell r="F223" t="str">
+            <v>STH MDA</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="E224" t="str">
+            <v>DPC.NTD.174</v>
+          </cell>
+          <cell r="F224" t="str">
+            <v>STH dx &amp; treat in pregnancy</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="E225" t="str">
+            <v>DPC.NTD.175</v>
+          </cell>
+          <cell r="F225" t="str">
+            <v>Scabies behavior change</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="E226" t="str">
+            <v>DPC.NTD.176</v>
+          </cell>
+          <cell r="F226" t="str">
+            <v>Scabies MDA</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="E227" t="str">
+            <v>DPC.NTD.177</v>
+          </cell>
+          <cell r="F227" t="str">
+            <v>Dx &amp; treat scabies</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="E228" t="str">
+            <v>DPC.NTD.178</v>
+          </cell>
+          <cell r="F228" t="str">
+            <v>GW vector control</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="E229" t="str">
+            <v>DPC.NTD.179</v>
+          </cell>
+          <cell r="F229" t="str">
+            <v>Dx and refer GW</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="E230" t="str">
+            <v>DPC.NTD.180</v>
+          </cell>
+          <cell r="F230" t="str">
+            <v>GW behavior change</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="E231" t="str">
+            <v>DPC.NTD.181</v>
+          </cell>
+          <cell r="F231" t="str">
+            <v>GW surveillance</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="E232" t="str">
+            <v>DPC.NTD.182</v>
+          </cell>
+          <cell r="F232" t="str">
+            <v>Podo behavior change</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="E233" t="str">
+            <v>DPC.NTD.183</v>
+          </cell>
+          <cell r="F233" t="str">
+            <v>Identify &amp; refer infectious lymphadema</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="E234" t="str">
+            <v>MHH_HEH</v>
+          </cell>
+          <cell r="F234" t="str">
+            <v>Model household program</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="E235" t="str">
+            <v>MHH_HEP</v>
+          </cell>
+          <cell r="F235" t="str">
+            <v>Model household program</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="E236" t="str">
+            <v>Travel_DontUse</v>
+          </cell>
+          <cell r="F236" t="str">
+            <v>Travel_DontUse</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="E237" t="str">
+            <v>Record keeping</v>
+          </cell>
+          <cell r="F237" t="str">
+            <v>Record keeping</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="E238" t="str">
+            <v>Travel_HEH</v>
+          </cell>
+          <cell r="F238" t="str">
+            <v>Travel HEH</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="E239" t="str">
+            <v>Travel_HEP</v>
+          </cell>
+          <cell r="F239" t="str">
+            <v>Travel HEP</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="E240" t="str">
+            <v>Overhead_staff1</v>
+          </cell>
+          <cell r="F240" t="str">
+            <v>Overhead staff 1</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="E241" t="str">
+            <v>Overhead_staff2</v>
+          </cell>
+          <cell r="F241" t="str">
+            <v>Overhead staff 2</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="E242" t="str">
+            <v>Overhead_staff3</v>
+          </cell>
+          <cell r="F242" t="str">
+            <v>Overhead staff 3</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="E243" t="str">
+            <v>Overhead_staff4</v>
+          </cell>
+          <cell r="F243" t="str">
+            <v>Overhead staff 4</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="E244" t="str">
+            <v>Overhead_staff5</v>
+          </cell>
+          <cell r="F244" t="str">
+            <v>Overhead staff 5</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="E245" t="str">
+            <v>Overhead_staff6</v>
+          </cell>
+          <cell r="F245" t="str">
+            <v>Overhead staff 6</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4117,26 +6192,27 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="16.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.86328125" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="14.265625" customWidth="1"/>
-    <col min="11" max="11" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.83984375" customWidth="1"/>
+    <col min="4" max="4" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="14.26171875" customWidth="1"/>
+    <col min="11" max="11" width="18.1015625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -4180,16 +6256,19 @@
         <v>178</v>
       </c>
       <c r="O1" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -4233,13 +6312,16 @@
         <v>181</v>
       </c>
       <c r="O2" t="s">
+        <v>438</v>
+      </c>
+      <c r="P2" t="s">
         <v>182</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>269</v>
       </c>
@@ -4283,9 +6365,12 @@
         <v>181</v>
       </c>
       <c r="O3" t="s">
+        <v>438</v>
+      </c>
+      <c r="P3" t="s">
         <v>182</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4305,20 +6390,20 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4347,7 +6432,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -4373,7 +6458,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -4399,7 +6484,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>241</v>
       </c>
@@ -4429,7 +6514,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -4455,7 +6540,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>243</v>
       </c>
@@ -4484,7 +6569,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>245</v>
       </c>
@@ -4529,12 +6614,12 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.59765625" customWidth="1"/>
+    <col min="1" max="1" width="27.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -4548,7 +6633,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -4559,7 +6644,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -4567,7 +6652,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -4575,7 +6660,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -4589,7 +6674,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -4600,7 +6685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -4611,7 +6696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -4622,7 +6707,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -4630,7 +6715,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -4655,29 +6740,29 @@
       <selection activeCell="A3" sqref="A3:S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.26171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.83984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.41796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1015625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.1015625" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -4736,7 +6821,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -4787,29 +6872,29 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.26171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.83984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.41796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1015625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.1015625" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -4868,7 +6953,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -4903,7 +6988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>266</v>
       </c>
@@ -4938,7 +7023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>271</v>
       </c>
@@ -4973,7 +7058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>273</v>
       </c>
@@ -4999,7 +7084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>276</v>
       </c>
@@ -5025,7 +7110,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>277</v>
       </c>
@@ -5077,13 +7162,13 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="7" width="12.73046875" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="8" customWidth="1"/>
+    <col min="2" max="7" width="12.734375" customWidth="1"/>
+    <col min="8" max="8" width="12.734375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -5106,7 +7191,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -5130,7 +7215,7 @@
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -5154,7 +7239,7 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -5178,7 +7263,7 @@
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -5202,7 +7287,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -5226,7 +7311,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -5250,7 +7335,7 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -5274,7 +7359,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -5298,7 +7383,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -5322,7 +7407,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -5346,7 +7431,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -5370,7 +7455,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -5411,13 +7496,13 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="7" width="12.73046875" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="8" customWidth="1"/>
+    <col min="2" max="7" width="12.734375" customWidth="1"/>
+    <col min="8" max="8" width="12.734375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -5440,7 +7525,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -5464,7 +7549,7 @@
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -5488,7 +7573,7 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -5512,7 +7597,7 @@
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -5536,7 +7621,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -5560,7 +7645,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -5584,7 +7669,7 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -5608,7 +7693,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -5632,7 +7717,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -5656,7 +7741,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -5680,7 +7765,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -5704,7 +7789,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -5745,13 +7830,13 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -5780,7 +7865,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -5803,7 +7888,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -5817,7 +7902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -5831,7 +7916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -5848,7 +7933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -5865,7 +7950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -5879,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -5902,7 +7987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -5916,7 +8001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -5933,7 +8018,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -5962,7 +8047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -5976,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -5990,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -6007,7 +8092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -6021,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -6035,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -6049,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>122</v>
       </c>
@@ -6063,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -6077,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -6091,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -6105,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -6119,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>266</v>
       </c>
@@ -6153,13 +8238,13 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -6188,7 +8273,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -6211,7 +8296,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -6225,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -6239,7 +8324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -6256,7 +8341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -6273,7 +8358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -6287,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -6310,7 +8395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -6324,7 +8409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -6341,7 +8426,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -6370,7 +8455,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -6384,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -6398,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -6415,7 +8500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -6429,7 +8514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -6443,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -6457,7 +8542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>122</v>
       </c>
@@ -6471,7 +8556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -6485,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -6499,7 +8584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -6513,7 +8598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -6527,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>266</v>
       </c>
@@ -6561,19 +8646,19 @@
       <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.73046875" customWidth="1"/>
-    <col min="9" max="9" width="29.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.734375" customWidth="1"/>
+    <col min="9" max="9" width="29.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="24" t="s">
         <v>412</v>
       </c>
@@ -6593,7 +8678,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>418</v>
       </c>
@@ -6614,7 +8699,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="str">
         <f>A2</f>
         <v>ComprehensiveModel</v>
@@ -6636,7 +8721,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="str">
         <f>A2</f>
         <v>ComprehensiveModel</v>
@@ -6655,7 +8740,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="str">
         <f>A2</f>
         <v>ComprehensiveModel</v>
@@ -6674,7 +8759,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="str">
         <f>A2</f>
         <v>ComprehensiveModel</v>
@@ -6693,7 +8778,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="str">
         <f>A2</f>
         <v>ComprehensiveModel</v>
@@ -6712,7 +8797,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="str">
         <f>A2</f>
         <v>ComprehensiveModel</v>
@@ -6731,7 +8816,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="str">
         <f>A2</f>
         <v>ComprehensiveModel</v>
@@ -6750,7 +8835,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>431</v>
       </c>
@@ -6771,7 +8856,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="str">
         <f>A10</f>
         <v>BasicModel</v>
@@ -6793,7 +8878,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="str">
         <f>A10</f>
         <v>BasicModel</v>
@@ -6812,7 +8897,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="str">
         <f>A10</f>
         <v>BasicModel</v>
@@ -6831,7 +8916,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="str">
         <f>A10</f>
         <v>BasicModel</v>
@@ -6850,7 +8935,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="str">
         <f>A10</f>
         <v>BasicModel</v>
@@ -6869,7 +8954,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>432</v>
       </c>
@@ -6890,7 +8975,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="str">
         <f>A16</f>
         <v>MergedModel</v>
@@ -6912,7 +8997,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="str">
         <f>A16</f>
         <v>MergedModel</v>
@@ -6931,7 +9016,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="str">
         <f>A16</f>
         <v>MergedModel</v>
@@ -6970,21 +9055,21 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" customWidth="1"/>
-    <col min="2" max="2" width="46.1328125" customWidth="1"/>
-    <col min="3" max="12" width="13.73046875" customWidth="1"/>
-    <col min="13" max="13" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="13.73046875" customWidth="1"/>
-    <col min="21" max="21" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.578125" customWidth="1"/>
+    <col min="2" max="2" width="46.1015625" customWidth="1"/>
+    <col min="3" max="12" width="13.734375" customWidth="1"/>
+    <col min="13" max="13" width="13.734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="13.734375" customWidth="1"/>
+    <col min="21" max="21" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.41796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.26171875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="5.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="23.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>281</v>
       </c>
@@ -7056,7 +9141,7 @@
         <v>StartYear2035</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="19" t="s">
         <v>24</v>
       </c>
@@ -7112,7 +9197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="22" t="s">
         <v>288</v>
       </c>
@@ -7161,7 +9246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="22" t="s">
         <v>289</v>
       </c>
@@ -7210,7 +9295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="22" t="s">
         <v>290</v>
       </c>
@@ -7259,7 +9344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="22" t="s">
         <v>291</v>
       </c>
@@ -7308,7 +9393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="22" t="s">
         <v>292</v>
       </c>
@@ -7357,7 +9442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="22" t="s">
         <v>293</v>
       </c>
@@ -7406,7 +9491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="22" t="s">
         <v>294</v>
       </c>
@@ -7455,7 +9540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="22" t="s">
         <v>295</v>
       </c>
@@ -7504,7 +9589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="22" t="s">
         <v>296</v>
       </c>
@@ -7553,7 +9638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="22" t="s">
         <v>297</v>
       </c>
@@ -7602,7 +9687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="22" t="s">
         <v>298</v>
       </c>
@@ -7651,7 +9736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="22" t="s">
         <v>299</v>
       </c>
@@ -7700,7 +9785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="22" t="s">
         <v>300</v>
       </c>
@@ -7749,7 +9834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="22" t="s">
         <v>301</v>
       </c>
@@ -7798,7 +9883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="22" t="s">
         <v>302</v>
       </c>
@@ -7847,7 +9932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="22" t="s">
         <v>303</v>
       </c>
@@ -7896,7 +9981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="22" t="s">
         <v>304</v>
       </c>
@@ -7945,7 +10030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="22" t="s">
         <v>305</v>
       </c>
@@ -7994,7 +10079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="22" t="s">
         <v>306</v>
       </c>
@@ -8043,7 +10128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="22" t="s">
         <v>307</v>
       </c>
@@ -8092,7 +10177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="22" t="s">
         <v>308</v>
       </c>
@@ -8141,7 +10226,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="22" t="s">
         <v>309</v>
       </c>
@@ -8190,7 +10275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="22" t="s">
         <v>310</v>
       </c>
@@ -8239,7 +10324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="22" t="s">
         <v>311</v>
       </c>
@@ -8288,7 +10373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="22" t="s">
         <v>312</v>
       </c>
@@ -8337,7 +10422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="22" t="s">
         <v>313</v>
       </c>
@@ -8386,7 +10471,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="22" t="s">
         <v>314</v>
       </c>
@@ -8435,7 +10520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="22" t="s">
         <v>315</v>
       </c>
@@ -8484,7 +10569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="22" t="s">
         <v>316</v>
       </c>
@@ -8533,7 +10618,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="22" t="s">
         <v>317</v>
       </c>
@@ -8582,7 +10667,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="22" t="s">
         <v>318</v>
       </c>
@@ -8631,7 +10716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="22" t="s">
         <v>319</v>
       </c>
@@ -8680,7 +10765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="22" t="s">
         <v>320</v>
       </c>
@@ -8729,7 +10814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="22" t="s">
         <v>321</v>
       </c>
@@ -8778,7 +10863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="22" t="s">
         <v>322</v>
       </c>
@@ -8827,7 +10912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="22" t="s">
         <v>323</v>
       </c>
@@ -8876,7 +10961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="22" t="s">
         <v>324</v>
       </c>
@@ -8925,7 +11010,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="22" t="s">
         <v>325</v>
       </c>
@@ -8974,7 +11059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="22" t="s">
         <v>326</v>
       </c>
@@ -9023,7 +11108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="22" t="s">
         <v>327</v>
       </c>
@@ -9072,7 +11157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="22" t="s">
         <v>328</v>
       </c>
@@ -9121,7 +11206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="22" t="s">
         <v>329</v>
       </c>
@@ -9170,7 +11255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="22" t="s">
         <v>330</v>
       </c>
@@ -9219,7 +11304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="22" t="s">
         <v>331</v>
       </c>
@@ -9268,7 +11353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="22" t="s">
         <v>332</v>
       </c>
@@ -9317,7 +11402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="22" t="s">
         <v>333</v>
       </c>
@@ -9366,7 +11451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="22" t="s">
         <v>334</v>
       </c>
@@ -9415,7 +11500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="22" t="s">
         <v>335</v>
       </c>
@@ -9464,7 +11549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="22" t="s">
         <v>336</v>
       </c>
@@ -9513,7 +11598,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="22" t="s">
         <v>337</v>
       </c>
@@ -9562,7 +11647,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="22" t="s">
         <v>338</v>
       </c>
@@ -9611,7 +11696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="22" t="s">
         <v>339</v>
       </c>
@@ -9660,7 +11745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="22" t="s">
         <v>340</v>
       </c>
@@ -9709,7 +11794,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="22" t="s">
         <v>341</v>
       </c>
@@ -9758,7 +11843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="22" t="s">
         <v>342</v>
       </c>
@@ -9807,7 +11892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="22" t="s">
         <v>343</v>
       </c>
@@ -9856,7 +11941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="22" t="s">
         <v>344</v>
       </c>
@@ -9905,7 +11990,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="22" t="s">
         <v>345</v>
       </c>
@@ -9954,7 +12039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="22" t="s">
         <v>346</v>
       </c>
@@ -10003,7 +12088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="22" t="s">
         <v>347</v>
       </c>
@@ -10052,7 +12137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="22" t="s">
         <v>348</v>
       </c>
@@ -10101,7 +12186,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="22" t="s">
         <v>349</v>
       </c>
@@ -10150,7 +12235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="22" t="s">
         <v>350</v>
       </c>
@@ -10199,7 +12284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="22" t="s">
         <v>351</v>
       </c>
@@ -10248,7 +12333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="22" t="s">
         <v>352</v>
       </c>
@@ -10297,7 +12382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="22" t="s">
         <v>353</v>
       </c>
@@ -10346,7 +12431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="22" t="s">
         <v>354</v>
       </c>
@@ -10395,7 +12480,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="22" t="s">
         <v>355</v>
       </c>
@@ -10444,7 +12529,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="22" t="s">
         <v>356</v>
       </c>
@@ -10493,7 +12578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="22" t="s">
         <v>357</v>
       </c>
@@ -10542,7 +12627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="22" t="s">
         <v>358</v>
       </c>
@@ -10591,7 +12676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="22" t="s">
         <v>359</v>
       </c>
@@ -10640,7 +12725,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="22" t="s">
         <v>360</v>
       </c>
@@ -10689,7 +12774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="22" t="s">
         <v>361</v>
       </c>
@@ -10738,7 +12823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="22" t="s">
         <v>362</v>
       </c>
@@ -10787,7 +12872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="22" t="s">
         <v>363</v>
       </c>
@@ -10836,7 +12921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="22" t="s">
         <v>364</v>
       </c>
@@ -10885,7 +12970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="22" t="s">
         <v>365</v>
       </c>
@@ -10934,7 +13019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="22" t="s">
         <v>366</v>
       </c>
@@ -10983,7 +13068,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="22" t="s">
         <v>367</v>
       </c>
@@ -11032,7 +13117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="22" t="s">
         <v>368</v>
       </c>
@@ -11081,7 +13166,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="22" t="s">
         <v>369</v>
       </c>
@@ -11130,7 +13215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="22" t="s">
         <v>370</v>
       </c>
@@ -11179,7 +13264,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="22" t="s">
         <v>371</v>
       </c>
@@ -11228,7 +13313,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="22" t="s">
         <v>372</v>
       </c>
@@ -11277,7 +13362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="22" t="s">
         <v>373</v>
       </c>
@@ -11326,7 +13411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="22" t="s">
         <v>374</v>
       </c>
@@ -11375,7 +13460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="22" t="s">
         <v>375</v>
       </c>
@@ -11424,7 +13509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="22" t="s">
         <v>376</v>
       </c>
@@ -11473,7 +13558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="22" t="s">
         <v>377</v>
       </c>
@@ -11522,7 +13607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="22" t="s">
         <v>378</v>
       </c>
@@ -11571,7 +13656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="22" t="s">
         <v>379</v>
       </c>
@@ -11620,7 +13705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="22" t="s">
         <v>380</v>
       </c>
@@ -11669,7 +13754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="22" t="s">
         <v>381</v>
       </c>
@@ -11718,7 +13803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="22" t="s">
         <v>382</v>
       </c>
@@ -11767,7 +13852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="22" t="s">
         <v>383</v>
       </c>
@@ -11816,7 +13901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="22" t="s">
         <v>384</v>
       </c>
@@ -11865,7 +13950,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="22" t="s">
         <v>385</v>
       </c>
@@ -11914,7 +13999,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="22" t="s">
         <v>386</v>
       </c>
@@ -11963,7 +14048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="22" t="s">
         <v>387</v>
       </c>
@@ -12012,7 +14097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="22" t="s">
         <v>388</v>
       </c>
@@ -12061,7 +14146,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="22" t="s">
         <v>389</v>
       </c>
@@ -12110,7 +14195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="22" t="s">
         <v>390</v>
       </c>
@@ -12159,7 +14244,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="22" t="s">
         <v>391</v>
       </c>
@@ -12208,7 +14293,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="22" t="s">
         <v>392</v>
       </c>
@@ -12257,7 +14342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="22" t="s">
         <v>393</v>
       </c>
@@ -12306,7 +14391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="22" t="s">
         <v>394</v>
       </c>
@@ -12355,7 +14440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="22" t="s">
         <v>395</v>
       </c>
@@ -12404,7 +14489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="22" t="s">
         <v>396</v>
       </c>
@@ -12453,7 +14538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="22" t="s">
         <v>397</v>
       </c>
@@ -12502,7 +14587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="22" t="s">
         <v>398</v>
       </c>
@@ -12551,7 +14636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="22" t="s">
         <v>399</v>
       </c>
@@ -12600,7 +14685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="22" t="s">
         <v>400</v>
       </c>
@@ -12649,7 +14734,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="22" t="s">
         <v>401</v>
       </c>
@@ -12698,7 +14783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="22" t="s">
         <v>402</v>
       </c>
@@ -12747,7 +14832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="22" t="s">
         <v>403</v>
       </c>
@@ -12796,7 +14881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="22" t="s">
         <v>404</v>
       </c>
@@ -12845,7 +14930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="22" t="s">
         <v>405</v>
       </c>
@@ -12894,7 +14979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="22" t="s">
         <v>406</v>
       </c>
@@ -12943,7 +15028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="22" t="s">
         <v>407</v>
       </c>
@@ -12992,7 +15077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>408</v>
       </c>
@@ -13040,7 +15125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>410</v>
       </c>
@@ -13089,17 +15174,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N3:N122 R3:R122 F3:F122 J3:J122">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R123 F123 J123 N123">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F124 J124 N124 R124">
+  <conditionalFormatting sqref="F3:F124 J3:J124 N3:N124 R3:R124">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>100</formula>
     </cfRule>
@@ -13114,26 +15189,27 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="16.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.86328125" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="14.265625" customWidth="1"/>
-    <col min="11" max="11" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.83984375" customWidth="1"/>
+    <col min="4" max="4" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="14.26171875" customWidth="1"/>
+    <col min="11" max="11" width="18.1015625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -13177,16 +15253,19 @@
         <v>178</v>
       </c>
       <c r="O1" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -13230,13 +15309,16 @@
         <v>181</v>
       </c>
       <c r="O2" t="s">
+        <v>438</v>
+      </c>
+      <c r="P2" t="s">
         <v>182</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>269</v>
       </c>
@@ -13280,9 +15362,12 @@
         <v>181</v>
       </c>
       <c r="O3" t="s">
+        <v>438</v>
+      </c>
+      <c r="P3" t="s">
         <v>182</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -13292,6 +15377,670 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFA0868-3869-4A6C-9FAB-9B3B4AFE137E}">
+  <dimension ref="A1:W8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:W8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:23" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" t="str">
+        <f>VLOOKUP(A2,[7]TaskValues_ref!E:F,2,FALSE)</f>
+        <v>ANC visits</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:G4" si="0">C2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:L4" si="1">0.75</f>
+        <v>0.75</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="M2">
+        <v>0.9</v>
+      </c>
+      <c r="N2">
+        <v>0.9</v>
+      </c>
+      <c r="O2">
+        <v>0.9</v>
+      </c>
+      <c r="P2">
+        <v>0.9</v>
+      </c>
+      <c r="Q2">
+        <v>0.9</v>
+      </c>
+      <c r="R2">
+        <v>0.95</v>
+      </c>
+      <c r="S2">
+        <v>0.95</v>
+      </c>
+      <c r="T2">
+        <v>0.95</v>
+      </c>
+      <c r="U2">
+        <v>0.95</v>
+      </c>
+      <c r="V2">
+        <v>0.95</v>
+      </c>
+      <c r="W2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="B3" t="str">
+        <f>VLOOKUP(A3,[7]TaskValues_ref!E:F,2,FALSE)</f>
+        <v>ANC rapid testing</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="M3">
+        <v>0.9</v>
+      </c>
+      <c r="N3">
+        <v>0.9</v>
+      </c>
+      <c r="O3">
+        <v>0.9</v>
+      </c>
+      <c r="P3">
+        <v>0.9</v>
+      </c>
+      <c r="Q3">
+        <v>0.9</v>
+      </c>
+      <c r="R3">
+        <v>0.95</v>
+      </c>
+      <c r="S3">
+        <v>0.95</v>
+      </c>
+      <c r="T3">
+        <v>0.95</v>
+      </c>
+      <c r="U3">
+        <v>0.95</v>
+      </c>
+      <c r="V3">
+        <v>0.95</v>
+      </c>
+      <c r="W3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4" t="str">
+        <f>VLOOKUP(A4,[7]TaskValues_ref!E:F,2,FALSE)</f>
+        <v>Normal labor management</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="M4">
+        <v>0.9</v>
+      </c>
+      <c r="N4">
+        <v>0.9</v>
+      </c>
+      <c r="O4">
+        <v>0.9</v>
+      </c>
+      <c r="P4">
+        <v>0.9</v>
+      </c>
+      <c r="Q4">
+        <v>0.9</v>
+      </c>
+      <c r="R4">
+        <v>0.95</v>
+      </c>
+      <c r="S4">
+        <v>0.95</v>
+      </c>
+      <c r="T4">
+        <v>0.95</v>
+      </c>
+      <c r="U4">
+        <v>0.95</v>
+      </c>
+      <c r="V4">
+        <v>0.95</v>
+      </c>
+      <c r="W4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="B5" t="str">
+        <f>VLOOKUP(A5,[7]TaskValues_ref!E:F,2,FALSE)</f>
+        <v>Active management 3rd stage</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <f>H5</f>
+        <v>0.2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:W6" si="2">I5</f>
+        <v>0.2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="B6" t="str">
+        <f>VLOOKUP(A6,[7]TaskValues_ref!E:F,2,FALSE)</f>
+        <v>Emergency OB</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <v>0.3</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+      <c r="G6">
+        <v>0.3</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+      <c r="K6">
+        <v>0.2</v>
+      </c>
+      <c r="L6">
+        <v>0.2</v>
+      </c>
+      <c r="M6">
+        <v>0.1</v>
+      </c>
+      <c r="N6">
+        <v>0.1</v>
+      </c>
+      <c r="O6">
+        <v>0.1</v>
+      </c>
+      <c r="P6">
+        <f>O6</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" t="str">
+        <f>VLOOKUP(A7,[7]TaskValues_ref!E:F,2,FALSE)</f>
+        <v>Pre-referral for complications</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:G8" si="3">C7</f>
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:L8" si="4">0.75</f>
+        <v>0.75</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="M7">
+        <v>0.9</v>
+      </c>
+      <c r="N7">
+        <v>0.9</v>
+      </c>
+      <c r="O7">
+        <v>0.9</v>
+      </c>
+      <c r="P7">
+        <v>0.9</v>
+      </c>
+      <c r="Q7">
+        <v>0.9</v>
+      </c>
+      <c r="R7">
+        <v>0.95</v>
+      </c>
+      <c r="S7">
+        <v>0.95</v>
+      </c>
+      <c r="T7">
+        <v>0.95</v>
+      </c>
+      <c r="U7">
+        <v>0.95</v>
+      </c>
+      <c r="V7">
+        <v>0.95</v>
+      </c>
+      <c r="W7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" t="str">
+        <f>VLOOKUP(A8,[7]TaskValues_ref!E:F,2,FALSE)</f>
+        <v>PNC home visits</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="M8">
+        <v>0.9</v>
+      </c>
+      <c r="N8">
+        <v>0.9</v>
+      </c>
+      <c r="O8">
+        <v>0.9</v>
+      </c>
+      <c r="P8">
+        <v>0.9</v>
+      </c>
+      <c r="Q8">
+        <v>0.9</v>
+      </c>
+      <c r="R8">
+        <v>0.95</v>
+      </c>
+      <c r="S8">
+        <v>0.95</v>
+      </c>
+      <c r="T8">
+        <v>0.95</v>
+      </c>
+      <c r="U8">
+        <v>0.95</v>
+      </c>
+      <c r="V8">
+        <v>0.95</v>
+      </c>
+      <c r="W8">
+        <v>0.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:W8" xr:uid="{1822EFBB-E6FC-4306-8CCC-D1FFEFFCE9FF}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA08B31E-403F-4D98-A2C5-BD7B3834450E}">
   <dimension ref="B1:J142"/>
   <sheetViews>
@@ -13299,16 +16048,16 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="15.86328125" customWidth="1"/>
+    <col min="4" max="4" width="15.83984375" customWidth="1"/>
     <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" customWidth="1"/>
-    <col min="10" max="10" width="12.73046875" customWidth="1"/>
+    <col min="7" max="8" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.578125" customWidth="1"/>
+    <col min="10" max="10" width="12.734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="14" t="s">
         <v>247</v>
       </c>
@@ -13331,7 +16080,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
         <v>252</v>
       </c>
@@ -13354,7 +16103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="3" t="s">
         <v>253</v>
       </c>
@@ -13377,7 +16126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3" t="s">
         <v>255</v>
       </c>
@@ -13400,7 +16149,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="3" t="s">
         <v>60</v>
       </c>
@@ -13417,7 +16166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="3" t="s">
         <v>56</v>
       </c>
@@ -13426,376 +16175,376 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="3"/>
       <c r="D8" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3"/>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="3" t="s">
         <v>62</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="3" t="s">
         <v>256</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H24" s="3"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H29" s="3"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F50"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F51"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F52"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F53"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F54"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F55"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F56"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F57"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F58"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F59"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F60"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F61"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F62"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F63"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F64"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F65"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F66"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F67"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F68"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F69"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F70"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F71"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F72"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F73"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F74"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F75"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F76"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F77"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F78"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F79"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F80"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F81"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F82"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F83"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F84"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F85"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F86"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F87"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F88"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F89"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F90"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F91"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F92"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F93"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F94"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F95"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F96"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F97"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F98"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F99"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F100"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F101"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F102"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F103"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F104"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F105"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F106"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F107"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F108"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F109"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F110"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F111"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F112"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F113"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F114"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F115"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F116"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F117"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F118"/>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F119"/>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F120"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F121"/>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F122"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F123"/>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F124"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F125"/>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F126"/>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F127"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F128"/>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F129"/>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F130"/>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F131"/>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F132"/>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F133"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F134"/>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F135"/>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F136"/>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F137"/>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F138"/>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F139"/>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F140"/>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F141"/>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F142"/>
     </row>
   </sheetData>
@@ -13804,7 +16553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E7F677-BE8D-4B15-BFBB-F131739569D4}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -13815,19 +16564,19 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -13856,7 +16605,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -13876,7 +16625,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -13899,7 +16648,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -13928,7 +16677,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -13957,7 +16706,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -13986,7 +16735,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -14015,7 +16764,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -14044,7 +16793,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -14073,7 +16822,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -14102,7 +16851,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -14125,7 +16874,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -14151,7 +16900,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -14180,7 +16929,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -14209,7 +16958,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>206</v>
       </c>
@@ -14238,7 +16987,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -14267,7 +17016,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>212</v>
       </c>
@@ -14296,7 +17045,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>143</v>
       </c>
@@ -14325,7 +17074,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>144</v>
       </c>
@@ -14354,7 +17103,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>145</v>
       </c>
@@ -14383,7 +17132,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>146</v>
       </c>
@@ -14409,7 +17158,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -14435,7 +17184,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>222</v>
       </c>
@@ -14464,7 +17213,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>225</v>
       </c>
@@ -14493,7 +17242,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>228</v>
       </c>
@@ -14522,7 +17271,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -14551,7 +17300,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>234</v>
       </c>
@@ -14580,7 +17329,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -14609,7 +17358,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -14638,7 +17387,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -14667,7 +17416,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -14709,16 +17458,16 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="15.86328125" customWidth="1"/>
+    <col min="4" max="4" width="15.83984375" customWidth="1"/>
     <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" customWidth="1"/>
-    <col min="10" max="10" width="12.73046875" customWidth="1"/>
+    <col min="7" max="8" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.578125" customWidth="1"/>
+    <col min="10" max="10" width="12.734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="14" t="s">
         <v>247</v>
       </c>
@@ -14741,7 +17490,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
         <v>252</v>
       </c>
@@ -14764,7 +17513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="3" t="s">
         <v>253</v>
       </c>
@@ -14787,7 +17536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3" t="s">
         <v>255</v>
       </c>
@@ -14810,7 +17559,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="3" t="s">
         <v>60</v>
       </c>
@@ -14827,7 +17576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="3" t="s">
         <v>56</v>
       </c>
@@ -14836,376 +17585,376 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="3"/>
       <c r="D8" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3"/>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="3" t="s">
         <v>62</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="3" t="s">
         <v>256</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H24" s="3"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H29" s="3"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F50"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F51"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F52"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F53"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F54"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F55"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F56"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F57"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F58"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F59"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F60"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F61"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F62"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F63"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F64"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F65"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F66"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F67"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F68"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F69"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F70"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F71"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F72"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F73"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F74"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F75"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F76"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F77"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F78"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F79"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F80"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F81"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F82"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F83"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F84"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F85"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F86"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F87"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F88"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F89"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F90"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F91"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F92"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F93"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F94"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F95"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F96"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F97"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F98"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F99"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F100"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F101"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F102"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F103"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F104"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F105"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F106"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F107"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F108"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F109"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F110"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F111"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F112"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F113"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F114"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F115"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F116"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F117"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F118"/>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F119"/>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F120"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F121"/>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F122"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F123"/>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F124"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F125"/>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F126"/>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F127"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F128"/>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F129"/>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F130"/>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F131"/>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F132"/>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F133"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F134"/>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F135"/>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F136"/>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F137"/>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F138"/>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F139"/>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F140"/>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F141"/>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F142"/>
     </row>
   </sheetData>
@@ -15225,12 +17974,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="11"/>
+    <col min="1" max="1" width="9.1015625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -15244,7 +17993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -15259,7 +18008,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -15274,7 +18023,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -15289,7 +18038,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -15304,7 +18053,7 @@
         <v>19400</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -15319,7 +18068,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -15334,7 +18083,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -15349,7 +18098,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -15364,7 +18113,7 @@
         <v>18600</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -15379,7 +18128,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -15394,7 +18143,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -15409,7 +18158,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -15424,7 +18173,7 @@
         <v>17800</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -15439,7 +18188,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -15454,7 +18203,7 @@
         <v>17400</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -15469,7 +18218,7 @@
         <v>17200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -15484,7 +18233,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -15499,7 +18248,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -15514,7 +18263,7 @@
         <v>16600</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -15529,7 +18278,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -15544,7 +18293,7 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -15559,7 +18308,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -15574,7 +18323,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -15589,7 +18338,7 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -15604,7 +18353,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -15619,7 +18368,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -15634,7 +18383,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -15649,7 +18398,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -15664,7 +18413,7 @@
         <v>14600</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -15679,7 +18428,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -15694,7 +18443,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -15709,7 +18458,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -15724,7 +18473,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -15739,7 +18488,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -15754,7 +18503,7 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="11">
         <v>34</v>
       </c>
@@ -15769,7 +18518,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -15784,7 +18533,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11">
         <v>36</v>
       </c>
@@ -15799,7 +18548,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -15814,7 +18563,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -15829,7 +18578,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -15844,7 +18593,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -15859,7 +18608,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -15874,7 +18623,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -15889,7 +18638,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -15904,7 +18653,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -15919,7 +18668,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -15934,7 +18683,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -15949,7 +18698,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -15964,7 +18713,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -15979,7 +18728,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -15994,7 +18743,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -16009,7 +18758,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -16024,7 +18773,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -16039,7 +18788,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -16054,7 +18803,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -16069,7 +18818,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -16084,7 +18833,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -16099,7 +18848,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -16114,7 +18863,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -16129,7 +18878,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -16144,7 +18893,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -16159,7 +18908,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -16174,7 +18923,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -16189,7 +18938,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -16204,7 +18953,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -16219,7 +18968,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -16234,7 +18983,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -16249,7 +18998,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -16264,7 +19013,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="11">
         <v>68</v>
       </c>
@@ -16279,7 +19028,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="11">
         <v>69</v>
       </c>
@@ -16294,7 +19043,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -16309,7 +19058,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -16324,7 +19073,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -16339,7 +19088,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="11">
         <v>73</v>
       </c>
@@ -16354,7 +19103,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="11">
         <v>74</v>
       </c>
@@ -16369,7 +19118,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -16384,7 +19133,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -16399,7 +19148,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -16414,7 +19163,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="11">
         <v>78</v>
       </c>
@@ -16429,7 +19178,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -16444,7 +19193,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="11">
         <v>80</v>
       </c>
@@ -16459,7 +19208,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="11">
         <v>81</v>
       </c>
@@ -16474,7 +19223,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="11">
         <v>82</v>
       </c>
@@ -16489,7 +19238,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -16504,7 +19253,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="11">
         <v>84</v>
       </c>
@@ -16519,7 +19268,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="11">
         <v>85</v>
       </c>
@@ -16534,7 +19283,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="11">
         <v>86</v>
       </c>
@@ -16549,7 +19298,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="11">
         <v>87</v>
       </c>
@@ -16564,7 +19313,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="11">
         <v>88</v>
       </c>
@@ -16579,7 +19328,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="11">
         <v>89</v>
       </c>
@@ -16594,7 +19343,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="11">
         <v>90</v>
       </c>
@@ -16609,7 +19358,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="11">
         <v>91</v>
       </c>
@@ -16624,7 +19373,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="11">
         <v>92</v>
       </c>
@@ -16639,7 +19388,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="11">
         <v>93</v>
       </c>
@@ -16654,7 +19403,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="11">
         <v>94</v>
       </c>
@@ -16669,7 +19418,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="11">
         <v>95</v>
       </c>
@@ -16684,7 +19433,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="11">
         <v>96</v>
       </c>
@@ -16699,7 +19448,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="11">
         <v>97</v>
       </c>
@@ -16714,7 +19463,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="11">
         <v>98</v>
       </c>
@@ -16729,7 +19478,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="11">
         <v>99</v>
       </c>
@@ -16744,7 +19493,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="11">
         <v>100</v>
       </c>
@@ -16775,12 +19524,12 @@
       <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.59765625" customWidth="1"/>
+    <col min="1" max="1" width="27.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -16794,7 +19543,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -16805,7 +19554,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -16813,7 +19562,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -16821,7 +19570,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -16835,7 +19584,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -16846,7 +19595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -16857,7 +19606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -16868,7 +19617,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -16876,7 +19625,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -16901,12 +19650,12 @@
       <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.59765625" customWidth="1"/>
+    <col min="1" max="1" width="27.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -16920,7 +19669,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -16931,7 +19680,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -16939,7 +19688,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -16947,7 +19696,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -16961,7 +19710,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -16972,7 +19721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -16983,7 +19732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -16994,7 +19743,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -17002,7 +19751,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -17023,17 +19772,17 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.9296875" customWidth="1"/>
-    <col min="2" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.9453125" customWidth="1"/>
+    <col min="2" max="3" width="5.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="29.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="26" t="s">
         <v>433</v>
       </c>
@@ -17044,7 +19793,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="29" t="s">
         <v>108</v>
       </c>
@@ -17055,7 +19804,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="29" t="s">
         <v>157</v>
       </c>
@@ -17066,7 +19815,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="34" t="s">
         <v>436</v>
       </c>
@@ -17094,12 +19843,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -17113,7 +19862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -17128,7 +19877,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -17143,7 +19892,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -17158,7 +19907,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -17173,7 +19922,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -17188,7 +19937,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -17203,7 +19952,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -17218,7 +19967,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -17233,7 +19982,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -17248,7 +19997,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -17263,7 +20012,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -17278,7 +20027,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -17293,7 +20042,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -17308,7 +20057,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -17323,7 +20072,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -17338,7 +20087,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -17353,7 +20102,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -17368,7 +20117,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -17383,7 +20132,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -17398,7 +20147,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -17413,7 +20162,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -17428,7 +20177,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -17443,7 +20192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -17458,7 +20207,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -17473,7 +20222,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -17488,7 +20237,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -17503,7 +20252,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -17518,7 +20267,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -17533,7 +20282,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -17548,7 +20297,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -17563,7 +20312,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -17578,7 +20327,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -17593,7 +20342,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -17608,7 +20357,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -17623,7 +20372,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="11">
         <v>34</v>
       </c>
@@ -17638,7 +20387,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -17653,7 +20402,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11">
         <v>36</v>
       </c>
@@ -17668,7 +20417,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -17683,7 +20432,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -17698,7 +20447,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -17713,7 +20462,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -17728,7 +20477,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -17743,7 +20492,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -17758,7 +20507,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -17773,7 +20522,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -17788,7 +20537,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -17803,7 +20552,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -17818,7 +20567,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -17833,7 +20582,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -17848,7 +20597,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -17863,7 +20612,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -17878,7 +20627,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -17893,7 +20642,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -17908,7 +20657,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -17923,7 +20672,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -17938,7 +20687,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -17953,7 +20702,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -17968,7 +20717,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -17983,7 +20732,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -17998,7 +20747,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -18013,7 +20762,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -18028,7 +20777,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -18043,7 +20792,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -18058,7 +20807,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -18073,7 +20822,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -18088,7 +20837,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -18103,7 +20852,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -18118,7 +20867,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -18133,7 +20882,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="11">
         <v>68</v>
       </c>
@@ -18148,7 +20897,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="11">
         <v>69</v>
       </c>
@@ -18163,7 +20912,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -18178,7 +20927,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -18193,7 +20942,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -18208,7 +20957,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="11">
         <v>73</v>
       </c>
@@ -18223,7 +20972,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="11">
         <v>74</v>
       </c>
@@ -18238,7 +20987,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -18253,7 +21002,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -18268,7 +21017,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -18283,7 +21032,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="11">
         <v>78</v>
       </c>
@@ -18298,7 +21047,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -18313,7 +21062,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="11">
         <v>80</v>
       </c>
@@ -18328,7 +21077,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="11">
         <v>81</v>
       </c>
@@ -18343,7 +21092,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="11">
         <v>82</v>
       </c>
@@ -18358,7 +21107,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -18373,7 +21122,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="11">
         <v>84</v>
       </c>
@@ -18388,7 +21137,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="11">
         <v>85</v>
       </c>
@@ -18403,7 +21152,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="11">
         <v>86</v>
       </c>
@@ -18418,7 +21167,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="11">
         <v>87</v>
       </c>
@@ -18433,7 +21182,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="11">
         <v>88</v>
       </c>
@@ -18448,7 +21197,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="11">
         <v>89</v>
       </c>
@@ -18463,7 +21212,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="11">
         <v>90</v>
       </c>
@@ -18478,7 +21227,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="11">
         <v>91</v>
       </c>
@@ -18493,7 +21242,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="11">
         <v>92</v>
       </c>
@@ -18508,7 +21257,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="11">
         <v>93</v>
       </c>
@@ -18523,7 +21272,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="11">
         <v>94</v>
       </c>
@@ -18538,7 +21287,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="11">
         <v>95</v>
       </c>
@@ -18553,7 +21302,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="11">
         <v>96</v>
       </c>
@@ -18568,7 +21317,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="11">
         <v>97</v>
       </c>
@@ -18583,7 +21332,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="11">
         <v>98</v>
       </c>
@@ -18598,7 +21347,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="11">
         <v>99</v>
       </c>
@@ -18613,7 +21362,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="11">
         <v>100</v>
       </c>
@@ -18644,20 +21393,20 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -18686,7 +21435,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -18712,7 +21461,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -18738,7 +21487,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>241</v>
       </c>
@@ -18768,7 +21517,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -18794,7 +21543,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>243</v>
       </c>
@@ -18823,7 +21572,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>245</v>
       </c>
